--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E251AA7-A40B-064E-8F85-B4481699C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA44E4E-F9C2-704B-BB5E-84B8948DF5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="740" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="581">
   <si>
     <t>Variable</t>
   </si>
@@ -4794,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5287,6 +5287,12 @@
       </c>
       <c r="C44" t="s">
         <v>438</v>
+      </c>
+      <c r="D44" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA44E4E-F9C2-704B-BB5E-84B8948DF5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58EDE73-EBA7-7D42-84BF-10D5FDF407BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
     <sheet name="logic" sheetId="2" r:id="rId2"/>
-    <sheet name="metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="palettes" sheetId="4" r:id="rId3"/>
+    <sheet name="metadata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="620">
   <si>
     <t>Variable</t>
   </si>
@@ -1765,13 +1766,130 @@
   </si>
   <si>
     <t>Convert 'Age 18-24 education data not available to weight' to NA.</t>
+  </si>
+  <si>
+    <t>pal_fun</t>
+  </si>
+  <si>
+    <t>pal_rev</t>
+  </si>
+  <si>
+    <t>pal_start</t>
+  </si>
+  <si>
+    <t>Okabe-Ito</t>
+  </si>
+  <si>
+    <t>grDevices::palette.colors</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Vik</t>
+  </si>
+  <si>
+    <t>grDevices::hcl.colors</t>
+  </si>
+  <si>
+    <t>diverging</t>
+  </si>
+  <si>
+    <t>Best represented as a stacked bar plot, in order, and with a diverging palette</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>By default, all palettes come in a specific order, so this number represents where to start in this vector of colors.</t>
+  </si>
+  <si>
+    <t>missingness</t>
+  </si>
+  <si>
+    <t>Grays</t>
+  </si>
+  <si>
+    <t>pal_id</t>
+  </si>
+  <si>
+    <t>pal_name</t>
+  </si>
+  <si>
+    <t>pal_size</t>
+  </si>
+  <si>
+    <t>When supplying a `pal_start` we need to know how big the starting palette should be. Default is 8.</t>
+  </si>
+  <si>
+    <t>pal_options</t>
+  </si>
+  <si>
+    <t>BluYl</t>
+  </si>
+  <si>
+    <t>purples1</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>pal_diff</t>
+  </si>
+  <si>
+    <t>When determining color palette swatch, it expands the range, reducing the color difference in sequential palettes. An example  use case for this is if the sequences goes from dark purple to light purple, and the light purple is too light.</t>
+  </si>
+  <si>
+    <t>mint2</t>
+  </si>
+  <si>
+    <t>Dark Mint</t>
+  </si>
+  <si>
+    <t>mako3</t>
+  </si>
+  <si>
+    <t>Mako</t>
+  </si>
+  <si>
+    <t>ordmako3</t>
+  </si>
+  <si>
+    <t>blues3</t>
+  </si>
+  <si>
+    <t>Blues 3</t>
+  </si>
+  <si>
+    <t>earth3</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>sunset4</t>
+  </si>
+  <si>
+    <t>Sunset</t>
+  </si>
+  <si>
+    <t>puor4</t>
+  </si>
+  <si>
+    <t>PuOr</t>
+  </si>
+  <si>
+    <t>My preferred language is not available (e.g., no translation or interpretation is available).</t>
+  </si>
+  <si>
+    <t>No Preferred Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1902,6 +2020,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2248,8 +2372,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2625,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4646,142 +4773,156 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="B149" t="s">
         <v>386</v>
       </c>
       <c r="C149" t="s">
-        <v>409</v>
+        <v>618</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B150" t="s">
         <v>386</v>
       </c>
       <c r="C150" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D150" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B151" t="s">
         <v>386</v>
       </c>
       <c r="C151" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D151" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B152" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="C152" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+      <c r="D152" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B153" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C153" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B154" t="s">
         <v>420</v>
       </c>
       <c r="C154" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B155" t="s">
         <v>420</v>
       </c>
       <c r="C155" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B156" t="s">
         <v>420</v>
       </c>
       <c r="C156" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B157" t="s">
         <v>420</v>
       </c>
       <c r="C157" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B158" t="s">
         <v>420</v>
       </c>
       <c r="C158" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B159" t="s">
         <v>420</v>
       </c>
       <c r="C159" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B160" t="s">
         <v>420</v>
       </c>
       <c r="C160" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>434</v>
+      </c>
+      <c r="B161" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4792,3332 +4933,4685 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A196" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="3" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" t="s">
+        <v>439</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" t="s">
+        <v>439</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>439</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D31" t="s">
+        <v>439</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" t="s">
+        <v>438</v>
+      </c>
+      <c r="D32" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D33" t="s">
+        <v>439</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>439</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" t="s">
+        <v>438</v>
+      </c>
+      <c r="D36" t="s">
+        <v>439</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>440</v>
+      </c>
+      <c r="C37" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>440</v>
+      </c>
+      <c r="C38" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" t="s">
+        <v>439</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>440</v>
+      </c>
+      <c r="C39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" t="s">
+        <v>439</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" t="s">
+        <v>438</v>
+      </c>
+      <c r="D40" t="s">
+        <v>439</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D41" t="s">
+        <v>439</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>440</v>
+      </c>
+      <c r="C42" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" t="s">
+        <v>439</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" t="s">
+        <v>439</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
+      <c r="D45" t="s">
+        <v>439</v>
+      </c>
+      <c r="E45" t="s">
+        <v>601</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>556</v>
+      </c>
+      <c r="H45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>441</v>
+      </c>
+      <c r="C46" t="s">
+        <v>438</v>
+      </c>
+      <c r="D46" t="s">
+        <v>439</v>
+      </c>
+      <c r="E46" t="s">
+        <v>601</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>556</v>
+      </c>
+      <c r="H46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" t="s">
+        <v>438</v>
+      </c>
+      <c r="D47" t="s">
+        <v>439</v>
+      </c>
+      <c r="E47" t="s">
+        <v>601</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>556</v>
+      </c>
+      <c r="H47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>441</v>
+      </c>
+      <c r="C48" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E48" t="s">
+        <v>601</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>556</v>
+      </c>
+      <c r="H48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" t="s">
+        <v>439</v>
+      </c>
+      <c r="E49" t="s">
+        <v>601</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>556</v>
+      </c>
+      <c r="H49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D50" t="s">
+        <v>439</v>
+      </c>
+      <c r="E50" t="s">
+        <v>601</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>556</v>
+      </c>
+      <c r="H50" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>442</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D52" t="s">
+        <v>439</v>
+      </c>
+      <c r="E52" t="s">
+        <v>605</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" t="s">
+        <v>439</v>
+      </c>
+      <c r="E53" t="s">
+        <v>605</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>466</v>
+      </c>
+      <c r="C54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D54" t="s">
+        <v>439</v>
+      </c>
+      <c r="E54" t="s">
+        <v>605</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" t="s">
+        <v>439</v>
+      </c>
+      <c r="E55" t="s">
+        <v>605</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
+      <c r="D56" t="s">
+        <v>439</v>
+      </c>
+      <c r="E56" t="s">
+        <v>605</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>466</v>
+      </c>
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" t="s">
+        <v>439</v>
+      </c>
+      <c r="E57" t="s">
+        <v>605</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>466</v>
+      </c>
+      <c r="C58" t="s">
+        <v>438</v>
+      </c>
+      <c r="D58" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" t="s">
+        <v>605</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C59" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" t="s">
+        <v>439</v>
+      </c>
+      <c r="E59" t="s">
+        <v>605</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>466</v>
+      </c>
+      <c r="C60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" t="s">
+        <v>439</v>
+      </c>
+      <c r="E60" t="s">
+        <v>605</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>466</v>
+      </c>
+      <c r="C61" t="s">
+        <v>438</v>
+      </c>
+      <c r="D61" t="s">
+        <v>439</v>
+      </c>
+      <c r="E61" t="s">
+        <v>605</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>467</v>
+      </c>
+      <c r="C62" t="s">
+        <v>442</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>468</v>
+      </c>
+      <c r="C63" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" t="s">
+        <v>439</v>
+      </c>
+      <c r="E63" t="s">
+        <v>605</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>468</v>
+      </c>
+      <c r="C64" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" t="s">
+        <v>439</v>
+      </c>
+      <c r="E64" t="s">
+        <v>605</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>468</v>
+      </c>
+      <c r="C65" t="s">
+        <v>438</v>
+      </c>
+      <c r="D65" t="s">
+        <v>439</v>
+      </c>
+      <c r="E65" t="s">
+        <v>605</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>468</v>
+      </c>
+      <c r="C66" t="s">
+        <v>438</v>
+      </c>
+      <c r="D66" t="s">
+        <v>439</v>
+      </c>
+      <c r="E66" t="s">
+        <v>605</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>468</v>
+      </c>
+      <c r="C67" t="s">
+        <v>438</v>
+      </c>
+      <c r="D67" t="s">
+        <v>439</v>
+      </c>
+      <c r="E67" t="s">
+        <v>605</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C68" t="s">
+        <v>438</v>
+      </c>
+      <c r="D68" t="s">
+        <v>439</v>
+      </c>
+      <c r="E68" t="s">
+        <v>605</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>468</v>
+      </c>
+      <c r="C69" t="s">
+        <v>438</v>
+      </c>
+      <c r="D69" t="s">
+        <v>439</v>
+      </c>
+      <c r="E69" t="s">
+        <v>605</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>468</v>
+      </c>
+      <c r="C70" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" t="s">
+        <v>439</v>
+      </c>
+      <c r="E70" t="s">
+        <v>605</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>468</v>
+      </c>
+      <c r="C71" t="s">
+        <v>438</v>
+      </c>
+      <c r="D71" t="s">
+        <v>439</v>
+      </c>
+      <c r="E71" t="s">
+        <v>605</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>468</v>
+      </c>
+      <c r="C72" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" t="s">
+        <v>439</v>
+      </c>
+      <c r="E72" t="s">
+        <v>605</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>468</v>
+      </c>
+      <c r="C73" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" t="s">
+        <v>439</v>
+      </c>
+      <c r="E73" t="s">
+        <v>605</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>468</v>
+      </c>
+      <c r="C74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" t="s">
+        <v>439</v>
+      </c>
+      <c r="E74" t="s">
+        <v>605</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>468</v>
+      </c>
+      <c r="C75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D75" t="s">
+        <v>439</v>
+      </c>
+      <c r="E75" t="s">
+        <v>605</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>469</v>
+      </c>
+      <c r="C76" t="s">
+        <v>442</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>470</v>
+      </c>
+      <c r="C77" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" t="s">
+        <v>605</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>470</v>
+      </c>
+      <c r="C78" t="s">
+        <v>438</v>
+      </c>
+      <c r="D78" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" t="s">
+        <v>605</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>470</v>
+      </c>
+      <c r="C79" t="s">
+        <v>438</v>
+      </c>
+      <c r="D79" t="s">
+        <v>439</v>
+      </c>
+      <c r="E79" t="s">
+        <v>605</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>470</v>
+      </c>
+      <c r="C80" t="s">
+        <v>438</v>
+      </c>
+      <c r="D80" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" t="s">
+        <v>605</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>470</v>
+      </c>
+      <c r="C81" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" t="s">
+        <v>439</v>
+      </c>
+      <c r="E81" t="s">
+        <v>605</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>470</v>
+      </c>
+      <c r="C82" t="s">
+        <v>438</v>
+      </c>
+      <c r="D82" t="s">
+        <v>439</v>
+      </c>
+      <c r="E82" t="s">
+        <v>605</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>470</v>
+      </c>
+      <c r="C83" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" t="s">
+        <v>439</v>
+      </c>
+      <c r="E83" t="s">
+        <v>605</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>439</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>471</v>
+      </c>
+      <c r="C85" t="s">
+        <v>442</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>472</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>442</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s">
+        <v>473</v>
+      </c>
+      <c r="C88" t="s">
+        <v>438</v>
+      </c>
+      <c r="D88" t="s">
+        <v>439</v>
+      </c>
+      <c r="E88" t="s">
+        <v>607</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" t="s">
+        <v>473</v>
+      </c>
+      <c r="C89" t="s">
+        <v>438</v>
+      </c>
+      <c r="D89" t="s">
+        <v>439</v>
+      </c>
+      <c r="E89" t="s">
+        <v>607</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>473</v>
+      </c>
+      <c r="C90" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" t="s">
+        <v>439</v>
+      </c>
+      <c r="E90" t="s">
+        <v>607</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" t="s">
+        <v>473</v>
+      </c>
+      <c r="C91" t="s">
+        <v>438</v>
+      </c>
+      <c r="D91" t="s">
+        <v>439</v>
+      </c>
+      <c r="E91" t="s">
+        <v>607</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>473</v>
+      </c>
+      <c r="C92" t="s">
+        <v>438</v>
+      </c>
+      <c r="D92" t="s">
+        <v>439</v>
+      </c>
+      <c r="E92" t="s">
+        <v>607</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" t="s">
+        <v>473</v>
+      </c>
+      <c r="C93" t="s">
+        <v>438</v>
+      </c>
+      <c r="D93" t="s">
+        <v>439</v>
+      </c>
+      <c r="E93" t="s">
+        <v>607</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>473</v>
+      </c>
+      <c r="C94" t="s">
+        <v>438</v>
+      </c>
+      <c r="D94" t="s">
+        <v>439</v>
+      </c>
+      <c r="E94" t="s">
+        <v>607</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" t="s">
+        <v>438</v>
+      </c>
+      <c r="D95" t="s">
+        <v>439</v>
+      </c>
+      <c r="E95" t="s">
+        <v>607</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" t="s">
+        <v>472</v>
+      </c>
+      <c r="E96" t="s">
+        <v>609</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" t="s">
+        <v>474</v>
+      </c>
+      <c r="C97" t="s">
+        <v>472</v>
+      </c>
+      <c r="E97" t="s">
+        <v>609</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" t="s">
+        <v>474</v>
+      </c>
+      <c r="C98" t="s">
+        <v>472</v>
+      </c>
+      <c r="E98" t="s">
+        <v>609</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" t="s">
+        <v>472</v>
+      </c>
+      <c r="E99" t="s">
+        <v>609</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>474</v>
+      </c>
+      <c r="C100" t="s">
+        <v>472</v>
+      </c>
+      <c r="E100" t="s">
+        <v>609</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101" t="s">
+        <v>472</v>
+      </c>
+      <c r="E101" t="s">
+        <v>609</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" t="s">
+        <v>474</v>
+      </c>
+      <c r="C102" t="s">
+        <v>472</v>
+      </c>
+      <c r="E102" t="s">
+        <v>609</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" t="s">
+        <v>438</v>
+      </c>
+      <c r="D103" t="s">
+        <v>439</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>475</v>
+      </c>
+      <c r="C104" t="s">
+        <v>442</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" t="s">
+        <v>472</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" t="s">
+        <v>439</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>575</v>
+      </c>
+      <c r="I106" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>476</v>
+      </c>
+      <c r="C107" t="s">
+        <v>438</v>
+      </c>
+      <c r="E107" t="s">
+        <v>610</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>252</v>
+      </c>
+      <c r="B108" t="s">
+        <v>476</v>
+      </c>
+      <c r="C108" t="s">
+        <v>438</v>
+      </c>
+      <c r="E108" t="s">
+        <v>610</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" t="s">
+        <v>476</v>
+      </c>
+      <c r="C109" t="s">
+        <v>438</v>
+      </c>
+      <c r="E109" t="s">
+        <v>610</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" t="s">
+        <v>476</v>
+      </c>
+      <c r="C110" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" t="s">
+        <v>610</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" t="s">
+        <v>476</v>
+      </c>
+      <c r="C111" t="s">
+        <v>438</v>
+      </c>
+      <c r="E111" t="s">
+        <v>610</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>264</v>
+      </c>
+      <c r="B112" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" t="s">
+        <v>438</v>
+      </c>
+      <c r="E112" t="s">
+        <v>610</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>267</v>
+      </c>
+      <c r="B113" t="s">
+        <v>476</v>
+      </c>
+      <c r="C113" t="s">
+        <v>438</v>
+      </c>
+      <c r="E113" t="s">
+        <v>610</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s">
+        <v>476</v>
+      </c>
+      <c r="C114" t="s">
+        <v>438</v>
+      </c>
+      <c r="E114" t="s">
+        <v>610</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" t="s">
+        <v>476</v>
+      </c>
+      <c r="C115" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" t="s">
+        <v>610</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>476</v>
+      </c>
+      <c r="C116" t="s">
+        <v>438</v>
+      </c>
+      <c r="E116" t="s">
+        <v>610</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" t="s">
+        <v>438</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>477</v>
+      </c>
+      <c r="C118" t="s">
+        <v>442</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" t="s">
+        <v>478</v>
+      </c>
+      <c r="C119" t="s">
+        <v>589</v>
+      </c>
+      <c r="E119" t="s">
+        <v>612</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" t="s">
+        <v>478</v>
+      </c>
+      <c r="C120" t="s">
+        <v>589</v>
+      </c>
+      <c r="E120" t="s">
+        <v>612</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>285</v>
+      </c>
+      <c r="C121" t="s">
+        <v>438</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>558</v>
+      </c>
+      <c r="H121" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" t="s">
+        <v>442</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" t="s">
+        <v>480</v>
+      </c>
+      <c r="C123" t="s">
+        <v>589</v>
+      </c>
+      <c r="D123" t="s">
+        <v>439</v>
+      </c>
+      <c r="E123" t="s">
+        <v>612</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" t="s">
+        <v>480</v>
+      </c>
+      <c r="C124" t="s">
+        <v>589</v>
+      </c>
+      <c r="D124" t="s">
+        <v>439</v>
+      </c>
+      <c r="E124" t="s">
+        <v>612</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" t="s">
+        <v>480</v>
+      </c>
+      <c r="C125" t="s">
+        <v>589</v>
+      </c>
+      <c r="D125" t="s">
+        <v>439</v>
+      </c>
+      <c r="E125" t="s">
+        <v>612</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" t="s">
+        <v>481</v>
+      </c>
+      <c r="C126" t="s">
+        <v>438</v>
+      </c>
+      <c r="E126" t="s">
+        <v>610</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" t="s">
+        <v>481</v>
+      </c>
+      <c r="C127" t="s">
+        <v>438</v>
+      </c>
+      <c r="E127" t="s">
+        <v>610</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" t="s">
+        <v>481</v>
+      </c>
+      <c r="C128" t="s">
+        <v>438</v>
+      </c>
+      <c r="E128" t="s">
+        <v>610</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" t="s">
+        <v>481</v>
+      </c>
+      <c r="C129" t="s">
+        <v>438</v>
+      </c>
+      <c r="E129" t="s">
+        <v>610</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>306</v>
+      </c>
+      <c r="B130" t="s">
+        <v>481</v>
+      </c>
+      <c r="C130" t="s">
+        <v>438</v>
+      </c>
+      <c r="E130" t="s">
+        <v>610</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>308</v>
+      </c>
+      <c r="B131" t="s">
+        <v>481</v>
+      </c>
+      <c r="C131" t="s">
+        <v>438</v>
+      </c>
+      <c r="E131" t="s">
+        <v>610</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" t="s">
+        <v>481</v>
+      </c>
+      <c r="C132" t="s">
+        <v>438</v>
+      </c>
+      <c r="E132" t="s">
+        <v>610</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" t="s">
+        <v>438</v>
+      </c>
+      <c r="E133" t="s">
+        <v>610</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" t="s">
+        <v>481</v>
+      </c>
+      <c r="C134" t="s">
+        <v>438</v>
+      </c>
+      <c r="E134" t="s">
+        <v>610</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" t="s">
+        <v>481</v>
+      </c>
+      <c r="C135" t="s">
+        <v>438</v>
+      </c>
+      <c r="E135" t="s">
+        <v>610</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>322</v>
+      </c>
+      <c r="B136" t="s">
+        <v>481</v>
+      </c>
+      <c r="C136" t="s">
+        <v>438</v>
+      </c>
+      <c r="E136" t="s">
+        <v>610</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>324</v>
+      </c>
+      <c r="B137" t="s">
+        <v>481</v>
+      </c>
+      <c r="C137" t="s">
+        <v>438</v>
+      </c>
+      <c r="E137" t="s">
+        <v>610</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>327</v>
+      </c>
+      <c r="B138" t="s">
+        <v>481</v>
+      </c>
+      <c r="C138" t="s">
+        <v>438</v>
+      </c>
+      <c r="E138" t="s">
+        <v>610</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" t="s">
+        <v>481</v>
+      </c>
+      <c r="C139" t="s">
+        <v>438</v>
+      </c>
+      <c r="E139" t="s">
+        <v>610</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" t="s">
+        <v>481</v>
+      </c>
+      <c r="C140" t="s">
+        <v>438</v>
+      </c>
+      <c r="E140" t="s">
+        <v>610</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>336</v>
+      </c>
+      <c r="B141" t="s">
+        <v>481</v>
+      </c>
+      <c r="C141" t="s">
+        <v>438</v>
+      </c>
+      <c r="E141" t="s">
+        <v>610</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>482</v>
+      </c>
+      <c r="C142" t="s">
+        <v>442</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>483</v>
+      </c>
+      <c r="C143" t="s">
+        <v>439</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>484</v>
+      </c>
+      <c r="C144" t="s">
+        <v>472</v>
+      </c>
+      <c r="D144" t="s">
+        <v>439</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>485</v>
+      </c>
+      <c r="B145" t="s">
+        <v>486</v>
+      </c>
+      <c r="C145" t="s">
+        <v>438</v>
+      </c>
+      <c r="D145" t="s">
+        <v>439</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>486</v>
+      </c>
+      <c r="C146" t="s">
+        <v>438</v>
+      </c>
+      <c r="D146" t="s">
+        <v>439</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>488</v>
+      </c>
+      <c r="B147" t="s">
+        <v>486</v>
+      </c>
+      <c r="C147" t="s">
+        <v>438</v>
+      </c>
+      <c r="D147" t="s">
+        <v>439</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" t="s">
+        <v>486</v>
+      </c>
+      <c r="C148" t="s">
+        <v>438</v>
+      </c>
+      <c r="D148" t="s">
+        <v>439</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>490</v>
+      </c>
+      <c r="B149" t="s">
+        <v>486</v>
+      </c>
+      <c r="C149" t="s">
+        <v>438</v>
+      </c>
+      <c r="D149" t="s">
+        <v>439</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>491</v>
+      </c>
+      <c r="B150" t="s">
+        <v>486</v>
+      </c>
+      <c r="C150" t="s">
+        <v>438</v>
+      </c>
+      <c r="D150" t="s">
+        <v>439</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>492</v>
+      </c>
+      <c r="B151" t="s">
+        <v>486</v>
+      </c>
+      <c r="C151" t="s">
+        <v>438</v>
+      </c>
+      <c r="D151" t="s">
+        <v>439</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>493</v>
+      </c>
+      <c r="C152" t="s">
+        <v>442</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>494</v>
+      </c>
+      <c r="C153" t="s">
+        <v>472</v>
+      </c>
+      <c r="D153" t="s">
+        <v>439</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>495</v>
+      </c>
+      <c r="C154" t="s">
+        <v>472</v>
+      </c>
+      <c r="D154" t="s">
+        <v>439</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>496</v>
+      </c>
+      <c r="C155" t="s">
+        <v>439</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>497</v>
+      </c>
+      <c r="B156" t="s">
+        <v>498</v>
+      </c>
+      <c r="C156" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156" t="s">
+        <v>439</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>499</v>
+      </c>
+      <c r="B157" t="s">
+        <v>498</v>
+      </c>
+      <c r="C157" t="s">
+        <v>438</v>
+      </c>
+      <c r="D157" t="s">
+        <v>439</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>500</v>
+      </c>
+      <c r="B158" t="s">
+        <v>498</v>
+      </c>
+      <c r="C158" t="s">
+        <v>438</v>
+      </c>
+      <c r="D158" t="s">
+        <v>439</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>501</v>
+      </c>
+      <c r="B159" t="s">
+        <v>498</v>
+      </c>
+      <c r="C159" t="s">
+        <v>438</v>
+      </c>
+      <c r="D159" t="s">
+        <v>439</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>502</v>
+      </c>
+      <c r="B160" t="s">
+        <v>498</v>
+      </c>
+      <c r="C160" t="s">
+        <v>438</v>
+      </c>
+      <c r="D160" t="s">
+        <v>439</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>503</v>
+      </c>
+      <c r="B161" t="s">
+        <v>498</v>
+      </c>
+      <c r="C161" t="s">
+        <v>438</v>
+      </c>
+      <c r="D161" t="s">
+        <v>439</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>504</v>
+      </c>
+      <c r="B162" t="s">
+        <v>498</v>
+      </c>
+      <c r="C162" t="s">
+        <v>438</v>
+      </c>
+      <c r="D162" t="s">
+        <v>439</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>505</v>
+      </c>
+      <c r="B163" t="s">
+        <v>498</v>
+      </c>
+      <c r="C163" t="s">
+        <v>438</v>
+      </c>
+      <c r="D163" t="s">
+        <v>439</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>506</v>
+      </c>
+      <c r="B164" t="s">
+        <v>498</v>
+      </c>
+      <c r="C164" t="s">
+        <v>438</v>
+      </c>
+      <c r="D164" t="s">
+        <v>439</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>507</v>
+      </c>
+      <c r="B165" t="s">
+        <v>498</v>
+      </c>
+      <c r="C165" t="s">
+        <v>438</v>
+      </c>
+      <c r="D165" t="s">
+        <v>439</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>508</v>
+      </c>
+      <c r="B166" t="s">
+        <v>498</v>
+      </c>
+      <c r="C166" t="s">
+        <v>438</v>
+      </c>
+      <c r="D166" t="s">
+        <v>439</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>509</v>
+      </c>
+      <c r="C167" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>510</v>
+      </c>
+      <c r="C168" t="s">
+        <v>443</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="s">
+        <v>472</v>
+      </c>
+      <c r="D169" t="s">
+        <v>439</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>511</v>
+      </c>
+      <c r="C170" t="s">
+        <v>443</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>512</v>
+      </c>
+      <c r="C171" t="s">
+        <v>443</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" t="s">
+        <v>472</v>
+      </c>
+      <c r="D172" t="s">
+        <v>439</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" t="s">
+        <v>438</v>
+      </c>
+      <c r="D173" t="s">
+        <v>439</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>514</v>
+      </c>
+      <c r="B174" t="s">
+        <v>515</v>
+      </c>
+      <c r="C174" t="s">
+        <v>438</v>
+      </c>
+      <c r="D174" t="s">
+        <v>439</v>
+      </c>
+      <c r="E174" t="s">
+        <v>614</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>516</v>
+      </c>
+      <c r="B175" t="s">
+        <v>515</v>
+      </c>
+      <c r="C175" t="s">
+        <v>438</v>
+      </c>
+      <c r="D175" t="s">
+        <v>439</v>
+      </c>
+      <c r="E175" t="s">
+        <v>614</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>517</v>
+      </c>
+      <c r="B176" t="s">
+        <v>515</v>
+      </c>
+      <c r="C176" t="s">
+        <v>438</v>
+      </c>
+      <c r="D176" t="s">
+        <v>439</v>
+      </c>
+      <c r="E176" t="s">
+        <v>614</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>518</v>
+      </c>
+      <c r="B177" t="s">
+        <v>515</v>
+      </c>
+      <c r="C177" t="s">
+        <v>438</v>
+      </c>
+      <c r="D177" t="s">
+        <v>439</v>
+      </c>
+      <c r="E177" t="s">
+        <v>614</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>519</v>
+      </c>
+      <c r="B178" t="s">
+        <v>515</v>
+      </c>
+      <c r="C178" t="s">
+        <v>438</v>
+      </c>
+      <c r="D178" t="s">
+        <v>439</v>
+      </c>
+      <c r="E178" t="s">
+        <v>614</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>520</v>
+      </c>
+      <c r="B179" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" t="s">
+        <v>438</v>
+      </c>
+      <c r="D179" t="s">
+        <v>439</v>
+      </c>
+      <c r="E179" t="s">
+        <v>614</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>521</v>
+      </c>
+      <c r="B180" t="s">
+        <v>515</v>
+      </c>
+      <c r="C180" t="s">
+        <v>438</v>
+      </c>
+      <c r="D180" t="s">
+        <v>439</v>
+      </c>
+      <c r="E180" t="s">
+        <v>614</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>522</v>
+      </c>
+      <c r="B181" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" t="s">
+        <v>438</v>
+      </c>
+      <c r="D181" t="s">
+        <v>439</v>
+      </c>
+      <c r="E181" t="s">
+        <v>614</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>523</v>
+      </c>
+      <c r="B182" t="s">
+        <v>515</v>
+      </c>
+      <c r="C182" t="s">
+        <v>438</v>
+      </c>
+      <c r="D182" t="s">
+        <v>439</v>
+      </c>
+      <c r="E182" t="s">
+        <v>614</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>524</v>
+      </c>
+      <c r="B183" t="s">
+        <v>515</v>
+      </c>
+      <c r="C183" t="s">
+        <v>438</v>
+      </c>
+      <c r="D183" t="s">
+        <v>439</v>
+      </c>
+      <c r="E183" t="s">
+        <v>614</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>525</v>
+      </c>
+      <c r="B184" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" t="s">
+        <v>438</v>
+      </c>
+      <c r="D184" t="s">
+        <v>439</v>
+      </c>
+      <c r="E184" t="s">
+        <v>614</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>526</v>
+      </c>
+      <c r="B185" t="s">
+        <v>515</v>
+      </c>
+      <c r="C185" t="s">
+        <v>438</v>
+      </c>
+      <c r="D185" t="s">
+        <v>439</v>
+      </c>
+      <c r="E185" t="s">
+        <v>614</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>527</v>
+      </c>
+      <c r="B186" t="s">
+        <v>515</v>
+      </c>
+      <c r="C186" t="s">
+        <v>438</v>
+      </c>
+      <c r="D186" t="s">
+        <v>439</v>
+      </c>
+      <c r="E186" t="s">
+        <v>614</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>528</v>
+      </c>
+      <c r="B187" t="s">
+        <v>515</v>
+      </c>
+      <c r="C187" t="s">
+        <v>438</v>
+      </c>
+      <c r="D187" t="s">
+        <v>439</v>
+      </c>
+      <c r="E187" t="s">
+        <v>614</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>529</v>
+      </c>
+      <c r="B188" t="s">
+        <v>515</v>
+      </c>
+      <c r="C188" t="s">
+        <v>438</v>
+      </c>
+      <c r="D188" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" t="s">
+        <v>614</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>530</v>
+      </c>
+      <c r="B189" t="s">
+        <v>515</v>
+      </c>
+      <c r="C189" t="s">
+        <v>438</v>
+      </c>
+      <c r="D189" t="s">
+        <v>439</v>
+      </c>
+      <c r="E189" t="s">
+        <v>614</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>531</v>
+      </c>
+      <c r="B190" t="s">
+        <v>515</v>
+      </c>
+      <c r="C190" t="s">
+        <v>438</v>
+      </c>
+      <c r="D190" t="s">
+        <v>439</v>
+      </c>
+      <c r="E190" t="s">
+        <v>614</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>532</v>
+      </c>
+      <c r="B191" t="s">
+        <v>515</v>
+      </c>
+      <c r="C191" t="s">
+        <v>438</v>
+      </c>
+      <c r="D191" t="s">
+        <v>439</v>
+      </c>
+      <c r="E191" t="s">
+        <v>614</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>533</v>
+      </c>
+      <c r="C192" t="s">
+        <v>442</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>343</v>
+      </c>
+      <c r="B193" t="s">
+        <v>534</v>
+      </c>
+      <c r="C193" t="s">
+        <v>589</v>
+      </c>
+      <c r="D193" t="s">
+        <v>439</v>
+      </c>
+      <c r="E193" t="s">
+        <v>616</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>346</v>
+      </c>
+      <c r="B194" t="s">
+        <v>534</v>
+      </c>
+      <c r="C194" t="s">
+        <v>589</v>
+      </c>
+      <c r="D194" t="s">
+        <v>439</v>
+      </c>
+      <c r="E194" t="s">
+        <v>616</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>348</v>
+      </c>
+      <c r="B195" t="s">
+        <v>534</v>
+      </c>
+      <c r="C195" t="s">
+        <v>589</v>
+      </c>
+      <c r="D195" t="s">
+        <v>439</v>
+      </c>
+      <c r="E195" t="s">
+        <v>616</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>350</v>
+      </c>
+      <c r="B196" t="s">
+        <v>534</v>
+      </c>
+      <c r="C196" t="s">
+        <v>589</v>
+      </c>
+      <c r="D196" t="s">
+        <v>439</v>
+      </c>
+      <c r="E196" t="s">
+        <v>616</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>353</v>
+      </c>
+      <c r="B197" t="s">
+        <v>534</v>
+      </c>
+      <c r="C197" t="s">
+        <v>589</v>
+      </c>
+      <c r="D197" t="s">
+        <v>439</v>
+      </c>
+      <c r="E197" t="s">
+        <v>616</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>356</v>
+      </c>
+      <c r="B198" t="s">
+        <v>534</v>
+      </c>
+      <c r="C198" t="s">
+        <v>589</v>
+      </c>
+      <c r="D198" t="s">
+        <v>439</v>
+      </c>
+      <c r="E198" t="s">
+        <v>616</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>358</v>
+      </c>
+      <c r="B199" t="s">
+        <v>534</v>
+      </c>
+      <c r="C199" t="s">
+        <v>589</v>
+      </c>
+      <c r="D199" t="s">
+        <v>439</v>
+      </c>
+      <c r="E199" t="s">
+        <v>616</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>362</v>
+      </c>
+      <c r="B200" t="s">
+        <v>534</v>
+      </c>
+      <c r="C200" t="s">
+        <v>589</v>
+      </c>
+      <c r="D200" t="s">
+        <v>439</v>
+      </c>
+      <c r="E200" t="s">
+        <v>616</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>365</v>
+      </c>
+      <c r="B201" t="s">
+        <v>534</v>
+      </c>
+      <c r="C201" t="s">
+        <v>589</v>
+      </c>
+      <c r="D201" t="s">
+        <v>439</v>
+      </c>
+      <c r="E201" t="s">
+        <v>616</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>368</v>
+      </c>
+      <c r="B202" t="s">
+        <v>534</v>
+      </c>
+      <c r="C202" t="s">
+        <v>589</v>
+      </c>
+      <c r="D202" t="s">
+        <v>439</v>
+      </c>
+      <c r="E202" t="s">
+        <v>616</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>371</v>
+      </c>
+      <c r="B203" t="s">
+        <v>534</v>
+      </c>
+      <c r="C203" t="s">
+        <v>589</v>
+      </c>
+      <c r="D203" t="s">
+        <v>439</v>
+      </c>
+      <c r="E203" t="s">
+        <v>616</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>374</v>
+      </c>
+      <c r="B204" t="s">
+        <v>534</v>
+      </c>
+      <c r="C204" t="s">
+        <v>589</v>
+      </c>
+      <c r="D204" t="s">
+        <v>439</v>
+      </c>
+      <c r="E204" t="s">
+        <v>616</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>377</v>
+      </c>
+      <c r="B205" t="s">
+        <v>534</v>
+      </c>
+      <c r="C205" t="s">
+        <v>589</v>
+      </c>
+      <c r="D205" t="s">
+        <v>439</v>
+      </c>
+      <c r="E205" t="s">
+        <v>616</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>380</v>
+      </c>
+      <c r="B206" t="s">
+        <v>534</v>
+      </c>
+      <c r="C206" t="s">
+        <v>589</v>
+      </c>
+      <c r="D206" t="s">
+        <v>439</v>
+      </c>
+      <c r="E206" t="s">
+        <v>616</v>
+      </c>
+      <c r="F206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>383</v>
+      </c>
+      <c r="B207" t="s">
+        <v>534</v>
+      </c>
+      <c r="C207" t="s">
+        <v>438</v>
+      </c>
+      <c r="D207" t="s">
+        <v>439</v>
+      </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>535</v>
+      </c>
+      <c r="C208" t="s">
+        <v>442</v>
+      </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>385</v>
+      </c>
+      <c r="B209" t="s">
+        <v>536</v>
+      </c>
+      <c r="C209" t="s">
+        <v>438</v>
+      </c>
+      <c r="E209" t="s">
+        <v>614</v>
+      </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>387</v>
+      </c>
+      <c r="B210" t="s">
+        <v>536</v>
+      </c>
+      <c r="C210" t="s">
+        <v>438</v>
+      </c>
+      <c r="E210" t="s">
+        <v>614</v>
+      </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" t="s">
+        <v>536</v>
+      </c>
+      <c r="C211" t="s">
+        <v>438</v>
+      </c>
+      <c r="E211" t="s">
+        <v>614</v>
+      </c>
+      <c r="F211" t="b">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>393</v>
+      </c>
+      <c r="B212" t="s">
+        <v>536</v>
+      </c>
+      <c r="C212" t="s">
+        <v>438</v>
+      </c>
+      <c r="E212" t="s">
+        <v>614</v>
+      </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>396</v>
+      </c>
+      <c r="B213" t="s">
+        <v>536</v>
+      </c>
+      <c r="C213" t="s">
+        <v>438</v>
+      </c>
+      <c r="E213" t="s">
+        <v>614</v>
+      </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>399</v>
+      </c>
+      <c r="B214" t="s">
+        <v>536</v>
+      </c>
+      <c r="C214" t="s">
+        <v>438</v>
+      </c>
+      <c r="E214" t="s">
+        <v>614</v>
+      </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>402</v>
+      </c>
+      <c r="B215" t="s">
+        <v>536</v>
+      </c>
+      <c r="C215" t="s">
+        <v>438</v>
+      </c>
+      <c r="E215" t="s">
+        <v>614</v>
+      </c>
+      <c r="F215" t="b">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>405</v>
+      </c>
+      <c r="B216" t="s">
+        <v>536</v>
+      </c>
+      <c r="C216" t="s">
+        <v>438</v>
+      </c>
+      <c r="E216" t="s">
+        <v>614</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>537</v>
+      </c>
+      <c r="B217" t="s">
+        <v>536</v>
+      </c>
+      <c r="C217" t="s">
+        <v>438</v>
+      </c>
+      <c r="E217" t="s">
+        <v>614</v>
+      </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>408</v>
+      </c>
+      <c r="B218" t="s">
+        <v>536</v>
+      </c>
+      <c r="C218" t="s">
+        <v>438</v>
+      </c>
+      <c r="E218" t="s">
+        <v>614</v>
+      </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>411</v>
+      </c>
+      <c r="B219" t="s">
+        <v>536</v>
+      </c>
+      <c r="C219" t="s">
+        <v>438</v>
+      </c>
+      <c r="E219" t="s">
+        <v>614</v>
+      </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>414</v>
+      </c>
+      <c r="B220" t="s">
+        <v>536</v>
+      </c>
+      <c r="C220" t="s">
+        <v>438</v>
+      </c>
+      <c r="E220" t="s">
+        <v>614</v>
+      </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>538</v>
+      </c>
+      <c r="C221" t="s">
+        <v>442</v>
+      </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>539</v>
+      </c>
+      <c r="C222" t="s">
+        <v>439</v>
+      </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>540</v>
+      </c>
+      <c r="C223" t="s">
+        <v>472</v>
+      </c>
+      <c r="D223" t="s">
+        <v>439</v>
+      </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>541</v>
+      </c>
+      <c r="C224" t="s">
+        <v>439</v>
+      </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>542</v>
+      </c>
+      <c r="C225" t="s">
+        <v>439</v>
+      </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>543</v>
+      </c>
+      <c r="C226" t="s">
+        <v>472</v>
+      </c>
+      <c r="D226" t="s">
+        <v>439</v>
+      </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>544</v>
+      </c>
+      <c r="C227" t="s">
+        <v>472</v>
+      </c>
+      <c r="D227" t="s">
+        <v>439</v>
+      </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>416</v>
+      </c>
+      <c r="C228" t="s">
+        <v>443</v>
+      </c>
+      <c r="F228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>545</v>
+      </c>
+      <c r="F229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>546</v>
+      </c>
+      <c r="F230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>547</v>
+      </c>
+      <c r="F231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>548</v>
+      </c>
+      <c r="F232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>419</v>
+      </c>
+      <c r="C233" t="s">
+        <v>439</v>
+      </c>
+      <c r="F233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>422</v>
+      </c>
+      <c r="C234" t="s">
+        <v>439</v>
+      </c>
+      <c r="F234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>424</v>
+      </c>
+      <c r="C235" t="s">
+        <v>472</v>
+      </c>
+      <c r="D235" t="s">
+        <v>439</v>
+      </c>
+      <c r="F235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>426</v>
+      </c>
+      <c r="C236" t="s">
+        <v>472</v>
+      </c>
+      <c r="D236" t="s">
+        <v>439</v>
+      </c>
+      <c r="F236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>428</v>
+      </c>
+      <c r="C237" t="s">
+        <v>439</v>
+      </c>
+      <c r="F237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>430</v>
+      </c>
+      <c r="C238" t="s">
+        <v>472</v>
+      </c>
+      <c r="D238" t="s">
+        <v>439</v>
+      </c>
+      <c r="F238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>432</v>
+      </c>
+      <c r="C239" t="s">
+        <v>439</v>
+      </c>
+      <c r="F239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>434</v>
+      </c>
+      <c r="C240" t="s">
+        <v>439</v>
+      </c>
+      <c r="F240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>549</v>
+      </c>
+      <c r="C241" t="s">
+        <v>439</v>
+      </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>550</v>
+      </c>
+      <c r="C242" t="s">
+        <v>472</v>
+      </c>
+      <c r="D242" t="s">
+        <v>439</v>
+      </c>
+      <c r="F242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>551</v>
+      </c>
+      <c r="C243" t="s">
+        <v>439</v>
+      </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>552</v>
+      </c>
+      <c r="C244" t="s">
+        <v>439</v>
+      </c>
+      <c r="F244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>553</v>
+      </c>
+      <c r="C245" t="s">
+        <v>472</v>
+      </c>
+      <c r="D245" t="s">
+        <v>439</v>
+      </c>
+      <c r="F245" t="b">
+        <v>0</v>
+      </c>
+      <c r="I245" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>554</v>
+      </c>
+      <c r="C246" t="s">
+        <v>472</v>
+      </c>
+      <c r="D246" t="s">
+        <v>439</v>
+      </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3678AB9-5160-2F47-AB46-A977D8766B75}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>595</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D1" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="E1" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="F1" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="G1" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>438</v>
+      </c>
+      <c r="C2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>589</v>
+      </c>
+      <c r="C5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>588</v>
+      </c>
+      <c r="D6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>601</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>588</v>
+      </c>
+      <c r="D7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>438</v>
+      </c>
+      <c r="B8" t="s">
+        <v>605</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>588</v>
+      </c>
+      <c r="D8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>438</v>
+      </c>
+      <c r="B9" t="s">
+        <v>607</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>472</v>
+      </c>
+      <c r="B10" t="s">
+        <v>609</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>588</v>
+      </c>
+      <c r="D10" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>438</v>
+      </c>
+      <c r="B11" t="s">
+        <v>610</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>588</v>
+      </c>
+      <c r="D11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="B12" t="s">
+        <v>612</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>588</v>
+      </c>
+      <c r="D12" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>438</v>
+      </c>
+      <c r="B13" t="s">
+        <v>614</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>588</v>
+      </c>
+      <c r="D13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>589</v>
+      </c>
+      <c r="B14" t="s">
+        <v>616</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C19" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>459</v>
-      </c>
-      <c r="C20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>460</v>
-      </c>
-      <c r="C21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>463</v>
-      </c>
-      <c r="C24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>437</v>
-      </c>
-      <c r="C28" t="s">
-        <v>438</v>
-      </c>
-      <c r="D28" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>437</v>
-      </c>
-      <c r="C29" t="s">
-        <v>438</v>
-      </c>
-      <c r="D29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>437</v>
-      </c>
-      <c r="C30" t="s">
-        <v>438</v>
-      </c>
-      <c r="D30" t="s">
-        <v>439</v>
-      </c>
-      <c r="E30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" t="s">
-        <v>438</v>
-      </c>
-      <c r="D31" t="s">
-        <v>439</v>
-      </c>
-      <c r="E31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" t="s">
-        <v>438</v>
-      </c>
-      <c r="D32" t="s">
-        <v>439</v>
-      </c>
-      <c r="E32" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" t="s">
-        <v>438</v>
-      </c>
-      <c r="D33" t="s">
-        <v>439</v>
-      </c>
-      <c r="E33" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>440</v>
-      </c>
-      <c r="C36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D36" t="s">
-        <v>439</v>
-      </c>
-      <c r="E36" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>440</v>
-      </c>
-      <c r="C37" t="s">
-        <v>438</v>
-      </c>
-      <c r="D37" t="s">
-        <v>439</v>
-      </c>
-      <c r="E37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>440</v>
-      </c>
-      <c r="C38" t="s">
-        <v>438</v>
-      </c>
-      <c r="D38" t="s">
-        <v>439</v>
-      </c>
-      <c r="E38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>440</v>
-      </c>
-      <c r="C39" t="s">
-        <v>438</v>
-      </c>
-      <c r="D39" t="s">
-        <v>439</v>
-      </c>
-      <c r="E39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>440</v>
-      </c>
-      <c r="C40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D40" t="s">
-        <v>439</v>
-      </c>
-      <c r="E40" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>440</v>
-      </c>
-      <c r="C41" t="s">
-        <v>438</v>
-      </c>
-      <c r="D41" t="s">
-        <v>439</v>
-      </c>
-      <c r="E41" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" t="s">
-        <v>440</v>
-      </c>
-      <c r="C42" t="s">
-        <v>438</v>
-      </c>
-      <c r="D42" t="s">
-        <v>439</v>
-      </c>
-      <c r="E42" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>440</v>
-      </c>
-      <c r="C43" t="s">
-        <v>438</v>
-      </c>
-      <c r="D43" t="s">
-        <v>439</v>
-      </c>
-      <c r="E43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" t="s">
-        <v>440</v>
-      </c>
-      <c r="C44" t="s">
-        <v>438</v>
-      </c>
-      <c r="D44" t="s">
-        <v>439</v>
-      </c>
-      <c r="E44" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>441</v>
-      </c>
-      <c r="C45" t="s">
-        <v>438</v>
-      </c>
-      <c r="D45" t="s">
-        <v>439</v>
-      </c>
-      <c r="E45" t="s">
-        <v>556</v>
-      </c>
-      <c r="F45" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C46" t="s">
-        <v>438</v>
-      </c>
-      <c r="D46" t="s">
-        <v>439</v>
-      </c>
-      <c r="E46" t="s">
-        <v>556</v>
-      </c>
-      <c r="F46" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
-        <v>441</v>
-      </c>
-      <c r="C47" t="s">
-        <v>438</v>
-      </c>
-      <c r="D47" t="s">
-        <v>439</v>
-      </c>
-      <c r="E47" t="s">
-        <v>556</v>
-      </c>
-      <c r="F47" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>441</v>
-      </c>
-      <c r="C48" t="s">
-        <v>438</v>
-      </c>
-      <c r="D48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E48" t="s">
-        <v>556</v>
-      </c>
-      <c r="F48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" t="s">
-        <v>441</v>
-      </c>
-      <c r="C49" t="s">
-        <v>438</v>
-      </c>
-      <c r="D49" t="s">
-        <v>439</v>
-      </c>
-      <c r="E49" t="s">
-        <v>556</v>
-      </c>
-      <c r="F49" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" t="s">
-        <v>441</v>
-      </c>
-      <c r="C50" t="s">
-        <v>438</v>
-      </c>
-      <c r="D50" t="s">
-        <v>439</v>
-      </c>
-      <c r="E50" t="s">
-        <v>556</v>
-      </c>
-      <c r="F50" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" t="s">
-        <v>466</v>
-      </c>
-      <c r="C52" t="s">
-        <v>438</v>
-      </c>
-      <c r="D52" t="s">
-        <v>439</v>
-      </c>
-      <c r="E52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>466</v>
-      </c>
-      <c r="C53" t="s">
-        <v>438</v>
-      </c>
-      <c r="D53" t="s">
-        <v>439</v>
-      </c>
-      <c r="E53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>466</v>
-      </c>
-      <c r="C54" t="s">
-        <v>438</v>
-      </c>
-      <c r="D54" t="s">
-        <v>439</v>
-      </c>
-      <c r="E54" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>466</v>
-      </c>
-      <c r="C55" t="s">
-        <v>438</v>
-      </c>
-      <c r="D55" t="s">
-        <v>439</v>
-      </c>
-      <c r="E55" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>466</v>
-      </c>
-      <c r="C56" t="s">
-        <v>438</v>
-      </c>
-      <c r="D56" t="s">
-        <v>439</v>
-      </c>
-      <c r="E56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>466</v>
-      </c>
-      <c r="C57" t="s">
-        <v>438</v>
-      </c>
-      <c r="D57" t="s">
-        <v>439</v>
-      </c>
-      <c r="E57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>466</v>
-      </c>
-      <c r="C58" t="s">
-        <v>438</v>
-      </c>
-      <c r="D58" t="s">
-        <v>439</v>
-      </c>
-      <c r="E58" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>466</v>
-      </c>
-      <c r="C59" t="s">
-        <v>438</v>
-      </c>
-      <c r="D59" t="s">
-        <v>439</v>
-      </c>
-      <c r="E59" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>466</v>
-      </c>
-      <c r="C60" t="s">
-        <v>438</v>
-      </c>
-      <c r="D60" t="s">
-        <v>439</v>
-      </c>
-      <c r="E60" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>466</v>
-      </c>
-      <c r="C61" t="s">
-        <v>438</v>
-      </c>
-      <c r="D61" t="s">
-        <v>439</v>
-      </c>
-      <c r="E61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>467</v>
-      </c>
-      <c r="C62" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>468</v>
-      </c>
-      <c r="C63" t="s">
-        <v>438</v>
-      </c>
-      <c r="D63" t="s">
-        <v>439</v>
-      </c>
-      <c r="E63" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" t="s">
-        <v>468</v>
-      </c>
-      <c r="C64" t="s">
-        <v>438</v>
-      </c>
-      <c r="D64" t="s">
-        <v>439</v>
-      </c>
-      <c r="E64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>468</v>
-      </c>
-      <c r="C65" t="s">
-        <v>438</v>
-      </c>
-      <c r="D65" t="s">
-        <v>439</v>
-      </c>
-      <c r="E65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" t="s">
-        <v>468</v>
-      </c>
-      <c r="C66" t="s">
-        <v>438</v>
-      </c>
-      <c r="D66" t="s">
-        <v>439</v>
-      </c>
-      <c r="E66" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
-        <v>468</v>
-      </c>
-      <c r="C67" t="s">
-        <v>438</v>
-      </c>
-      <c r="D67" t="s">
-        <v>439</v>
-      </c>
-      <c r="E67" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s">
-        <v>468</v>
-      </c>
-      <c r="C68" t="s">
-        <v>438</v>
-      </c>
-      <c r="D68" t="s">
-        <v>439</v>
-      </c>
-      <c r="E68" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" t="s">
-        <v>468</v>
-      </c>
-      <c r="C69" t="s">
-        <v>438</v>
-      </c>
-      <c r="D69" t="s">
-        <v>439</v>
-      </c>
-      <c r="E69" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" t="s">
-        <v>468</v>
-      </c>
-      <c r="C70" t="s">
-        <v>438</v>
-      </c>
-      <c r="D70" t="s">
-        <v>439</v>
-      </c>
-      <c r="E70" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" t="s">
-        <v>468</v>
-      </c>
-      <c r="C71" t="s">
-        <v>438</v>
-      </c>
-      <c r="D71" t="s">
-        <v>439</v>
-      </c>
-      <c r="E71" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s">
-        <v>468</v>
-      </c>
-      <c r="C72" t="s">
-        <v>438</v>
-      </c>
-      <c r="D72" t="s">
-        <v>439</v>
-      </c>
-      <c r="E72" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s">
-        <v>468</v>
-      </c>
-      <c r="C73" t="s">
-        <v>438</v>
-      </c>
-      <c r="D73" t="s">
-        <v>439</v>
-      </c>
-      <c r="E73" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" t="s">
-        <v>468</v>
-      </c>
-      <c r="C74" t="s">
-        <v>438</v>
-      </c>
-      <c r="D74" t="s">
-        <v>439</v>
-      </c>
-      <c r="E74" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" t="s">
-        <v>468</v>
-      </c>
-      <c r="C75" t="s">
-        <v>438</v>
-      </c>
-      <c r="D75" t="s">
-        <v>439</v>
-      </c>
-      <c r="E75" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>469</v>
-      </c>
-      <c r="C76" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" t="s">
-        <v>470</v>
-      </c>
-      <c r="C77" t="s">
-        <v>438</v>
-      </c>
-      <c r="D77" t="s">
-        <v>439</v>
-      </c>
-      <c r="E77" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" t="s">
-        <v>470</v>
-      </c>
-      <c r="C78" t="s">
-        <v>438</v>
-      </c>
-      <c r="D78" t="s">
-        <v>439</v>
-      </c>
-      <c r="E78" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" t="s">
-        <v>470</v>
-      </c>
-      <c r="C79" t="s">
-        <v>438</v>
-      </c>
-      <c r="D79" t="s">
-        <v>439</v>
-      </c>
-      <c r="E79" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>470</v>
-      </c>
-      <c r="C80" t="s">
-        <v>438</v>
-      </c>
-      <c r="D80" t="s">
-        <v>439</v>
-      </c>
-      <c r="E80" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" t="s">
-        <v>470</v>
-      </c>
-      <c r="C81" t="s">
-        <v>438</v>
-      </c>
-      <c r="D81" t="s">
-        <v>439</v>
-      </c>
-      <c r="E81" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" t="s">
-        <v>470</v>
-      </c>
-      <c r="C82" t="s">
-        <v>438</v>
-      </c>
-      <c r="D82" t="s">
-        <v>439</v>
-      </c>
-      <c r="E82" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s">
-        <v>470</v>
-      </c>
-      <c r="C83" t="s">
-        <v>438</v>
-      </c>
-      <c r="D83" t="s">
-        <v>439</v>
-      </c>
-      <c r="E83" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>439</v>
-      </c>
-      <c r="F84" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" t="s">
-        <v>473</v>
-      </c>
-      <c r="C88" t="s">
-        <v>438</v>
-      </c>
-      <c r="D88" t="s">
-        <v>439</v>
-      </c>
-      <c r="E88" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" t="s">
-        <v>473</v>
-      </c>
-      <c r="C89" t="s">
-        <v>438</v>
-      </c>
-      <c r="D89" t="s">
-        <v>439</v>
-      </c>
-      <c r="E89" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>192</v>
-      </c>
-      <c r="B90" t="s">
-        <v>473</v>
-      </c>
-      <c r="C90" t="s">
-        <v>438</v>
-      </c>
-      <c r="D90" t="s">
-        <v>439</v>
-      </c>
-      <c r="E90" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>195</v>
-      </c>
-      <c r="B91" t="s">
-        <v>473</v>
-      </c>
-      <c r="C91" t="s">
-        <v>438</v>
-      </c>
-      <c r="D91" t="s">
-        <v>439</v>
-      </c>
-      <c r="E91" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" t="s">
-        <v>473</v>
-      </c>
-      <c r="C92" t="s">
-        <v>438</v>
-      </c>
-      <c r="D92" t="s">
-        <v>439</v>
-      </c>
-      <c r="E92" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>201</v>
-      </c>
-      <c r="B93" t="s">
-        <v>473</v>
-      </c>
-      <c r="C93" t="s">
-        <v>438</v>
-      </c>
-      <c r="D93" t="s">
-        <v>439</v>
-      </c>
-      <c r="E93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>204</v>
-      </c>
-      <c r="B94" t="s">
-        <v>473</v>
-      </c>
-      <c r="C94" t="s">
-        <v>438</v>
-      </c>
-      <c r="D94" t="s">
-        <v>439</v>
-      </c>
-      <c r="E94" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" t="s">
-        <v>473</v>
-      </c>
-      <c r="C95" t="s">
-        <v>438</v>
-      </c>
-      <c r="D95" t="s">
-        <v>439</v>
-      </c>
-      <c r="E95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" t="s">
-        <v>474</v>
-      </c>
-      <c r="C96" t="s">
-        <v>472</v>
-      </c>
-      <c r="F96" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" t="s">
-        <v>474</v>
-      </c>
-      <c r="C97" t="s">
-        <v>472</v>
-      </c>
-      <c r="F97" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>217</v>
-      </c>
-      <c r="B98" t="s">
-        <v>474</v>
-      </c>
-      <c r="C98" t="s">
-        <v>472</v>
-      </c>
-      <c r="F98" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" t="s">
-        <v>474</v>
-      </c>
-      <c r="C99" t="s">
-        <v>472</v>
-      </c>
-      <c r="F99" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" t="s">
-        <v>474</v>
-      </c>
-      <c r="C100" t="s">
-        <v>472</v>
-      </c>
-      <c r="F100" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" t="s">
-        <v>474</v>
-      </c>
-      <c r="C101" t="s">
-        <v>472</v>
-      </c>
-      <c r="F101" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C102" t="s">
-        <v>472</v>
-      </c>
-      <c r="F102" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D103" t="s">
-        <v>439</v>
-      </c>
-      <c r="E103" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>475</v>
-      </c>
-      <c r="C104" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" t="s">
-        <v>472</v>
-      </c>
-      <c r="F105" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>240</v>
-      </c>
-      <c r="C106" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" t="s">
-        <v>575</v>
-      </c>
-      <c r="G106" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>250</v>
-      </c>
-      <c r="B107" t="s">
-        <v>476</v>
-      </c>
-      <c r="C107" t="s">
-        <v>438</v>
-      </c>
-      <c r="E107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>252</v>
-      </c>
-      <c r="B108" t="s">
-        <v>476</v>
-      </c>
-      <c r="C108" t="s">
-        <v>438</v>
-      </c>
-      <c r="E108" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>255</v>
-      </c>
-      <c r="B109" t="s">
-        <v>476</v>
-      </c>
-      <c r="C109" t="s">
-        <v>438</v>
-      </c>
-      <c r="E109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>258</v>
-      </c>
-      <c r="B110" t="s">
-        <v>476</v>
-      </c>
-      <c r="C110" t="s">
-        <v>438</v>
-      </c>
-      <c r="E110" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>261</v>
-      </c>
-      <c r="B111" t="s">
-        <v>476</v>
-      </c>
-      <c r="C111" t="s">
-        <v>438</v>
-      </c>
-      <c r="E111" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>264</v>
-      </c>
-      <c r="B112" t="s">
-        <v>476</v>
-      </c>
-      <c r="C112" t="s">
-        <v>438</v>
-      </c>
-      <c r="E112" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>267</v>
-      </c>
-      <c r="B113" t="s">
-        <v>476</v>
-      </c>
-      <c r="C113" t="s">
-        <v>438</v>
-      </c>
-      <c r="E113" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>270</v>
-      </c>
-      <c r="B114" t="s">
-        <v>476</v>
-      </c>
-      <c r="C114" t="s">
-        <v>438</v>
-      </c>
-      <c r="E114" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>273</v>
-      </c>
-      <c r="B115" t="s">
-        <v>476</v>
-      </c>
-      <c r="C115" t="s">
-        <v>438</v>
-      </c>
-      <c r="E115" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" t="s">
-        <v>476</v>
-      </c>
-      <c r="C116" t="s">
-        <v>438</v>
-      </c>
-      <c r="E116" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>279</v>
-      </c>
-      <c r="C117" t="s">
-        <v>438</v>
-      </c>
-      <c r="E117" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>477</v>
-      </c>
-      <c r="C118" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>281</v>
-      </c>
-      <c r="B119" t="s">
-        <v>478</v>
-      </c>
-      <c r="C119" t="s">
-        <v>472</v>
-      </c>
-      <c r="F119" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" t="s">
-        <v>478</v>
-      </c>
-      <c r="C120" t="s">
-        <v>472</v>
-      </c>
-      <c r="F120" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>285</v>
-      </c>
-      <c r="C121" t="s">
-        <v>438</v>
-      </c>
-      <c r="E121" t="s">
-        <v>558</v>
-      </c>
-      <c r="F121" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>479</v>
-      </c>
-      <c r="C122" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>287</v>
-      </c>
-      <c r="B123" t="s">
-        <v>480</v>
-      </c>
-      <c r="C123" t="s">
-        <v>472</v>
-      </c>
-      <c r="D123" t="s">
-        <v>439</v>
-      </c>
-      <c r="F123" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>290</v>
-      </c>
-      <c r="B124" t="s">
-        <v>480</v>
-      </c>
-      <c r="C124" t="s">
-        <v>472</v>
-      </c>
-      <c r="D124" t="s">
-        <v>439</v>
-      </c>
-      <c r="F124" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>293</v>
-      </c>
-      <c r="B125" t="s">
-        <v>480</v>
-      </c>
-      <c r="C125" t="s">
-        <v>472</v>
-      </c>
-      <c r="D125" t="s">
-        <v>439</v>
-      </c>
-      <c r="F125" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>296</v>
-      </c>
-      <c r="B126" t="s">
-        <v>481</v>
-      </c>
-      <c r="C126" t="s">
-        <v>438</v>
-      </c>
-      <c r="E126" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>298</v>
-      </c>
-      <c r="B127" t="s">
-        <v>481</v>
-      </c>
-      <c r="C127" t="s">
-        <v>438</v>
-      </c>
-      <c r="E127" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>301</v>
-      </c>
-      <c r="B128" t="s">
-        <v>481</v>
-      </c>
-      <c r="C128" t="s">
-        <v>438</v>
-      </c>
-      <c r="E128" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>304</v>
-      </c>
-      <c r="B129" t="s">
-        <v>481</v>
-      </c>
-      <c r="C129" t="s">
-        <v>438</v>
-      </c>
-      <c r="E129" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>306</v>
-      </c>
-      <c r="B130" t="s">
-        <v>481</v>
-      </c>
-      <c r="C130" t="s">
-        <v>438</v>
-      </c>
-      <c r="E130" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>308</v>
-      </c>
-      <c r="B131" t="s">
-        <v>481</v>
-      </c>
-      <c r="C131" t="s">
-        <v>438</v>
-      </c>
-      <c r="E131" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>310</v>
-      </c>
-      <c r="B132" t="s">
-        <v>481</v>
-      </c>
-      <c r="C132" t="s">
-        <v>438</v>
-      </c>
-      <c r="E132" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>313</v>
-      </c>
-      <c r="B133" t="s">
-        <v>481</v>
-      </c>
-      <c r="C133" t="s">
-        <v>438</v>
-      </c>
-      <c r="E133" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>316</v>
-      </c>
-      <c r="B134" t="s">
-        <v>481</v>
-      </c>
-      <c r="C134" t="s">
-        <v>438</v>
-      </c>
-      <c r="E134" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>319</v>
-      </c>
-      <c r="B135" t="s">
-        <v>481</v>
-      </c>
-      <c r="C135" t="s">
-        <v>438</v>
-      </c>
-      <c r="E135" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>322</v>
-      </c>
-      <c r="B136" t="s">
-        <v>481</v>
-      </c>
-      <c r="C136" t="s">
-        <v>438</v>
-      </c>
-      <c r="E136" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>324</v>
-      </c>
-      <c r="B137" t="s">
-        <v>481</v>
-      </c>
-      <c r="C137" t="s">
-        <v>438</v>
-      </c>
-      <c r="E137" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>327</v>
-      </c>
-      <c r="B138" t="s">
-        <v>481</v>
-      </c>
-      <c r="C138" t="s">
-        <v>438</v>
-      </c>
-      <c r="E138" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>330</v>
-      </c>
-      <c r="B139" t="s">
-        <v>481</v>
-      </c>
-      <c r="C139" t="s">
-        <v>438</v>
-      </c>
-      <c r="E139" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>333</v>
-      </c>
-      <c r="B140" t="s">
-        <v>481</v>
-      </c>
-      <c r="C140" t="s">
-        <v>438</v>
-      </c>
-      <c r="E140" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>336</v>
-      </c>
-      <c r="B141" t="s">
-        <v>481</v>
-      </c>
-      <c r="C141" t="s">
-        <v>438</v>
-      </c>
-      <c r="E141" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>482</v>
-      </c>
-      <c r="C142" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>483</v>
-      </c>
-      <c r="C143" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>484</v>
-      </c>
-      <c r="C144" t="s">
-        <v>472</v>
-      </c>
-      <c r="D144" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>485</v>
-      </c>
-      <c r="B145" t="s">
-        <v>486</v>
-      </c>
-      <c r="C145" t="s">
-        <v>438</v>
-      </c>
-      <c r="D145" t="s">
-        <v>439</v>
-      </c>
-      <c r="E145" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>487</v>
-      </c>
-      <c r="B146" t="s">
-        <v>486</v>
-      </c>
-      <c r="C146" t="s">
-        <v>438</v>
-      </c>
-      <c r="D146" t="s">
-        <v>439</v>
-      </c>
-      <c r="E146" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>488</v>
-      </c>
-      <c r="B147" t="s">
-        <v>486</v>
-      </c>
-      <c r="C147" t="s">
-        <v>438</v>
-      </c>
-      <c r="D147" t="s">
-        <v>439</v>
-      </c>
-      <c r="E147" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>489</v>
-      </c>
-      <c r="B148" t="s">
-        <v>486</v>
-      </c>
-      <c r="C148" t="s">
-        <v>438</v>
-      </c>
-      <c r="D148" t="s">
-        <v>439</v>
-      </c>
-      <c r="E148" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>490</v>
-      </c>
-      <c r="B149" t="s">
-        <v>486</v>
-      </c>
-      <c r="C149" t="s">
-        <v>438</v>
-      </c>
-      <c r="D149" t="s">
-        <v>439</v>
-      </c>
-      <c r="E149" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>491</v>
-      </c>
-      <c r="B150" t="s">
-        <v>486</v>
-      </c>
-      <c r="C150" t="s">
-        <v>438</v>
-      </c>
-      <c r="D150" t="s">
-        <v>439</v>
-      </c>
-      <c r="E150" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>492</v>
-      </c>
-      <c r="B151" t="s">
-        <v>486</v>
-      </c>
-      <c r="C151" t="s">
-        <v>438</v>
-      </c>
-      <c r="D151" t="s">
-        <v>439</v>
-      </c>
-      <c r="E151" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>493</v>
-      </c>
-      <c r="C152" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>494</v>
-      </c>
-      <c r="C153" t="s">
-        <v>472</v>
-      </c>
-      <c r="D153" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>495</v>
-      </c>
-      <c r="C154" t="s">
-        <v>472</v>
-      </c>
-      <c r="D154" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>496</v>
-      </c>
-      <c r="C155" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>497</v>
-      </c>
-      <c r="B156" t="s">
-        <v>498</v>
-      </c>
-      <c r="C156" t="s">
-        <v>438</v>
-      </c>
-      <c r="D156" t="s">
-        <v>439</v>
-      </c>
-      <c r="E156" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>499</v>
-      </c>
-      <c r="B157" t="s">
-        <v>498</v>
-      </c>
-      <c r="C157" t="s">
-        <v>438</v>
-      </c>
-      <c r="D157" t="s">
-        <v>439</v>
-      </c>
-      <c r="E157" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>500</v>
-      </c>
-      <c r="B158" t="s">
-        <v>498</v>
-      </c>
-      <c r="C158" t="s">
-        <v>438</v>
-      </c>
-      <c r="D158" t="s">
-        <v>439</v>
-      </c>
-      <c r="E158" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>501</v>
-      </c>
-      <c r="B159" t="s">
-        <v>498</v>
-      </c>
-      <c r="C159" t="s">
-        <v>438</v>
-      </c>
-      <c r="D159" t="s">
-        <v>439</v>
-      </c>
-      <c r="E159" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>502</v>
-      </c>
-      <c r="B160" t="s">
-        <v>498</v>
-      </c>
-      <c r="C160" t="s">
-        <v>438</v>
-      </c>
-      <c r="D160" t="s">
-        <v>439</v>
-      </c>
-      <c r="E160" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>503</v>
-      </c>
-      <c r="B161" t="s">
-        <v>498</v>
-      </c>
-      <c r="C161" t="s">
-        <v>438</v>
-      </c>
-      <c r="D161" t="s">
-        <v>439</v>
-      </c>
-      <c r="E161" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>504</v>
-      </c>
-      <c r="B162" t="s">
-        <v>498</v>
-      </c>
-      <c r="C162" t="s">
-        <v>438</v>
-      </c>
-      <c r="D162" t="s">
-        <v>439</v>
-      </c>
-      <c r="E162" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>505</v>
-      </c>
-      <c r="B163" t="s">
-        <v>498</v>
-      </c>
-      <c r="C163" t="s">
-        <v>438</v>
-      </c>
-      <c r="D163" t="s">
-        <v>439</v>
-      </c>
-      <c r="E163" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>506</v>
-      </c>
-      <c r="B164" t="s">
-        <v>498</v>
-      </c>
-      <c r="C164" t="s">
-        <v>438</v>
-      </c>
-      <c r="D164" t="s">
-        <v>439</v>
-      </c>
-      <c r="E164" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>507</v>
-      </c>
-      <c r="B165" t="s">
-        <v>498</v>
-      </c>
-      <c r="C165" t="s">
-        <v>438</v>
-      </c>
-      <c r="D165" t="s">
-        <v>439</v>
-      </c>
-      <c r="E165" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>508</v>
-      </c>
-      <c r="B166" t="s">
-        <v>498</v>
-      </c>
-      <c r="C166" t="s">
-        <v>438</v>
-      </c>
-      <c r="D166" t="s">
-        <v>439</v>
-      </c>
-      <c r="E166" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>509</v>
-      </c>
-      <c r="C167" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>510</v>
-      </c>
-      <c r="C168" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>339</v>
-      </c>
-      <c r="C169" t="s">
-        <v>472</v>
-      </c>
-      <c r="D169" t="s">
-        <v>439</v>
-      </c>
-      <c r="G169" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>511</v>
-      </c>
-      <c r="C170" t="s">
-        <v>443</v>
-      </c>
-      <c r="G170" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>512</v>
-      </c>
-      <c r="C171" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>513</v>
-      </c>
-      <c r="C172" t="s">
-        <v>472</v>
-      </c>
-      <c r="D172" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>341</v>
-      </c>
-      <c r="C173" t="s">
-        <v>438</v>
-      </c>
-      <c r="D173" t="s">
-        <v>439</v>
-      </c>
-      <c r="E173" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>514</v>
-      </c>
-      <c r="B174" t="s">
-        <v>515</v>
-      </c>
-      <c r="C174" t="s">
-        <v>438</v>
-      </c>
-      <c r="D174" t="s">
-        <v>439</v>
-      </c>
-      <c r="E174" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>516</v>
-      </c>
-      <c r="B175" t="s">
-        <v>515</v>
-      </c>
-      <c r="C175" t="s">
-        <v>438</v>
-      </c>
-      <c r="D175" t="s">
-        <v>439</v>
-      </c>
-      <c r="E175" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>517</v>
-      </c>
-      <c r="B176" t="s">
-        <v>515</v>
-      </c>
-      <c r="C176" t="s">
-        <v>438</v>
-      </c>
-      <c r="D176" t="s">
-        <v>439</v>
-      </c>
-      <c r="E176" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>518</v>
-      </c>
-      <c r="B177" t="s">
-        <v>515</v>
-      </c>
-      <c r="C177" t="s">
-        <v>438</v>
-      </c>
-      <c r="D177" t="s">
-        <v>439</v>
-      </c>
-      <c r="E177" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>519</v>
-      </c>
-      <c r="B178" t="s">
-        <v>515</v>
-      </c>
-      <c r="C178" t="s">
-        <v>438</v>
-      </c>
-      <c r="D178" t="s">
-        <v>439</v>
-      </c>
-      <c r="E178" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>520</v>
-      </c>
-      <c r="B179" t="s">
-        <v>515</v>
-      </c>
-      <c r="C179" t="s">
-        <v>438</v>
-      </c>
-      <c r="D179" t="s">
-        <v>439</v>
-      </c>
-      <c r="E179" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>521</v>
-      </c>
-      <c r="B180" t="s">
-        <v>515</v>
-      </c>
-      <c r="C180" t="s">
-        <v>438</v>
-      </c>
-      <c r="D180" t="s">
-        <v>439</v>
-      </c>
-      <c r="E180" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>522</v>
-      </c>
-      <c r="B181" t="s">
-        <v>515</v>
-      </c>
-      <c r="C181" t="s">
-        <v>438</v>
-      </c>
-      <c r="D181" t="s">
-        <v>439</v>
-      </c>
-      <c r="E181" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>523</v>
-      </c>
-      <c r="B182" t="s">
-        <v>515</v>
-      </c>
-      <c r="C182" t="s">
-        <v>438</v>
-      </c>
-      <c r="D182" t="s">
-        <v>439</v>
-      </c>
-      <c r="E182" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>524</v>
-      </c>
-      <c r="B183" t="s">
-        <v>515</v>
-      </c>
-      <c r="C183" t="s">
-        <v>438</v>
-      </c>
-      <c r="D183" t="s">
-        <v>439</v>
-      </c>
-      <c r="E183" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>525</v>
-      </c>
-      <c r="B184" t="s">
-        <v>515</v>
-      </c>
-      <c r="C184" t="s">
-        <v>438</v>
-      </c>
-      <c r="D184" t="s">
-        <v>439</v>
-      </c>
-      <c r="E184" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>526</v>
-      </c>
-      <c r="B185" t="s">
-        <v>515</v>
-      </c>
-      <c r="C185" t="s">
-        <v>438</v>
-      </c>
-      <c r="D185" t="s">
-        <v>439</v>
-      </c>
-      <c r="E185" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>527</v>
-      </c>
-      <c r="B186" t="s">
-        <v>515</v>
-      </c>
-      <c r="C186" t="s">
-        <v>438</v>
-      </c>
-      <c r="D186" t="s">
-        <v>439</v>
-      </c>
-      <c r="E186" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>528</v>
-      </c>
-      <c r="B187" t="s">
-        <v>515</v>
-      </c>
-      <c r="C187" t="s">
-        <v>438</v>
-      </c>
-      <c r="D187" t="s">
-        <v>439</v>
-      </c>
-      <c r="E187" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>529</v>
-      </c>
-      <c r="B188" t="s">
-        <v>515</v>
-      </c>
-      <c r="C188" t="s">
-        <v>438</v>
-      </c>
-      <c r="D188" t="s">
-        <v>439</v>
-      </c>
-      <c r="E188" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>530</v>
-      </c>
-      <c r="B189" t="s">
-        <v>515</v>
-      </c>
-      <c r="C189" t="s">
-        <v>438</v>
-      </c>
-      <c r="D189" t="s">
-        <v>439</v>
-      </c>
-      <c r="E189" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>531</v>
-      </c>
-      <c r="B190" t="s">
-        <v>515</v>
-      </c>
-      <c r="C190" t="s">
-        <v>438</v>
-      </c>
-      <c r="D190" t="s">
-        <v>439</v>
-      </c>
-      <c r="E190" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>532</v>
-      </c>
-      <c r="B191" t="s">
-        <v>515</v>
-      </c>
-      <c r="C191" t="s">
-        <v>438</v>
-      </c>
-      <c r="D191" t="s">
-        <v>439</v>
-      </c>
-      <c r="E191" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>533</v>
-      </c>
-      <c r="C192" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>343</v>
-      </c>
-      <c r="B193" t="s">
-        <v>534</v>
-      </c>
-      <c r="C193" t="s">
-        <v>472</v>
-      </c>
-      <c r="D193" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>346</v>
-      </c>
-      <c r="B194" t="s">
-        <v>534</v>
-      </c>
-      <c r="C194" t="s">
-        <v>472</v>
-      </c>
-      <c r="D194" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>348</v>
-      </c>
-      <c r="B195" t="s">
-        <v>534</v>
-      </c>
-      <c r="C195" t="s">
-        <v>472</v>
-      </c>
-      <c r="D195" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>350</v>
-      </c>
-      <c r="B196" t="s">
-        <v>534</v>
-      </c>
-      <c r="C196" t="s">
-        <v>472</v>
-      </c>
-      <c r="D196" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>353</v>
-      </c>
-      <c r="B197" t="s">
-        <v>534</v>
-      </c>
-      <c r="C197" t="s">
-        <v>472</v>
-      </c>
-      <c r="D197" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>356</v>
-      </c>
-      <c r="B198" t="s">
-        <v>534</v>
-      </c>
-      <c r="C198" t="s">
-        <v>472</v>
-      </c>
-      <c r="D198" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>358</v>
-      </c>
-      <c r="B199" t="s">
-        <v>534</v>
-      </c>
-      <c r="C199" t="s">
-        <v>472</v>
-      </c>
-      <c r="D199" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>362</v>
-      </c>
-      <c r="B200" t="s">
-        <v>534</v>
-      </c>
-      <c r="C200" t="s">
-        <v>472</v>
-      </c>
-      <c r="D200" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>365</v>
-      </c>
-      <c r="B201" t="s">
-        <v>534</v>
-      </c>
-      <c r="C201" t="s">
-        <v>472</v>
-      </c>
-      <c r="D201" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>368</v>
-      </c>
-      <c r="B202" t="s">
-        <v>534</v>
-      </c>
-      <c r="C202" t="s">
-        <v>472</v>
-      </c>
-      <c r="D202" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>371</v>
-      </c>
-      <c r="B203" t="s">
-        <v>534</v>
-      </c>
-      <c r="C203" t="s">
-        <v>472</v>
-      </c>
-      <c r="D203" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>374</v>
-      </c>
-      <c r="B204" t="s">
-        <v>534</v>
-      </c>
-      <c r="C204" t="s">
-        <v>472</v>
-      </c>
-      <c r="D204" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>377</v>
-      </c>
-      <c r="B205" t="s">
-        <v>534</v>
-      </c>
-      <c r="C205" t="s">
-        <v>472</v>
-      </c>
-      <c r="D205" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>380</v>
-      </c>
-      <c r="B206" t="s">
-        <v>534</v>
-      </c>
-      <c r="C206" t="s">
-        <v>472</v>
-      </c>
-      <c r="D206" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>383</v>
-      </c>
-      <c r="B207" t="s">
-        <v>534</v>
-      </c>
-      <c r="C207" t="s">
-        <v>472</v>
-      </c>
-      <c r="D207" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>535</v>
-      </c>
-      <c r="C208" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>385</v>
-      </c>
-      <c r="B209" t="s">
-        <v>536</v>
-      </c>
-      <c r="C209" t="s">
-        <v>438</v>
-      </c>
-      <c r="E209" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>387</v>
-      </c>
-      <c r="B210" t="s">
-        <v>536</v>
-      </c>
-      <c r="C210" t="s">
-        <v>438</v>
-      </c>
-      <c r="E210" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>390</v>
-      </c>
-      <c r="B211" t="s">
-        <v>536</v>
-      </c>
-      <c r="C211" t="s">
-        <v>438</v>
-      </c>
-      <c r="E211" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>393</v>
-      </c>
-      <c r="B212" t="s">
-        <v>536</v>
-      </c>
-      <c r="C212" t="s">
-        <v>438</v>
-      </c>
-      <c r="E212" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>396</v>
-      </c>
-      <c r="B213" t="s">
-        <v>536</v>
-      </c>
-      <c r="C213" t="s">
-        <v>438</v>
-      </c>
-      <c r="E213" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>399</v>
-      </c>
-      <c r="B214" t="s">
-        <v>536</v>
-      </c>
-      <c r="C214" t="s">
-        <v>438</v>
-      </c>
-      <c r="E214" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>402</v>
-      </c>
-      <c r="B215" t="s">
-        <v>536</v>
-      </c>
-      <c r="C215" t="s">
-        <v>438</v>
-      </c>
-      <c r="E215" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>405</v>
-      </c>
-      <c r="B216" t="s">
-        <v>536</v>
-      </c>
-      <c r="C216" t="s">
-        <v>438</v>
-      </c>
-      <c r="E216" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>537</v>
-      </c>
-      <c r="B217" t="s">
-        <v>536</v>
-      </c>
-      <c r="C217" t="s">
-        <v>438</v>
-      </c>
-      <c r="E217" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>408</v>
-      </c>
-      <c r="B218" t="s">
-        <v>536</v>
-      </c>
-      <c r="C218" t="s">
-        <v>438</v>
-      </c>
-      <c r="E218" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>411</v>
-      </c>
-      <c r="B219" t="s">
-        <v>536</v>
-      </c>
-      <c r="C219" t="s">
-        <v>438</v>
-      </c>
-      <c r="E219" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>414</v>
-      </c>
-      <c r="B220" t="s">
-        <v>536</v>
-      </c>
-      <c r="C220" t="s">
-        <v>438</v>
-      </c>
-      <c r="E220" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>538</v>
-      </c>
-      <c r="C221" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>539</v>
-      </c>
-      <c r="C222" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>540</v>
-      </c>
-      <c r="C223" t="s">
-        <v>472</v>
-      </c>
-      <c r="D223" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>541</v>
-      </c>
-      <c r="C224" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>542</v>
-      </c>
-      <c r="C225" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>543</v>
-      </c>
-      <c r="C226" t="s">
-        <v>472</v>
-      </c>
-      <c r="D226" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>544</v>
-      </c>
-      <c r="C227" t="s">
-        <v>472</v>
-      </c>
-      <c r="D227" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>416</v>
-      </c>
-      <c r="C228" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>419</v>
-      </c>
-      <c r="C233" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>422</v>
-      </c>
-      <c r="C234" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>424</v>
-      </c>
-      <c r="C235" t="s">
-        <v>472</v>
-      </c>
-      <c r="D235" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>426</v>
-      </c>
-      <c r="C236" t="s">
-        <v>472</v>
-      </c>
-      <c r="D236" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>428</v>
-      </c>
-      <c r="C237" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>430</v>
-      </c>
-      <c r="C238" t="s">
-        <v>472</v>
-      </c>
-      <c r="D238" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>432</v>
-      </c>
-      <c r="C239" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>434</v>
-      </c>
-      <c r="C240" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>549</v>
-      </c>
-      <c r="C241" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>550</v>
-      </c>
-      <c r="C242" t="s">
-        <v>472</v>
-      </c>
-      <c r="D242" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>551</v>
-      </c>
-      <c r="C243" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>552</v>
-      </c>
-      <c r="C244" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>553</v>
-      </c>
-      <c r="C245" t="s">
-        <v>472</v>
-      </c>
-      <c r="D245" t="s">
-        <v>439</v>
-      </c>
-      <c r="G245" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>554</v>
-      </c>
-      <c r="C246" t="s">
-        <v>472</v>
-      </c>
-      <c r="D246" t="s">
-        <v>439</v>
+        <v>588</v>
+      </c>
+      <c r="D14" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -8125,15 +9619,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="117.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8220,6 +9717,50 @@
         <v>569</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58EDE73-EBA7-7D42-84BF-10D5FDF407BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805A2F39-5AE5-4A49-B893-058274935CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="614">
   <si>
     <t>Variable</t>
   </si>
@@ -1738,24 +1738,9 @@
     <t>plot_type1</t>
   </si>
   <si>
-    <t>plot_type2</t>
-  </si>
-  <si>
-    <t>uncertainty_level</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
-    <t>&lt;I Dont know why the Delta is important&gt;</t>
-  </si>
-  <si>
-    <t>&lt;I don't know&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Unsure&gt;</t>
-  </si>
-  <si>
     <t>Arguably ordinal, but would need to be reordered.</t>
   </si>
   <si>
@@ -1769,9 +1754,6 @@
   </si>
   <si>
     <t>pal_fun</t>
-  </si>
-  <si>
-    <t>pal_rev</t>
   </si>
   <si>
     <t>pal_start</t>
@@ -2754,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
@@ -4779,10 +4761,10 @@
         <v>386</v>
       </c>
       <c r="C149" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D149" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4933,23 +4915,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4960,296 +4941,209 @@
         <v>570</v>
       </c>
       <c r="D1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" t="s">
         <v>571</v>
       </c>
-      <c r="E1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H1" t="s">
-        <v>572</v>
-      </c>
-      <c r="I1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>444</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>445</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>446</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>447</v>
       </c>
       <c r="C6" t="s">
         <v>448</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>449</v>
       </c>
       <c r="C7" t="s">
         <v>448</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>443</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>439</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>451</v>
       </c>
       <c r="C10" t="s">
         <v>439</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>452</v>
       </c>
       <c r="C11" t="s">
         <v>439</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>453</v>
       </c>
       <c r="C12" t="s">
         <v>439</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>454</v>
       </c>
       <c r="C13" t="s">
         <v>439</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>439</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>455</v>
       </c>
       <c r="C15" t="s">
         <v>443</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>456</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>457</v>
       </c>
       <c r="C17" t="s">
         <v>439</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>439</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>458</v>
       </c>
       <c r="C19" t="s">
         <v>439</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>459</v>
       </c>
       <c r="C20" t="s">
         <v>439</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>460</v>
       </c>
       <c r="C21" t="s">
         <v>439</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>461</v>
       </c>
       <c r="C22" t="s">
         <v>439</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>462</v>
       </c>
       <c r="C23" t="s">
         <v>439</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>463</v>
       </c>
       <c r="C24" t="s">
         <v>439</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>464</v>
       </c>
       <c r="C25" t="s">
         <v>439</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>465</v>
       </c>
       <c r="C26" t="s">
         <v>439</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>439</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -5259,17 +5153,11 @@
       <c r="C28" t="s">
         <v>438</v>
       </c>
-      <c r="D28" t="s">
-        <v>439</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5279,17 +5167,11 @@
       <c r="C29" t="s">
         <v>438</v>
       </c>
-      <c r="D29" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -5299,17 +5181,11 @@
       <c r="C30" t="s">
         <v>438</v>
       </c>
-      <c r="D30" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5319,17 +5195,11 @@
       <c r="C31" t="s">
         <v>438</v>
       </c>
-      <c r="D31" t="s">
-        <v>439</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -5339,17 +5209,11 @@
       <c r="C32" t="s">
         <v>438</v>
       </c>
-      <c r="D32" t="s">
-        <v>439</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5359,39 +5223,27 @@
       <c r="C33" t="s">
         <v>438</v>
       </c>
-      <c r="D33" t="s">
-        <v>439</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>443</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>439</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -5401,17 +5253,11 @@
       <c r="C36" t="s">
         <v>438</v>
       </c>
-      <c r="D36" t="s">
-        <v>439</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -5421,17 +5267,11 @@
       <c r="C37" t="s">
         <v>438</v>
       </c>
-      <c r="D37" t="s">
-        <v>439</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -5441,17 +5281,11 @@
       <c r="C38" t="s">
         <v>438</v>
       </c>
-      <c r="D38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -5461,17 +5295,11 @@
       <c r="C39" t="s">
         <v>438</v>
       </c>
-      <c r="D39" t="s">
-        <v>439</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -5481,17 +5309,11 @@
       <c r="C40" t="s">
         <v>438</v>
       </c>
-      <c r="D40" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -5501,17 +5323,11 @@
       <c r="C41" t="s">
         <v>438</v>
       </c>
-      <c r="D41" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -5521,17 +5337,11 @@
       <c r="C42" t="s">
         <v>438</v>
       </c>
-      <c r="D42" t="s">
-        <v>439</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -5541,17 +5351,11 @@
       <c r="C43" t="s">
         <v>438</v>
       </c>
-      <c r="D43" t="s">
-        <v>439</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -5561,17 +5365,11 @@
       <c r="C44" t="s">
         <v>438</v>
       </c>
-      <c r="D44" t="s">
-        <v>439</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -5582,22 +5380,13 @@
         <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="E45" t="s">
-        <v>601</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>556</v>
-      </c>
-      <c r="H45" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -5608,22 +5397,13 @@
         <v>438</v>
       </c>
       <c r="D46" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="E46" t="s">
-        <v>601</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>556</v>
-      </c>
-      <c r="H46" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -5634,22 +5414,13 @@
         <v>438</v>
       </c>
       <c r="D47" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="E47" t="s">
-        <v>601</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>556</v>
-      </c>
-      <c r="H47" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -5660,22 +5431,13 @@
         <v>438</v>
       </c>
       <c r="D48" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="E48" t="s">
-        <v>601</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>556</v>
-      </c>
-      <c r="H48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -5686,22 +5448,13 @@
         <v>438</v>
       </c>
       <c r="D49" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="E49" t="s">
-        <v>601</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>556</v>
-      </c>
-      <c r="H49" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -5712,33 +5465,21 @@
         <v>438</v>
       </c>
       <c r="D50" t="s">
-        <v>439</v>
+        <v>595</v>
       </c>
       <c r="E50" t="s">
-        <v>601</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>556</v>
-      </c>
-      <c r="H50" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
       <c r="C51" t="s">
         <v>442</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -5749,19 +5490,13 @@
         <v>438</v>
       </c>
       <c r="D52" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E52" t="s">
-        <v>605</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -5772,19 +5507,13 @@
         <v>438</v>
       </c>
       <c r="D53" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E53" t="s">
-        <v>605</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -5795,19 +5524,13 @@
         <v>438</v>
       </c>
       <c r="D54" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E54" t="s">
-        <v>605</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -5818,19 +5541,13 @@
         <v>438</v>
       </c>
       <c r="D55" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E55" t="s">
-        <v>605</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -5841,19 +5558,13 @@
         <v>438</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E56" t="s">
-        <v>605</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -5864,19 +5575,13 @@
         <v>438</v>
       </c>
       <c r="D57" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E57" t="s">
-        <v>605</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -5887,19 +5592,13 @@
         <v>438</v>
       </c>
       <c r="D58" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E58" t="s">
-        <v>605</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -5910,19 +5609,13 @@
         <v>438</v>
       </c>
       <c r="D59" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E59" t="s">
-        <v>605</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5933,19 +5626,13 @@
         <v>438</v>
       </c>
       <c r="D60" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E60" t="s">
-        <v>605</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -5956,30 +5643,21 @@
         <v>438</v>
       </c>
       <c r="D61" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E61" t="s">
-        <v>605</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>467</v>
       </c>
       <c r="C62" t="s">
         <v>442</v>
       </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5990,19 +5668,13 @@
         <v>438</v>
       </c>
       <c r="D63" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E63" t="s">
-        <v>605</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -6013,19 +5685,13 @@
         <v>438</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E64" t="s">
-        <v>605</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -6036,19 +5702,13 @@
         <v>438</v>
       </c>
       <c r="D65" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E65" t="s">
-        <v>605</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -6059,19 +5719,13 @@
         <v>438</v>
       </c>
       <c r="D66" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E66" t="s">
-        <v>605</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -6082,19 +5736,13 @@
         <v>438</v>
       </c>
       <c r="D67" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E67" t="s">
-        <v>605</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -6105,19 +5753,13 @@
         <v>438</v>
       </c>
       <c r="D68" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E68" t="s">
-        <v>605</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -6128,19 +5770,13 @@
         <v>438</v>
       </c>
       <c r="D69" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E69" t="s">
-        <v>605</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -6151,19 +5787,13 @@
         <v>438</v>
       </c>
       <c r="D70" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E70" t="s">
-        <v>605</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -6174,19 +5804,13 @@
         <v>438</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E71" t="s">
-        <v>605</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -6197,19 +5821,13 @@
         <v>438</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E72" t="s">
-        <v>605</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6220,19 +5838,13 @@
         <v>438</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E73" t="s">
-        <v>605</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -6243,19 +5855,13 @@
         <v>438</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E74" t="s">
-        <v>605</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -6266,30 +5872,21 @@
         <v>438</v>
       </c>
       <c r="D75" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E75" t="s">
-        <v>605</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>469</v>
       </c>
       <c r="C76" t="s">
         <v>442</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>162</v>
       </c>
@@ -6300,19 +5897,13 @@
         <v>438</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E77" t="s">
-        <v>605</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -6323,19 +5914,13 @@
         <v>438</v>
       </c>
       <c r="D78" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E78" t="s">
-        <v>605</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -6346,19 +5931,13 @@
         <v>438</v>
       </c>
       <c r="D79" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E79" t="s">
-        <v>605</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -6369,19 +5948,13 @@
         <v>438</v>
       </c>
       <c r="D80" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E80" t="s">
-        <v>605</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -6392,19 +5965,13 @@
         <v>438</v>
       </c>
       <c r="D81" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E81" t="s">
-        <v>605</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -6415,19 +5982,13 @@
         <v>438</v>
       </c>
       <c r="D82" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E82" t="s">
-        <v>605</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -6438,66 +5999,45 @@
         <v>438</v>
       </c>
       <c r="D83" t="s">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E83" t="s">
-        <v>605</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>181</v>
       </c>
       <c r="C84" t="s">
         <v>439</v>
       </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>471</v>
       </c>
       <c r="C85" t="s">
         <v>442</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>183</v>
       </c>
       <c r="C86" t="s">
         <v>472</v>
       </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>442</v>
       </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -6508,19 +6048,13 @@
         <v>438</v>
       </c>
       <c r="D88" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E88" t="s">
-        <v>607</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -6531,19 +6065,13 @@
         <v>438</v>
       </c>
       <c r="D89" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E89" t="s">
-        <v>607</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -6554,19 +6082,13 @@
         <v>438</v>
       </c>
       <c r="D90" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E90" t="s">
-        <v>607</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -6577,19 +6099,13 @@
         <v>438</v>
       </c>
       <c r="D91" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E91" t="s">
-        <v>607</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -6600,19 +6116,13 @@
         <v>438</v>
       </c>
       <c r="D92" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E92" t="s">
-        <v>607</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -6623,19 +6133,13 @@
         <v>438</v>
       </c>
       <c r="D93" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E93" t="s">
-        <v>607</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -6646,19 +6150,13 @@
         <v>438</v>
       </c>
       <c r="D94" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E94" t="s">
-        <v>607</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>207</v>
       </c>
@@ -6669,19 +6167,13 @@
         <v>438</v>
       </c>
       <c r="D95" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="E95" t="s">
-        <v>607</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>210</v>
       </c>
@@ -6691,17 +6183,11 @@
       <c r="C96" t="s">
         <v>472</v>
       </c>
-      <c r="E96" t="s">
-        <v>609</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>214</v>
       </c>
@@ -6711,17 +6197,11 @@
       <c r="C97" t="s">
         <v>472</v>
       </c>
-      <c r="E97" t="s">
-        <v>609</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>217</v>
       </c>
@@ -6731,17 +6211,11 @@
       <c r="C98" t="s">
         <v>472</v>
       </c>
-      <c r="E98" t="s">
-        <v>609</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -6751,17 +6225,11 @@
       <c r="C99" t="s">
         <v>472</v>
       </c>
-      <c r="E99" t="s">
-        <v>609</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6771,17 +6239,11 @@
       <c r="C100" t="s">
         <v>472</v>
       </c>
-      <c r="E100" t="s">
-        <v>609</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>226</v>
       </c>
@@ -6791,17 +6253,11 @@
       <c r="C101" t="s">
         <v>472</v>
       </c>
-      <c r="E101" t="s">
-        <v>609</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -6811,76 +6267,49 @@
       <c r="C102" t="s">
         <v>472</v>
       </c>
-      <c r="E102" t="s">
-        <v>609</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>228</v>
       </c>
       <c r="C103" t="s">
         <v>438</v>
       </c>
-      <c r="D103" t="s">
-        <v>439</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="E103" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>475</v>
       </c>
       <c r="C104" t="s">
         <v>442</v>
       </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>230</v>
       </c>
       <c r="C105" t="s">
         <v>472</v>
       </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>240</v>
       </c>
       <c r="C106" t="s">
         <v>439</v>
       </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
-        <v>575</v>
-      </c>
-      <c r="I106" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>250</v>
       </c>
@@ -6890,17 +6319,14 @@
       <c r="C107" t="s">
         <v>438</v>
       </c>
+      <c r="D107" t="s">
+        <v>604</v>
+      </c>
       <c r="E107" t="s">
-        <v>610</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -6910,17 +6336,14 @@
       <c r="C108" t="s">
         <v>438</v>
       </c>
+      <c r="D108" t="s">
+        <v>604</v>
+      </c>
       <c r="E108" t="s">
-        <v>610</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -6930,17 +6353,14 @@
       <c r="C109" t="s">
         <v>438</v>
       </c>
+      <c r="D109" t="s">
+        <v>604</v>
+      </c>
       <c r="E109" t="s">
-        <v>610</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -6950,17 +6370,14 @@
       <c r="C110" t="s">
         <v>438</v>
       </c>
+      <c r="D110" t="s">
+        <v>604</v>
+      </c>
       <c r="E110" t="s">
-        <v>610</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>261</v>
       </c>
@@ -6970,17 +6387,14 @@
       <c r="C111" t="s">
         <v>438</v>
       </c>
+      <c r="D111" t="s">
+        <v>604</v>
+      </c>
       <c r="E111" t="s">
-        <v>610</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -6990,17 +6404,14 @@
       <c r="C112" t="s">
         <v>438</v>
       </c>
+      <c r="D112" t="s">
+        <v>604</v>
+      </c>
       <c r="E112" t="s">
-        <v>610</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>267</v>
       </c>
@@ -7010,17 +6421,14 @@
       <c r="C113" t="s">
         <v>438</v>
       </c>
+      <c r="D113" t="s">
+        <v>604</v>
+      </c>
       <c r="E113" t="s">
-        <v>610</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>270</v>
       </c>
@@ -7030,17 +6438,14 @@
       <c r="C114" t="s">
         <v>438</v>
       </c>
+      <c r="D114" t="s">
+        <v>604</v>
+      </c>
       <c r="E114" t="s">
-        <v>610</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -7050,17 +6455,14 @@
       <c r="C115" t="s">
         <v>438</v>
       </c>
+      <c r="D115" t="s">
+        <v>604</v>
+      </c>
       <c r="E115" t="s">
-        <v>610</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -7070,42 +6472,33 @@
       <c r="C116" t="s">
         <v>438</v>
       </c>
+      <c r="D116" t="s">
+        <v>604</v>
+      </c>
       <c r="E116" t="s">
-        <v>610</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>279</v>
       </c>
       <c r="C117" t="s">
         <v>438</v>
       </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="E117" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>477</v>
       </c>
       <c r="C118" t="s">
         <v>442</v>
       </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>281</v>
       </c>
@@ -7113,19 +6506,13 @@
         <v>478</v>
       </c>
       <c r="C119" t="s">
-        <v>589</v>
-      </c>
-      <c r="E119" t="s">
-        <v>612</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="D119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -7133,47 +6520,32 @@
         <v>478</v>
       </c>
       <c r="C120" t="s">
-        <v>589</v>
-      </c>
-      <c r="E120" t="s">
-        <v>612</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="D120" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>285</v>
       </c>
       <c r="C121" t="s">
         <v>438</v>
       </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="E121" t="s">
         <v>558</v>
       </c>
-      <c r="H121" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>479</v>
       </c>
       <c r="C122" t="s">
         <v>442</v>
       </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>287</v>
       </c>
@@ -7181,22 +6553,13 @@
         <v>480</v>
       </c>
       <c r="C123" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D123" t="s">
-        <v>439</v>
-      </c>
-      <c r="E123" t="s">
-        <v>612</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>290</v>
       </c>
@@ -7204,22 +6567,13 @@
         <v>480</v>
       </c>
       <c r="C124" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D124" t="s">
-        <v>439</v>
-      </c>
-      <c r="E124" t="s">
-        <v>612</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>293</v>
       </c>
@@ -7227,22 +6581,13 @@
         <v>480</v>
       </c>
       <c r="C125" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D125" t="s">
-        <v>439</v>
-      </c>
-      <c r="E125" t="s">
-        <v>612</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>296</v>
       </c>
@@ -7252,17 +6597,14 @@
       <c r="C126" t="s">
         <v>438</v>
       </c>
+      <c r="D126" t="s">
+        <v>604</v>
+      </c>
       <c r="E126" t="s">
-        <v>610</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>298</v>
       </c>
@@ -7272,17 +6614,14 @@
       <c r="C127" t="s">
         <v>438</v>
       </c>
+      <c r="D127" t="s">
+        <v>604</v>
+      </c>
       <c r="E127" t="s">
-        <v>610</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>301</v>
       </c>
@@ -7292,17 +6631,14 @@
       <c r="C128" t="s">
         <v>438</v>
       </c>
+      <c r="D128" t="s">
+        <v>604</v>
+      </c>
       <c r="E128" t="s">
-        <v>610</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -7312,17 +6648,14 @@
       <c r="C129" t="s">
         <v>438</v>
       </c>
+      <c r="D129" t="s">
+        <v>604</v>
+      </c>
       <c r="E129" t="s">
-        <v>610</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>306</v>
       </c>
@@ -7332,17 +6665,14 @@
       <c r="C130" t="s">
         <v>438</v>
       </c>
+      <c r="D130" t="s">
+        <v>604</v>
+      </c>
       <c r="E130" t="s">
-        <v>610</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -7352,17 +6682,14 @@
       <c r="C131" t="s">
         <v>438</v>
       </c>
+      <c r="D131" t="s">
+        <v>604</v>
+      </c>
       <c r="E131" t="s">
-        <v>610</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>310</v>
       </c>
@@ -7372,17 +6699,14 @@
       <c r="C132" t="s">
         <v>438</v>
       </c>
+      <c r="D132" t="s">
+        <v>604</v>
+      </c>
       <c r="E132" t="s">
-        <v>610</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>313</v>
       </c>
@@ -7392,17 +6716,14 @@
       <c r="C133" t="s">
         <v>438</v>
       </c>
+      <c r="D133" t="s">
+        <v>604</v>
+      </c>
       <c r="E133" t="s">
-        <v>610</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-      <c r="G133" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>316</v>
       </c>
@@ -7412,17 +6733,14 @@
       <c r="C134" t="s">
         <v>438</v>
       </c>
+      <c r="D134" t="s">
+        <v>604</v>
+      </c>
       <c r="E134" t="s">
-        <v>610</v>
-      </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-      <c r="G134" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>319</v>
       </c>
@@ -7432,17 +6750,14 @@
       <c r="C135" t="s">
         <v>438</v>
       </c>
+      <c r="D135" t="s">
+        <v>604</v>
+      </c>
       <c r="E135" t="s">
-        <v>610</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>322</v>
       </c>
@@ -7452,17 +6767,14 @@
       <c r="C136" t="s">
         <v>438</v>
       </c>
+      <c r="D136" t="s">
+        <v>604</v>
+      </c>
       <c r="E136" t="s">
-        <v>610</v>
-      </c>
-      <c r="F136" t="b">
-        <v>0</v>
-      </c>
-      <c r="G136" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -7472,17 +6784,14 @@
       <c r="C137" t="s">
         <v>438</v>
       </c>
+      <c r="D137" t="s">
+        <v>604</v>
+      </c>
       <c r="E137" t="s">
-        <v>610</v>
-      </c>
-      <c r="F137" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>327</v>
       </c>
@@ -7492,17 +6801,14 @@
       <c r="C138" t="s">
         <v>438</v>
       </c>
+      <c r="D138" t="s">
+        <v>604</v>
+      </c>
       <c r="E138" t="s">
-        <v>610</v>
-      </c>
-      <c r="F138" t="b">
-        <v>0</v>
-      </c>
-      <c r="G138" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>330</v>
       </c>
@@ -7512,17 +6818,14 @@
       <c r="C139" t="s">
         <v>438</v>
       </c>
+      <c r="D139" t="s">
+        <v>604</v>
+      </c>
       <c r="E139" t="s">
-        <v>610</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -7532,17 +6835,14 @@
       <c r="C140" t="s">
         <v>438</v>
       </c>
+      <c r="D140" t="s">
+        <v>604</v>
+      </c>
       <c r="E140" t="s">
-        <v>610</v>
-      </c>
-      <c r="F140" t="b">
-        <v>0</v>
-      </c>
-      <c r="G140" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -7552,53 +6852,38 @@
       <c r="C141" t="s">
         <v>438</v>
       </c>
+      <c r="D141" t="s">
+        <v>604</v>
+      </c>
       <c r="E141" t="s">
-        <v>610</v>
-      </c>
-      <c r="F141" t="b">
-        <v>0</v>
-      </c>
-      <c r="G141" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>482</v>
       </c>
       <c r="C142" t="s">
         <v>442</v>
       </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>483</v>
       </c>
       <c r="C143" t="s">
         <v>439</v>
       </c>
-      <c r="F143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>484</v>
       </c>
       <c r="C144" t="s">
         <v>472</v>
       </c>
-      <c r="D144" t="s">
-        <v>439</v>
-      </c>
-      <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>485</v>
       </c>
@@ -7608,17 +6893,11 @@
       <c r="C145" t="s">
         <v>438</v>
       </c>
-      <c r="D145" t="s">
-        <v>439</v>
-      </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-      <c r="G145" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E145" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>487</v>
       </c>
@@ -7628,17 +6907,11 @@
       <c r="C146" t="s">
         <v>438</v>
       </c>
-      <c r="D146" t="s">
-        <v>439</v>
-      </c>
-      <c r="F146" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>488</v>
       </c>
@@ -7648,17 +6921,11 @@
       <c r="C147" t="s">
         <v>438</v>
       </c>
-      <c r="D147" t="s">
-        <v>439</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>489</v>
       </c>
@@ -7668,17 +6935,11 @@
       <c r="C148" t="s">
         <v>438</v>
       </c>
-      <c r="D148" t="s">
-        <v>439</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>490</v>
       </c>
@@ -7688,17 +6949,11 @@
       <c r="C149" t="s">
         <v>438</v>
       </c>
-      <c r="D149" t="s">
-        <v>439</v>
-      </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>491</v>
       </c>
@@ -7708,17 +6963,11 @@
       <c r="C150" t="s">
         <v>438</v>
       </c>
-      <c r="D150" t="s">
-        <v>439</v>
-      </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>492</v>
       </c>
@@ -7728,67 +6977,43 @@
       <c r="C151" t="s">
         <v>438</v>
       </c>
-      <c r="D151" t="s">
-        <v>439</v>
-      </c>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-      <c r="G151" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>493</v>
       </c>
       <c r="C152" t="s">
         <v>442</v>
       </c>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>494</v>
       </c>
       <c r="C153" t="s">
         <v>472</v>
       </c>
-      <c r="D153" t="s">
-        <v>439</v>
-      </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>495</v>
       </c>
       <c r="C154" t="s">
         <v>472</v>
       </c>
-      <c r="D154" t="s">
-        <v>439</v>
-      </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>496</v>
       </c>
       <c r="C155" t="s">
         <v>439</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>497</v>
       </c>
@@ -7798,17 +7023,11 @@
       <c r="C156" t="s">
         <v>438</v>
       </c>
-      <c r="D156" t="s">
-        <v>439</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-      <c r="G156" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>499</v>
       </c>
@@ -7818,17 +7037,11 @@
       <c r="C157" t="s">
         <v>438</v>
       </c>
-      <c r="D157" t="s">
-        <v>439</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-      <c r="G157" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E157" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>500</v>
       </c>
@@ -7838,17 +7051,11 @@
       <c r="C158" t="s">
         <v>438</v>
       </c>
-      <c r="D158" t="s">
-        <v>439</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-      <c r="G158" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>501</v>
       </c>
@@ -7858,17 +7065,11 @@
       <c r="C159" t="s">
         <v>438</v>
       </c>
-      <c r="D159" t="s">
-        <v>439</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-      <c r="G159" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E159" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>502</v>
       </c>
@@ -7878,17 +7079,11 @@
       <c r="C160" t="s">
         <v>438</v>
       </c>
-      <c r="D160" t="s">
-        <v>439</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-      <c r="G160" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>503</v>
       </c>
@@ -7898,17 +7093,11 @@
       <c r="C161" t="s">
         <v>438</v>
       </c>
-      <c r="D161" t="s">
-        <v>439</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-      <c r="G161" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>504</v>
       </c>
@@ -7918,17 +7107,11 @@
       <c r="C162" t="s">
         <v>438</v>
       </c>
-      <c r="D162" t="s">
-        <v>439</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-      <c r="G162" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E162" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>505</v>
       </c>
@@ -7938,17 +7121,11 @@
       <c r="C163" t="s">
         <v>438</v>
       </c>
-      <c r="D163" t="s">
-        <v>439</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-      <c r="G163" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>506</v>
       </c>
@@ -7958,17 +7135,11 @@
       <c r="C164" t="s">
         <v>438</v>
       </c>
-      <c r="D164" t="s">
-        <v>439</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-      <c r="G164" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>507</v>
       </c>
@@ -7978,17 +7149,11 @@
       <c r="C165" t="s">
         <v>438</v>
       </c>
-      <c r="D165" t="s">
-        <v>439</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-      <c r="G165" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>508</v>
       </c>
@@ -7998,112 +7163,76 @@
       <c r="C166" t="s">
         <v>438</v>
       </c>
-      <c r="D166" t="s">
-        <v>439</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>509</v>
       </c>
       <c r="C167" t="s">
         <v>442</v>
       </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>510</v>
       </c>
       <c r="C168" t="s">
         <v>443</v>
       </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>339</v>
       </c>
       <c r="C169" t="s">
         <v>472</v>
       </c>
-      <c r="D169" t="s">
-        <v>439</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>511</v>
       </c>
       <c r="C170" t="s">
         <v>443</v>
       </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-      <c r="I170" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>512</v>
       </c>
       <c r="C171" t="s">
         <v>443</v>
       </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>513</v>
       </c>
       <c r="C172" t="s">
         <v>472</v>
       </c>
-      <c r="D172" t="s">
-        <v>439</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>341</v>
       </c>
       <c r="C173" t="s">
         <v>438</v>
       </c>
-      <c r="D173" t="s">
-        <v>439</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-      <c r="G173" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E173" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>514</v>
       </c>
@@ -8114,19 +7243,13 @@
         <v>438</v>
       </c>
       <c r="D174" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E174" t="s">
-        <v>614</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>516</v>
       </c>
@@ -8137,19 +7260,13 @@
         <v>438</v>
       </c>
       <c r="D175" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E175" t="s">
-        <v>614</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-      <c r="G175" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>517</v>
       </c>
@@ -8160,19 +7277,13 @@
         <v>438</v>
       </c>
       <c r="D176" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E176" t="s">
-        <v>614</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>518</v>
       </c>
@@ -8183,19 +7294,13 @@
         <v>438</v>
       </c>
       <c r="D177" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E177" t="s">
-        <v>614</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>519</v>
       </c>
@@ -8206,19 +7311,13 @@
         <v>438</v>
       </c>
       <c r="D178" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E178" t="s">
-        <v>614</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>520</v>
       </c>
@@ -8229,19 +7328,13 @@
         <v>438</v>
       </c>
       <c r="D179" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E179" t="s">
-        <v>614</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-      <c r="G179" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>521</v>
       </c>
@@ -8252,19 +7345,13 @@
         <v>438</v>
       </c>
       <c r="D180" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E180" t="s">
-        <v>614</v>
-      </c>
-      <c r="F180" t="b">
-        <v>0</v>
-      </c>
-      <c r="G180" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>522</v>
       </c>
@@ -8275,19 +7362,13 @@
         <v>438</v>
       </c>
       <c r="D181" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E181" t="s">
-        <v>614</v>
-      </c>
-      <c r="F181" t="b">
-        <v>0</v>
-      </c>
-      <c r="G181" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>523</v>
       </c>
@@ -8298,19 +7379,13 @@
         <v>438</v>
       </c>
       <c r="D182" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E182" t="s">
-        <v>614</v>
-      </c>
-      <c r="F182" t="b">
-        <v>0</v>
-      </c>
-      <c r="G182" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>524</v>
       </c>
@@ -8321,19 +7396,13 @@
         <v>438</v>
       </c>
       <c r="D183" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E183" t="s">
-        <v>614</v>
-      </c>
-      <c r="F183" t="b">
-        <v>0</v>
-      </c>
-      <c r="G183" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>525</v>
       </c>
@@ -8344,19 +7413,13 @@
         <v>438</v>
       </c>
       <c r="D184" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E184" t="s">
-        <v>614</v>
-      </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-      <c r="G184" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>526</v>
       </c>
@@ -8367,19 +7430,13 @@
         <v>438</v>
       </c>
       <c r="D185" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E185" t="s">
-        <v>614</v>
-      </c>
-      <c r="F185" t="b">
-        <v>0</v>
-      </c>
-      <c r="G185" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>527</v>
       </c>
@@ -8390,19 +7447,13 @@
         <v>438</v>
       </c>
       <c r="D186" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E186" t="s">
-        <v>614</v>
-      </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>528</v>
       </c>
@@ -8413,19 +7464,13 @@
         <v>438</v>
       </c>
       <c r="D187" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E187" t="s">
-        <v>614</v>
-      </c>
-      <c r="F187" t="b">
-        <v>0</v>
-      </c>
-      <c r="G187" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>529</v>
       </c>
@@ -8436,19 +7481,13 @@
         <v>438</v>
       </c>
       <c r="D188" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E188" t="s">
-        <v>614</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-      <c r="G188" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>530</v>
       </c>
@@ -8459,19 +7498,13 @@
         <v>438</v>
       </c>
       <c r="D189" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E189" t="s">
-        <v>614</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-      <c r="G189" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>531</v>
       </c>
@@ -8482,19 +7515,13 @@
         <v>438</v>
       </c>
       <c r="D190" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E190" t="s">
-        <v>614</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-      <c r="G190" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>532</v>
       </c>
@@ -8505,30 +7532,21 @@
         <v>438</v>
       </c>
       <c r="D191" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="E191" t="s">
-        <v>614</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-      <c r="G191" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>533</v>
       </c>
       <c r="C192" t="s">
         <v>442</v>
       </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>343</v>
       </c>
@@ -8536,19 +7554,13 @@
         <v>534</v>
       </c>
       <c r="C193" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D193" t="s">
-        <v>439</v>
-      </c>
-      <c r="E193" t="s">
-        <v>616</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>346</v>
       </c>
@@ -8556,19 +7568,13 @@
         <v>534</v>
       </c>
       <c r="C194" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D194" t="s">
-        <v>439</v>
-      </c>
-      <c r="E194" t="s">
-        <v>616</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>348</v>
       </c>
@@ -8576,19 +7582,13 @@
         <v>534</v>
       </c>
       <c r="C195" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D195" t="s">
-        <v>439</v>
-      </c>
-      <c r="E195" t="s">
-        <v>616</v>
-      </c>
-      <c r="F195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>350</v>
       </c>
@@ -8596,19 +7596,13 @@
         <v>534</v>
       </c>
       <c r="C196" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D196" t="s">
-        <v>439</v>
-      </c>
-      <c r="E196" t="s">
-        <v>616</v>
-      </c>
-      <c r="F196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>353</v>
       </c>
@@ -8616,19 +7610,13 @@
         <v>534</v>
       </c>
       <c r="C197" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D197" t="s">
-        <v>439</v>
-      </c>
-      <c r="E197" t="s">
-        <v>616</v>
-      </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>356</v>
       </c>
@@ -8636,19 +7624,13 @@
         <v>534</v>
       </c>
       <c r="C198" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D198" t="s">
-        <v>439</v>
-      </c>
-      <c r="E198" t="s">
-        <v>616</v>
-      </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>358</v>
       </c>
@@ -8656,19 +7638,13 @@
         <v>534</v>
       </c>
       <c r="C199" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D199" t="s">
-        <v>439</v>
-      </c>
-      <c r="E199" t="s">
-        <v>616</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>362</v>
       </c>
@@ -8676,19 +7652,13 @@
         <v>534</v>
       </c>
       <c r="C200" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D200" t="s">
-        <v>439</v>
-      </c>
-      <c r="E200" t="s">
-        <v>616</v>
-      </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>365</v>
       </c>
@@ -8696,19 +7666,13 @@
         <v>534</v>
       </c>
       <c r="C201" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D201" t="s">
-        <v>439</v>
-      </c>
-      <c r="E201" t="s">
-        <v>616</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>368</v>
       </c>
@@ -8716,19 +7680,13 @@
         <v>534</v>
       </c>
       <c r="C202" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D202" t="s">
-        <v>439</v>
-      </c>
-      <c r="E202" t="s">
-        <v>616</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>371</v>
       </c>
@@ -8736,19 +7694,13 @@
         <v>534</v>
       </c>
       <c r="C203" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D203" t="s">
-        <v>439</v>
-      </c>
-      <c r="E203" t="s">
-        <v>616</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>374</v>
       </c>
@@ -8756,19 +7708,13 @@
         <v>534</v>
       </c>
       <c r="C204" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D204" t="s">
-        <v>439</v>
-      </c>
-      <c r="E204" t="s">
-        <v>616</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>377</v>
       </c>
@@ -8776,19 +7722,13 @@
         <v>534</v>
       </c>
       <c r="C205" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D205" t="s">
-        <v>439</v>
-      </c>
-      <c r="E205" t="s">
-        <v>616</v>
-      </c>
-      <c r="F205" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>380</v>
       </c>
@@ -8796,19 +7736,13 @@
         <v>534</v>
       </c>
       <c r="C206" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D206" t="s">
-        <v>439</v>
-      </c>
-      <c r="E206" t="s">
-        <v>616</v>
-      </c>
-      <c r="F206" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>383</v>
       </c>
@@ -8818,25 +7752,16 @@
       <c r="C207" t="s">
         <v>438</v>
       </c>
-      <c r="D207" t="s">
-        <v>439</v>
-      </c>
-      <c r="F207" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>535</v>
       </c>
       <c r="C208" t="s">
         <v>442</v>
       </c>
-      <c r="F208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>385</v>
       </c>
@@ -8846,17 +7771,14 @@
       <c r="C209" t="s">
         <v>438</v>
       </c>
+      <c r="D209" t="s">
+        <v>608</v>
+      </c>
       <c r="E209" t="s">
-        <v>614</v>
-      </c>
-      <c r="F209" t="b">
-        <v>0</v>
-      </c>
-      <c r="G209" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>387</v>
       </c>
@@ -8866,17 +7788,14 @@
       <c r="C210" t="s">
         <v>438</v>
       </c>
+      <c r="D210" t="s">
+        <v>608</v>
+      </c>
       <c r="E210" t="s">
-        <v>614</v>
-      </c>
-      <c r="F210" t="b">
-        <v>0</v>
-      </c>
-      <c r="G210" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>390</v>
       </c>
@@ -8886,17 +7805,14 @@
       <c r="C211" t="s">
         <v>438</v>
       </c>
+      <c r="D211" t="s">
+        <v>608</v>
+      </c>
       <c r="E211" t="s">
-        <v>614</v>
-      </c>
-      <c r="F211" t="b">
-        <v>0</v>
-      </c>
-      <c r="G211" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>393</v>
       </c>
@@ -8906,17 +7822,14 @@
       <c r="C212" t="s">
         <v>438</v>
       </c>
+      <c r="D212" t="s">
+        <v>608</v>
+      </c>
       <c r="E212" t="s">
-        <v>614</v>
-      </c>
-      <c r="F212" t="b">
-        <v>0</v>
-      </c>
-      <c r="G212" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>396</v>
       </c>
@@ -8926,17 +7839,14 @@
       <c r="C213" t="s">
         <v>438</v>
       </c>
+      <c r="D213" t="s">
+        <v>608</v>
+      </c>
       <c r="E213" t="s">
-        <v>614</v>
-      </c>
-      <c r="F213" t="b">
-        <v>0</v>
-      </c>
-      <c r="G213" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>399</v>
       </c>
@@ -8946,17 +7856,14 @@
       <c r="C214" t="s">
         <v>438</v>
       </c>
+      <c r="D214" t="s">
+        <v>608</v>
+      </c>
       <c r="E214" t="s">
-        <v>614</v>
-      </c>
-      <c r="F214" t="b">
-        <v>0</v>
-      </c>
-      <c r="G214" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>402</v>
       </c>
@@ -8966,17 +7873,14 @@
       <c r="C215" t="s">
         <v>438</v>
       </c>
+      <c r="D215" t="s">
+        <v>608</v>
+      </c>
       <c r="E215" t="s">
-        <v>614</v>
-      </c>
-      <c r="F215" t="b">
-        <v>0</v>
-      </c>
-      <c r="G215" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>405</v>
       </c>
@@ -8986,17 +7890,14 @@
       <c r="C216" t="s">
         <v>438</v>
       </c>
+      <c r="D216" t="s">
+        <v>608</v>
+      </c>
       <c r="E216" t="s">
-        <v>614</v>
-      </c>
-      <c r="F216" t="b">
-        <v>0</v>
-      </c>
-      <c r="G216" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>537</v>
       </c>
@@ -9006,17 +7907,14 @@
       <c r="C217" t="s">
         <v>438</v>
       </c>
+      <c r="D217" t="s">
+        <v>608</v>
+      </c>
       <c r="E217" t="s">
-        <v>614</v>
-      </c>
-      <c r="F217" t="b">
-        <v>0</v>
-      </c>
-      <c r="G217" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>408</v>
       </c>
@@ -9026,17 +7924,14 @@
       <c r="C218" t="s">
         <v>438</v>
       </c>
+      <c r="D218" t="s">
+        <v>608</v>
+      </c>
       <c r="E218" t="s">
-        <v>614</v>
-      </c>
-      <c r="F218" t="b">
-        <v>0</v>
-      </c>
-      <c r="G218" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>411</v>
       </c>
@@ -9046,17 +7941,14 @@
       <c r="C219" t="s">
         <v>438</v>
       </c>
+      <c r="D219" t="s">
+        <v>608</v>
+      </c>
       <c r="E219" t="s">
-        <v>614</v>
-      </c>
-      <c r="F219" t="b">
-        <v>0</v>
-      </c>
-      <c r="G219" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>414</v>
       </c>
@@ -9066,318 +7958,210 @@
       <c r="C220" t="s">
         <v>438</v>
       </c>
+      <c r="D220" t="s">
+        <v>608</v>
+      </c>
       <c r="E220" t="s">
-        <v>614</v>
-      </c>
-      <c r="F220" t="b">
-        <v>0</v>
-      </c>
-      <c r="G220" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>538</v>
       </c>
       <c r="C221" t="s">
         <v>442</v>
       </c>
-      <c r="F221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>539</v>
       </c>
       <c r="C222" t="s">
         <v>439</v>
       </c>
-      <c r="F222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>540</v>
       </c>
       <c r="C223" t="s">
         <v>472</v>
       </c>
-      <c r="D223" t="s">
-        <v>439</v>
-      </c>
-      <c r="F223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>541</v>
       </c>
       <c r="C224" t="s">
         <v>439</v>
       </c>
-      <c r="F224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>542</v>
       </c>
       <c r="C225" t="s">
         <v>439</v>
       </c>
-      <c r="F225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>543</v>
       </c>
       <c r="C226" t="s">
         <v>472</v>
       </c>
-      <c r="D226" t="s">
-        <v>439</v>
-      </c>
-      <c r="F226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>544</v>
       </c>
       <c r="C227" t="s">
         <v>472</v>
       </c>
-      <c r="D227" t="s">
-        <v>439</v>
-      </c>
-      <c r="F227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>416</v>
       </c>
       <c r="C228" t="s">
         <v>443</v>
       </c>
-      <c r="F228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>545</v>
       </c>
-      <c r="F229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>546</v>
       </c>
-      <c r="F230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>547</v>
       </c>
-      <c r="F231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>548</v>
       </c>
-      <c r="F232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>419</v>
       </c>
       <c r="C233" t="s">
         <v>439</v>
       </c>
-      <c r="F233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>422</v>
       </c>
       <c r="C234" t="s">
         <v>439</v>
       </c>
-      <c r="F234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>424</v>
       </c>
       <c r="C235" t="s">
         <v>472</v>
       </c>
-      <c r="D235" t="s">
-        <v>439</v>
-      </c>
-      <c r="F235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>426</v>
       </c>
       <c r="C236" t="s">
         <v>472</v>
       </c>
-      <c r="D236" t="s">
-        <v>439</v>
-      </c>
-      <c r="F236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>428</v>
       </c>
       <c r="C237" t="s">
         <v>439</v>
       </c>
-      <c r="F237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>430</v>
       </c>
       <c r="C238" t="s">
         <v>472</v>
       </c>
-      <c r="D238" t="s">
-        <v>439</v>
-      </c>
-      <c r="F238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>432</v>
       </c>
       <c r="C239" t="s">
         <v>439</v>
       </c>
-      <c r="F239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>434</v>
       </c>
       <c r="C240" t="s">
         <v>439</v>
       </c>
-      <c r="F240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>549</v>
       </c>
       <c r="C241" t="s">
         <v>439</v>
       </c>
-      <c r="F241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>550</v>
       </c>
       <c r="C242" t="s">
         <v>472</v>
       </c>
-      <c r="D242" t="s">
-        <v>439</v>
-      </c>
-      <c r="F242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>551</v>
       </c>
       <c r="C243" t="s">
         <v>439</v>
       </c>
-      <c r="F243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>552</v>
       </c>
       <c r="C244" t="s">
         <v>439</v>
       </c>
-      <c r="F244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>553</v>
       </c>
       <c r="C245" t="s">
         <v>472</v>
       </c>
-      <c r="D245" t="s">
-        <v>439</v>
-      </c>
-      <c r="F245" t="b">
-        <v>0</v>
-      </c>
-      <c r="I245" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>554</v>
       </c>
       <c r="C246" t="s">
         <v>472</v>
-      </c>
-      <c r="D246" t="s">
-        <v>439</v>
-      </c>
-      <c r="F246" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9391,7 +8175,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9405,22 +8189,22 @@
         <v>562</v>
       </c>
       <c r="B1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9428,10 +8212,10 @@
         <v>438</v>
       </c>
       <c r="C2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -9442,10 +8226,10 @@
         <v>439</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9456,32 +8240,32 @@
         <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D6" t="s">
         <v>588</v>
-      </c>
-      <c r="D6" t="s">
-        <v>594</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -9495,13 +8279,13 @@
         <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -9512,13 +8296,13 @@
         <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C8" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -9529,13 +8313,13 @@
         <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D9" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -9543,13 +8327,13 @@
         <v>472</v>
       </c>
       <c r="B10" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C10" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -9557,13 +8341,13 @@
         <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C11" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -9571,16 +8355,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B12" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C12" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D12" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -9588,13 +8372,13 @@
         <v>438</v>
       </c>
       <c r="B13" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -9602,16 +8386,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B14" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C14" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -9722,43 +8506,43 @@
         <v>562</v>
       </c>
       <c r="B9" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C9" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B11" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C11" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805A2F39-5AE5-4A49-B893-058274935CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0415858C-AAEF-B143-B614-1FDCD6B59D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="596">
   <si>
     <t>Variable</t>
   </si>
@@ -1333,24 +1333,12 @@
     <t>Mainly English Speaking Home</t>
   </si>
   <si>
-    <t>regex</t>
-  </si>
-  <si>
-    <t>Q1\_\d$</t>
-  </si>
-  <si>
     <t>dichotomous</t>
   </si>
   <si>
     <t>categorical</t>
   </si>
   <si>
-    <t>Q3\_\d$</t>
-  </si>
-  <si>
-    <t>Q4\_\d$</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -1423,54 +1411,27 @@
     <t>geoid.block.v1</t>
   </si>
   <si>
-    <t>Q6\_\d$</t>
-  </si>
-  <si>
     <t>Q6_9_TEXT</t>
   </si>
   <si>
-    <t>Q7\_\d{1,2}$</t>
-  </si>
-  <si>
     <t>Q7_12_TEXT</t>
   </si>
   <si>
-    <t>Q8\_\d$</t>
-  </si>
-  <si>
     <t>Q9_TEXT</t>
   </si>
   <si>
     <t>ordinal</t>
   </si>
   <si>
-    <t>Q12\_\d$</t>
-  </si>
-  <si>
-    <t>Q13[:alpha:]</t>
-  </si>
-  <si>
     <t>Q14_TEXT</t>
   </si>
   <si>
-    <t>Q17\_\d$</t>
-  </si>
-  <si>
     <t>Q18_TEXT</t>
   </si>
   <si>
-    <t>Q19[:alpha:]$</t>
-  </si>
-  <si>
     <t>Q20_TEXT</t>
   </si>
   <si>
-    <t>Q2(1|2|3)</t>
-  </si>
-  <si>
-    <t>Q24\_\d{1,2}$</t>
-  </si>
-  <si>
     <t>Q25</t>
   </si>
   <si>
@@ -1483,9 +1444,6 @@
     <t>Q28_1</t>
   </si>
   <si>
-    <t>Q28\_\d$</t>
-  </si>
-  <si>
     <t>Q28_2</t>
   </si>
   <si>
@@ -1519,9 +1477,6 @@
     <t>Q32_1</t>
   </si>
   <si>
-    <t>Q32\_\d{1,2}$</t>
-  </si>
-  <si>
     <t>Q32_2</t>
   </si>
   <si>
@@ -1570,9 +1525,6 @@
     <t>Q40_0</t>
   </si>
   <si>
-    <t>Q40\_\d{1,2}$</t>
-  </si>
-  <si>
     <t>Q40_1</t>
   </si>
   <si>
@@ -1627,13 +1579,7 @@
     <t>Q40_17_TEXT</t>
   </si>
   <si>
-    <t>Q41[:alpha:]$</t>
-  </si>
-  <si>
     <t>Q42i_TEXT</t>
-  </si>
-  <si>
-    <t>Q43\_\d{1,2}$</t>
   </si>
   <si>
     <t>Q43_8</t>
@@ -4755,16 +4701,16 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B149" t="s">
         <v>386</v>
       </c>
       <c r="C149" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="D149" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4915,3253 +4861,2769 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="2" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D1" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="E1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="B10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="B12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>454</v>
-      </c>
-      <c r="C13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+      <c r="B13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="B17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>458</v>
       </c>
-      <c r="C19" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>459</v>
       </c>
-      <c r="C20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>460</v>
       </c>
-      <c r="C21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>461</v>
       </c>
-      <c r="C22" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>463</v>
-      </c>
-      <c r="C24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
-      </c>
-      <c r="C28" t="s">
-        <v>438</v>
-      </c>
-      <c r="E28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>437</v>
-      </c>
-      <c r="C29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>437</v>
-      </c>
-      <c r="C30" t="s">
-        <v>438</v>
-      </c>
-      <c r="E30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D30" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" t="s">
-        <v>438</v>
-      </c>
-      <c r="E31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D31" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" t="s">
-        <v>438</v>
-      </c>
-      <c r="E32" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" t="s">
-        <v>438</v>
-      </c>
-      <c r="E33" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>440</v>
-      </c>
-      <c r="C36" t="s">
-        <v>438</v>
-      </c>
-      <c r="E36" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>440</v>
-      </c>
-      <c r="C37" t="s">
-        <v>438</v>
-      </c>
-      <c r="E37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
-      </c>
-      <c r="C38" t="s">
-        <v>438</v>
-      </c>
-      <c r="E38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D38" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>440</v>
-      </c>
-      <c r="C39" t="s">
-        <v>438</v>
-      </c>
-      <c r="E39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>440</v>
-      </c>
-      <c r="C40" t="s">
-        <v>438</v>
-      </c>
-      <c r="E40" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D40" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>440</v>
-      </c>
-      <c r="C41" t="s">
-        <v>438</v>
-      </c>
-      <c r="E41" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D41" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>440</v>
-      </c>
-      <c r="C42" t="s">
-        <v>438</v>
-      </c>
-      <c r="E42" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D42" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>440</v>
-      </c>
-      <c r="C43" t="s">
-        <v>438</v>
-      </c>
-      <c r="E43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>440</v>
-      </c>
-      <c r="C44" t="s">
-        <v>438</v>
-      </c>
-      <c r="E44" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="D44" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C45" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="D45" t="s">
-        <v>595</v>
-      </c>
-      <c r="E45" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C46" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="D46" t="s">
-        <v>595</v>
-      </c>
-      <c r="E46" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C47" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="D47" t="s">
-        <v>595</v>
-      </c>
-      <c r="E47" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C48" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="D48" t="s">
-        <v>595</v>
-      </c>
-      <c r="E48" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C49" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="D49" t="s">
-        <v>595</v>
-      </c>
-      <c r="E49" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C50" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="D50" t="s">
-        <v>595</v>
-      </c>
-      <c r="E50" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
-      <c r="C51" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C52" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D52" t="s">
-        <v>599</v>
-      </c>
-      <c r="E52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C53" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D53" t="s">
-        <v>599</v>
-      </c>
-      <c r="E53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C54" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D54" t="s">
-        <v>599</v>
-      </c>
-      <c r="E54" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C55" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D55" t="s">
-        <v>599</v>
-      </c>
-      <c r="E55" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D56" t="s">
-        <v>599</v>
-      </c>
-      <c r="E56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D57" t="s">
-        <v>599</v>
-      </c>
-      <c r="E57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C58" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D58" t="s">
-        <v>599</v>
-      </c>
-      <c r="E58" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D59" t="s">
-        <v>599</v>
-      </c>
-      <c r="E59" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D60" t="s">
-        <v>599</v>
-      </c>
-      <c r="E60" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s">
+        <v>581</v>
+      </c>
+      <c r="D61" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>462</v>
+      </c>
+      <c r="B62" t="s">
         <v>438</v>
       </c>
-      <c r="D61" t="s">
-        <v>599</v>
-      </c>
-      <c r="E61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>467</v>
-      </c>
-      <c r="C62" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D63" t="s">
-        <v>599</v>
-      </c>
-      <c r="E63" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C64" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D64" t="s">
-        <v>599</v>
-      </c>
-      <c r="E64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C65" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D65" t="s">
-        <v>599</v>
-      </c>
-      <c r="E65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C66" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D66" t="s">
-        <v>599</v>
-      </c>
-      <c r="E66" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C67" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D67" t="s">
-        <v>599</v>
-      </c>
-      <c r="E67" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C68" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D68" t="s">
-        <v>599</v>
-      </c>
-      <c r="E68" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C69" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D69" t="s">
-        <v>599</v>
-      </c>
-      <c r="E69" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C70" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D70" t="s">
-        <v>599</v>
-      </c>
-      <c r="E70" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C71" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D71" t="s">
-        <v>599</v>
-      </c>
-      <c r="E71" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D72" t="s">
-        <v>599</v>
-      </c>
-      <c r="E72" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D73" t="s">
-        <v>599</v>
-      </c>
-      <c r="E73" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C74" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D74" t="s">
-        <v>599</v>
-      </c>
-      <c r="E74" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D75" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>463</v>
+      </c>
+      <c r="B76" t="s">
         <v>438</v>
       </c>
-      <c r="D75" t="s">
-        <v>599</v>
-      </c>
-      <c r="E75" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>469</v>
-      </c>
-      <c r="C76" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D77" t="s">
-        <v>599</v>
-      </c>
-      <c r="E77" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C78" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D78" t="s">
-        <v>599</v>
-      </c>
-      <c r="E78" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C79" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D79" t="s">
-        <v>599</v>
-      </c>
-      <c r="E79" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C80" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D80" t="s">
-        <v>599</v>
-      </c>
-      <c r="E80" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C81" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D81" t="s">
-        <v>599</v>
-      </c>
-      <c r="E81" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>175</v>
       </c>
       <c r="B82" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D82" t="s">
-        <v>599</v>
-      </c>
-      <c r="E82" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C83" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="D83" t="s">
-        <v>599</v>
-      </c>
-      <c r="E83" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>181</v>
       </c>
-      <c r="C84" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="B85" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>183</v>
       </c>
-      <c r="C86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>185</v>
       </c>
-      <c r="C87" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>187</v>
       </c>
       <c r="B88" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C88" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D88" t="s">
-        <v>601</v>
-      </c>
-      <c r="E88" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C89" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D89" t="s">
-        <v>601</v>
-      </c>
-      <c r="E89" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C90" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D90" t="s">
-        <v>601</v>
-      </c>
-      <c r="E90" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C91" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D91" t="s">
-        <v>601</v>
-      </c>
-      <c r="E91" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C92" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D92" t="s">
-        <v>601</v>
-      </c>
-      <c r="E92" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C93" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D93" t="s">
-        <v>601</v>
-      </c>
-      <c r="E93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>204</v>
       </c>
       <c r="B94" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C94" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D94" t="s">
-        <v>601</v>
-      </c>
-      <c r="E94" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C95" t="s">
-        <v>438</v>
+        <v>583</v>
       </c>
       <c r="D95" t="s">
-        <v>601</v>
-      </c>
-      <c r="E95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>210</v>
       </c>
       <c r="B96" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C96" t="s">
-        <v>472</v>
-      </c>
-      <c r="D96" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
-        <v>472</v>
-      </c>
-      <c r="D97" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C98" t="s">
-        <v>472</v>
-      </c>
-      <c r="D98" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>220</v>
       </c>
       <c r="B99" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C99" t="s">
-        <v>472</v>
-      </c>
-      <c r="D99" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>223</v>
       </c>
       <c r="B100" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C100" t="s">
-        <v>472</v>
-      </c>
-      <c r="D100" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C101" t="s">
-        <v>472</v>
-      </c>
-      <c r="D101" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>227</v>
       </c>
       <c r="B102" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
-      </c>
-      <c r="D102" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>228</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B103" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" t="s">
         <v>438</v>
       </c>
-      <c r="E103" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>475</v>
-      </c>
-      <c r="C104" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>230</v>
       </c>
-      <c r="C105" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>240</v>
       </c>
-      <c r="C106" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>437</v>
+      </c>
+      <c r="E106" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D107" t="s">
-        <v>604</v>
-      </c>
-      <c r="E107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>252</v>
       </c>
       <c r="B108" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C108" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D108" t="s">
-        <v>604</v>
-      </c>
-      <c r="E108" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C109" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D109" t="s">
-        <v>604</v>
-      </c>
-      <c r="E109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>258</v>
       </c>
       <c r="B110" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C110" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D110" t="s">
-        <v>604</v>
-      </c>
-      <c r="E110" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>261</v>
       </c>
       <c r="B111" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C111" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D111" t="s">
-        <v>604</v>
-      </c>
-      <c r="E111" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C112" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D112" t="s">
-        <v>604</v>
-      </c>
-      <c r="E112" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C113" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D113" t="s">
-        <v>604</v>
-      </c>
-      <c r="E113" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>270</v>
       </c>
       <c r="B114" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C114" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D114" t="s">
-        <v>604</v>
-      </c>
-      <c r="E114" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D115" t="s">
-        <v>604</v>
-      </c>
-      <c r="E115" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C116" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D116" t="s">
-        <v>604</v>
-      </c>
-      <c r="E116" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>279</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B117" t="s">
+        <v>436</v>
+      </c>
+      <c r="D117" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>467</v>
+      </c>
+      <c r="B118" t="s">
         <v>438</v>
       </c>
-      <c r="E117" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>477</v>
-      </c>
-      <c r="C118" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>478</v>
+        <v>565</v>
       </c>
       <c r="C119" t="s">
-        <v>583</v>
-      </c>
-      <c r="D119" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>478</v>
+        <v>565</v>
       </c>
       <c r="C120" t="s">
-        <v>583</v>
-      </c>
-      <c r="D120" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>285</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B121" t="s">
+        <v>436</v>
+      </c>
+      <c r="D121" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>468</v>
+      </c>
+      <c r="B122" t="s">
         <v>438</v>
       </c>
-      <c r="E121" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>479</v>
-      </c>
-      <c r="C122" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>287</v>
       </c>
       <c r="B123" t="s">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="C123" t="s">
-        <v>583</v>
-      </c>
-      <c r="D123" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>290</v>
       </c>
       <c r="B124" t="s">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="C124" t="s">
-        <v>583</v>
-      </c>
-      <c r="D124" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>293</v>
       </c>
       <c r="B125" t="s">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
-      </c>
-      <c r="D125" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>296</v>
       </c>
       <c r="B126" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C126" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D126" t="s">
-        <v>604</v>
-      </c>
-      <c r="E126" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>298</v>
       </c>
       <c r="B127" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C127" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D127" t="s">
-        <v>604</v>
-      </c>
-      <c r="E127" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C128" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D128" t="s">
-        <v>604</v>
-      </c>
-      <c r="E128" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>304</v>
       </c>
       <c r="B129" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C129" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D129" t="s">
-        <v>604</v>
-      </c>
-      <c r="E129" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C130" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D130" t="s">
-        <v>604</v>
-      </c>
-      <c r="E130" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>308</v>
       </c>
       <c r="B131" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C131" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D131" t="s">
-        <v>604</v>
-      </c>
-      <c r="E131" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>310</v>
       </c>
       <c r="B132" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C132" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D132" t="s">
-        <v>604</v>
-      </c>
-      <c r="E132" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D133" t="s">
-        <v>604</v>
-      </c>
-      <c r="E133" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C134" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D134" t="s">
-        <v>604</v>
-      </c>
-      <c r="E134" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>319</v>
       </c>
       <c r="B135" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C135" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D135" t="s">
-        <v>604</v>
-      </c>
-      <c r="E135" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>322</v>
       </c>
       <c r="B136" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C136" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D136" t="s">
-        <v>604</v>
-      </c>
-      <c r="E136" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>324</v>
       </c>
       <c r="B137" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C137" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D137" t="s">
-        <v>604</v>
-      </c>
-      <c r="E137" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>327</v>
       </c>
       <c r="B138" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C138" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D138" t="s">
-        <v>604</v>
-      </c>
-      <c r="E138" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>330</v>
       </c>
       <c r="B139" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C139" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D139" t="s">
-        <v>604</v>
-      </c>
-      <c r="E139" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>333</v>
       </c>
       <c r="B140" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D140" t="s">
-        <v>604</v>
-      </c>
-      <c r="E140" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>336</v>
       </c>
       <c r="B141" t="s">
+        <v>436</v>
+      </c>
+      <c r="C141" t="s">
+        <v>586</v>
+      </c>
+      <c r="D141" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>469</v>
+      </c>
+      <c r="B142" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>470</v>
+      </c>
+      <c r="B143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>471</v>
+      </c>
+      <c r="B144" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>472</v>
+      </c>
+      <c r="B145" t="s">
+        <v>436</v>
+      </c>
+      <c r="D145" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>473</v>
+      </c>
+      <c r="B146" t="s">
+        <v>436</v>
+      </c>
+      <c r="D146" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>474</v>
+      </c>
+      <c r="B147" t="s">
+        <v>436</v>
+      </c>
+      <c r="D147" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>475</v>
+      </c>
+      <c r="B148" t="s">
+        <v>436</v>
+      </c>
+      <c r="D148" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>477</v>
+      </c>
+      <c r="B150" t="s">
+        <v>436</v>
+      </c>
+      <c r="D150" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>478</v>
+      </c>
+      <c r="B151" t="s">
+        <v>436</v>
+      </c>
+      <c r="D151" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>480</v>
+      </c>
+      <c r="B153" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>481</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B154" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>482</v>
+      </c>
+      <c r="B155" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>483</v>
+      </c>
+      <c r="B156" t="s">
+        <v>436</v>
+      </c>
+      <c r="D156" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>484</v>
+      </c>
+      <c r="B157" t="s">
+        <v>436</v>
+      </c>
+      <c r="D157" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>485</v>
+      </c>
+      <c r="B158" t="s">
+        <v>436</v>
+      </c>
+      <c r="D158" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>486</v>
+      </c>
+      <c r="B159" t="s">
+        <v>436</v>
+      </c>
+      <c r="D159" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>487</v>
+      </c>
+      <c r="B160" t="s">
+        <v>436</v>
+      </c>
+      <c r="D160" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>488</v>
+      </c>
+      <c r="B161" t="s">
+        <v>436</v>
+      </c>
+      <c r="D161" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>489</v>
+      </c>
+      <c r="B162" t="s">
+        <v>436</v>
+      </c>
+      <c r="D162" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>490</v>
+      </c>
+      <c r="B163" t="s">
+        <v>436</v>
+      </c>
+      <c r="D163" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>491</v>
+      </c>
+      <c r="B164" t="s">
+        <v>436</v>
+      </c>
+      <c r="D164" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>492</v>
+      </c>
+      <c r="B165" t="s">
+        <v>436</v>
+      </c>
+      <c r="D165" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>493</v>
+      </c>
+      <c r="B166" t="s">
+        <v>436</v>
+      </c>
+      <c r="D166" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" t="s">
         <v>438</v>
       </c>
-      <c r="D141" t="s">
-        <v>604</v>
-      </c>
-      <c r="E141" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>482</v>
-      </c>
-      <c r="C142" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>483</v>
-      </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>484</v>
-      </c>
-      <c r="C144" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>485</v>
-      </c>
-      <c r="B145" t="s">
-        <v>486</v>
-      </c>
-      <c r="C145" t="s">
-        <v>438</v>
-      </c>
-      <c r="E145" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>487</v>
-      </c>
-      <c r="B146" t="s">
-        <v>486</v>
-      </c>
-      <c r="C146" t="s">
-        <v>438</v>
-      </c>
-      <c r="E146" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>488</v>
-      </c>
-      <c r="B147" t="s">
-        <v>486</v>
-      </c>
-      <c r="C147" t="s">
-        <v>438</v>
-      </c>
-      <c r="E147" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>489</v>
-      </c>
-      <c r="B148" t="s">
-        <v>486</v>
-      </c>
-      <c r="C148" t="s">
-        <v>438</v>
-      </c>
-      <c r="E148" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>490</v>
-      </c>
-      <c r="B149" t="s">
-        <v>486</v>
-      </c>
-      <c r="C149" t="s">
-        <v>438</v>
-      </c>
-      <c r="E149" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>491</v>
-      </c>
-      <c r="B150" t="s">
-        <v>486</v>
-      </c>
-      <c r="C150" t="s">
-        <v>438</v>
-      </c>
-      <c r="E150" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>492</v>
-      </c>
-      <c r="B151" t="s">
-        <v>486</v>
-      </c>
-      <c r="C151" t="s">
-        <v>438</v>
-      </c>
-      <c r="E151" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>493</v>
-      </c>
-      <c r="C152" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>494</v>
-      </c>
-      <c r="C153" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>495</v>
-      </c>
-      <c r="C154" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>496</v>
-      </c>
-      <c r="C155" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>497</v>
-      </c>
-      <c r="B156" t="s">
-        <v>498</v>
-      </c>
-      <c r="C156" t="s">
-        <v>438</v>
-      </c>
-      <c r="E156" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>499</v>
-      </c>
-      <c r="B157" t="s">
-        <v>498</v>
-      </c>
-      <c r="C157" t="s">
-        <v>438</v>
-      </c>
-      <c r="E157" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>500</v>
-      </c>
-      <c r="B158" t="s">
-        <v>498</v>
-      </c>
-      <c r="C158" t="s">
-        <v>438</v>
-      </c>
-      <c r="E158" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>501</v>
-      </c>
-      <c r="B159" t="s">
-        <v>498</v>
-      </c>
-      <c r="C159" t="s">
-        <v>438</v>
-      </c>
-      <c r="E159" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>502</v>
-      </c>
-      <c r="B160" t="s">
-        <v>498</v>
-      </c>
-      <c r="C160" t="s">
-        <v>438</v>
-      </c>
-      <c r="E160" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>503</v>
-      </c>
-      <c r="B161" t="s">
-        <v>498</v>
-      </c>
-      <c r="C161" t="s">
-        <v>438</v>
-      </c>
-      <c r="E161" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>504</v>
-      </c>
-      <c r="B162" t="s">
-        <v>498</v>
-      </c>
-      <c r="C162" t="s">
-        <v>438</v>
-      </c>
-      <c r="E162" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>505</v>
-      </c>
-      <c r="B163" t="s">
-        <v>498</v>
-      </c>
-      <c r="C163" t="s">
-        <v>438</v>
-      </c>
-      <c r="E163" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>506</v>
-      </c>
-      <c r="B164" t="s">
-        <v>498</v>
-      </c>
-      <c r="C164" t="s">
-        <v>438</v>
-      </c>
-      <c r="E164" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>507</v>
-      </c>
-      <c r="B165" t="s">
-        <v>498</v>
-      </c>
-      <c r="C165" t="s">
-        <v>438</v>
-      </c>
-      <c r="E165" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>508</v>
-      </c>
-      <c r="B166" t="s">
-        <v>498</v>
-      </c>
-      <c r="C166" t="s">
-        <v>438</v>
-      </c>
-      <c r="E166" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>509</v>
-      </c>
-      <c r="C167" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>510</v>
-      </c>
-      <c r="C168" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>339</v>
       </c>
-      <c r="C169" t="s">
-        <v>472</v>
-      </c>
-      <c r="F169" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>465</v>
+      </c>
+      <c r="E169" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>511</v>
-      </c>
-      <c r="C170" t="s">
-        <v>443</v>
-      </c>
-      <c r="F170" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="B170" t="s">
+        <v>439</v>
+      </c>
+      <c r="E170" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>512</v>
-      </c>
-      <c r="C171" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="B171" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>513</v>
-      </c>
-      <c r="C172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="B172" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>341</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B173" t="s">
+        <v>436</v>
+      </c>
+      <c r="D173" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>499</v>
+      </c>
+      <c r="B174" t="s">
+        <v>436</v>
+      </c>
+      <c r="C174" t="s">
+        <v>590</v>
+      </c>
+      <c r="D174" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>500</v>
+      </c>
+      <c r="B175" t="s">
+        <v>436</v>
+      </c>
+      <c r="C175" t="s">
+        <v>590</v>
+      </c>
+      <c r="D175" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>501</v>
+      </c>
+      <c r="B176" t="s">
+        <v>436</v>
+      </c>
+      <c r="C176" t="s">
+        <v>590</v>
+      </c>
+      <c r="D176" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>502</v>
+      </c>
+      <c r="B177" t="s">
+        <v>436</v>
+      </c>
+      <c r="C177" t="s">
+        <v>590</v>
+      </c>
+      <c r="D177" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>503</v>
+      </c>
+      <c r="B178" t="s">
+        <v>436</v>
+      </c>
+      <c r="C178" t="s">
+        <v>590</v>
+      </c>
+      <c r="D178" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>504</v>
+      </c>
+      <c r="B179" t="s">
+        <v>436</v>
+      </c>
+      <c r="C179" t="s">
+        <v>590</v>
+      </c>
+      <c r="D179" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>505</v>
+      </c>
+      <c r="B180" t="s">
+        <v>436</v>
+      </c>
+      <c r="C180" t="s">
+        <v>590</v>
+      </c>
+      <c r="D180" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>506</v>
+      </c>
+      <c r="B181" t="s">
+        <v>436</v>
+      </c>
+      <c r="C181" t="s">
+        <v>590</v>
+      </c>
+      <c r="D181" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>507</v>
+      </c>
+      <c r="B182" t="s">
+        <v>436</v>
+      </c>
+      <c r="C182" t="s">
+        <v>590</v>
+      </c>
+      <c r="D182" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>508</v>
+      </c>
+      <c r="B183" t="s">
+        <v>436</v>
+      </c>
+      <c r="C183" t="s">
+        <v>590</v>
+      </c>
+      <c r="D183" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>509</v>
+      </c>
+      <c r="B184" t="s">
+        <v>436</v>
+      </c>
+      <c r="C184" t="s">
+        <v>590</v>
+      </c>
+      <c r="D184" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>510</v>
+      </c>
+      <c r="B185" t="s">
+        <v>436</v>
+      </c>
+      <c r="C185" t="s">
+        <v>590</v>
+      </c>
+      <c r="D185" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>511</v>
+      </c>
+      <c r="B186" t="s">
+        <v>436</v>
+      </c>
+      <c r="C186" t="s">
+        <v>590</v>
+      </c>
+      <c r="D186" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>512</v>
+      </c>
+      <c r="B187" t="s">
+        <v>436</v>
+      </c>
+      <c r="C187" t="s">
+        <v>590</v>
+      </c>
+      <c r="D187" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>513</v>
+      </c>
+      <c r="B188" t="s">
+        <v>436</v>
+      </c>
+      <c r="C188" t="s">
+        <v>590</v>
+      </c>
+      <c r="D188" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>514</v>
+      </c>
+      <c r="B189" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" t="s">
+        <v>590</v>
+      </c>
+      <c r="D189" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>515</v>
+      </c>
+      <c r="B190" t="s">
+        <v>436</v>
+      </c>
+      <c r="C190" t="s">
+        <v>590</v>
+      </c>
+      <c r="D190" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>516</v>
+      </c>
+      <c r="B191" t="s">
+        <v>436</v>
+      </c>
+      <c r="C191" t="s">
+        <v>590</v>
+      </c>
+      <c r="D191" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>517</v>
+      </c>
+      <c r="B192" t="s">
         <v>438</v>
       </c>
-      <c r="E173" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>514</v>
-      </c>
-      <c r="B174" t="s">
-        <v>515</v>
-      </c>
-      <c r="C174" t="s">
-        <v>438</v>
-      </c>
-      <c r="D174" t="s">
-        <v>608</v>
-      </c>
-      <c r="E174" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>516</v>
-      </c>
-      <c r="B175" t="s">
-        <v>515</v>
-      </c>
-      <c r="C175" t="s">
-        <v>438</v>
-      </c>
-      <c r="D175" t="s">
-        <v>608</v>
-      </c>
-      <c r="E175" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>517</v>
-      </c>
-      <c r="B176" t="s">
-        <v>515</v>
-      </c>
-      <c r="C176" t="s">
-        <v>438</v>
-      </c>
-      <c r="D176" t="s">
-        <v>608</v>
-      </c>
-      <c r="E176" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>518</v>
-      </c>
-      <c r="B177" t="s">
-        <v>515</v>
-      </c>
-      <c r="C177" t="s">
-        <v>438</v>
-      </c>
-      <c r="D177" t="s">
-        <v>608</v>
-      </c>
-      <c r="E177" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>519</v>
-      </c>
-      <c r="B178" t="s">
-        <v>515</v>
-      </c>
-      <c r="C178" t="s">
-        <v>438</v>
-      </c>
-      <c r="D178" t="s">
-        <v>608</v>
-      </c>
-      <c r="E178" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>520</v>
-      </c>
-      <c r="B179" t="s">
-        <v>515</v>
-      </c>
-      <c r="C179" t="s">
-        <v>438</v>
-      </c>
-      <c r="D179" t="s">
-        <v>608</v>
-      </c>
-      <c r="E179" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>521</v>
-      </c>
-      <c r="B180" t="s">
-        <v>515</v>
-      </c>
-      <c r="C180" t="s">
-        <v>438</v>
-      </c>
-      <c r="D180" t="s">
-        <v>608</v>
-      </c>
-      <c r="E180" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>522</v>
-      </c>
-      <c r="B181" t="s">
-        <v>515</v>
-      </c>
-      <c r="C181" t="s">
-        <v>438</v>
-      </c>
-      <c r="D181" t="s">
-        <v>608</v>
-      </c>
-      <c r="E181" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>523</v>
-      </c>
-      <c r="B182" t="s">
-        <v>515</v>
-      </c>
-      <c r="C182" t="s">
-        <v>438</v>
-      </c>
-      <c r="D182" t="s">
-        <v>608</v>
-      </c>
-      <c r="E182" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>524</v>
-      </c>
-      <c r="B183" t="s">
-        <v>515</v>
-      </c>
-      <c r="C183" t="s">
-        <v>438</v>
-      </c>
-      <c r="D183" t="s">
-        <v>608</v>
-      </c>
-      <c r="E183" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>525</v>
-      </c>
-      <c r="B184" t="s">
-        <v>515</v>
-      </c>
-      <c r="C184" t="s">
-        <v>438</v>
-      </c>
-      <c r="D184" t="s">
-        <v>608</v>
-      </c>
-      <c r="E184" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>526</v>
-      </c>
-      <c r="B185" t="s">
-        <v>515</v>
-      </c>
-      <c r="C185" t="s">
-        <v>438</v>
-      </c>
-      <c r="D185" t="s">
-        <v>608</v>
-      </c>
-      <c r="E185" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>527</v>
-      </c>
-      <c r="B186" t="s">
-        <v>515</v>
-      </c>
-      <c r="C186" t="s">
-        <v>438</v>
-      </c>
-      <c r="D186" t="s">
-        <v>608</v>
-      </c>
-      <c r="E186" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>528</v>
-      </c>
-      <c r="B187" t="s">
-        <v>515</v>
-      </c>
-      <c r="C187" t="s">
-        <v>438</v>
-      </c>
-      <c r="D187" t="s">
-        <v>608</v>
-      </c>
-      <c r="E187" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>529</v>
-      </c>
-      <c r="B188" t="s">
-        <v>515</v>
-      </c>
-      <c r="C188" t="s">
-        <v>438</v>
-      </c>
-      <c r="D188" t="s">
-        <v>608</v>
-      </c>
-      <c r="E188" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>530</v>
-      </c>
-      <c r="B189" t="s">
-        <v>515</v>
-      </c>
-      <c r="C189" t="s">
-        <v>438</v>
-      </c>
-      <c r="D189" t="s">
-        <v>608</v>
-      </c>
-      <c r="E189" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>531</v>
-      </c>
-      <c r="B190" t="s">
-        <v>515</v>
-      </c>
-      <c r="C190" t="s">
-        <v>438</v>
-      </c>
-      <c r="D190" t="s">
-        <v>608</v>
-      </c>
-      <c r="E190" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>532</v>
-      </c>
-      <c r="B191" t="s">
-        <v>515</v>
-      </c>
-      <c r="C191" t="s">
-        <v>438</v>
-      </c>
-      <c r="D191" t="s">
-        <v>608</v>
-      </c>
-      <c r="E191" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>533</v>
-      </c>
-      <c r="C192" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>343</v>
       </c>
       <c r="B193" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C193" t="s">
-        <v>583</v>
-      </c>
-      <c r="D193" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>346</v>
       </c>
       <c r="B194" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C194" t="s">
-        <v>583</v>
-      </c>
-      <c r="D194" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>348</v>
       </c>
       <c r="B195" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C195" t="s">
-        <v>583</v>
-      </c>
-      <c r="D195" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>350</v>
       </c>
       <c r="B196" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C196" t="s">
-        <v>583</v>
-      </c>
-      <c r="D196" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>353</v>
       </c>
       <c r="B197" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C197" t="s">
-        <v>583</v>
-      </c>
-      <c r="D197" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>356</v>
       </c>
       <c r="B198" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C198" t="s">
-        <v>583</v>
-      </c>
-      <c r="D198" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>358</v>
       </c>
       <c r="B199" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C199" t="s">
-        <v>583</v>
-      </c>
-      <c r="D199" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>362</v>
       </c>
       <c r="B200" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C200" t="s">
-        <v>583</v>
-      </c>
-      <c r="D200" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>365</v>
       </c>
       <c r="B201" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C201" t="s">
-        <v>583</v>
-      </c>
-      <c r="D201" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>368</v>
       </c>
       <c r="B202" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
-      </c>
-      <c r="D202" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>371</v>
       </c>
       <c r="B203" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C203" t="s">
-        <v>583</v>
-      </c>
-      <c r="D203" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>374</v>
       </c>
       <c r="B204" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
-      </c>
-      <c r="D204" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>377</v>
       </c>
       <c r="B205" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C205" t="s">
-        <v>583</v>
-      </c>
-      <c r="D205" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>380</v>
       </c>
       <c r="B206" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="C206" t="s">
-        <v>583</v>
-      </c>
-      <c r="D206" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>383</v>
       </c>
       <c r="B207" t="s">
-        <v>534</v>
-      </c>
-      <c r="C207" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>518</v>
+      </c>
+      <c r="B208" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>535</v>
-      </c>
-      <c r="C208" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>385</v>
       </c>
       <c r="B209" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C209" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D209" t="s">
-        <v>608</v>
-      </c>
-      <c r="E209" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>387</v>
       </c>
       <c r="B210" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C210" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D210" t="s">
-        <v>608</v>
-      </c>
-      <c r="E210" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>390</v>
       </c>
       <c r="B211" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C211" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D211" t="s">
-        <v>608</v>
-      </c>
-      <c r="E211" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>393</v>
       </c>
       <c r="B212" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C212" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D212" t="s">
-        <v>608</v>
-      </c>
-      <c r="E212" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>396</v>
       </c>
       <c r="B213" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C213" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D213" t="s">
-        <v>608</v>
-      </c>
-      <c r="E213" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>399</v>
       </c>
       <c r="B214" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D214" t="s">
-        <v>608</v>
-      </c>
-      <c r="E214" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>402</v>
       </c>
       <c r="B215" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C215" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D215" t="s">
-        <v>608</v>
-      </c>
-      <c r="E215" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>405</v>
       </c>
       <c r="B216" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C216" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D216" t="s">
-        <v>608</v>
-      </c>
-      <c r="E216" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B217" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C217" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D217" t="s">
-        <v>608</v>
-      </c>
-      <c r="E217" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>408</v>
       </c>
       <c r="B218" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C218" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D218" t="s">
-        <v>608</v>
-      </c>
-      <c r="E218" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>411</v>
       </c>
       <c r="B219" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C219" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
       <c r="D219" t="s">
-        <v>608</v>
-      </c>
-      <c r="E219" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>414</v>
       </c>
       <c r="B220" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="C220" t="s">
+        <v>590</v>
+      </c>
+      <c r="D220" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>520</v>
+      </c>
+      <c r="B221" t="s">
         <v>438</v>
       </c>
-      <c r="D220" t="s">
-        <v>608</v>
-      </c>
-      <c r="E220" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>538</v>
-      </c>
-      <c r="C221" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>539</v>
-      </c>
-      <c r="C222" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="B222" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>540</v>
-      </c>
-      <c r="C223" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="B223" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>541</v>
-      </c>
-      <c r="C224" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="B224" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>542</v>
-      </c>
-      <c r="C225" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="B225" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>543</v>
-      </c>
-      <c r="C226" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="B226" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>544</v>
-      </c>
-      <c r="C227" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="B227" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>416</v>
       </c>
-      <c r="C228" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>419</v>
       </c>
-      <c r="C233" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>422</v>
       </c>
-      <c r="C234" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>424</v>
       </c>
-      <c r="C235" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>426</v>
       </c>
-      <c r="C236" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>428</v>
       </c>
-      <c r="C237" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>430</v>
       </c>
-      <c r="C238" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>432</v>
       </c>
-      <c r="C239" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>434</v>
       </c>
-      <c r="C240" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>549</v>
-      </c>
-      <c r="C241" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="B241" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>550</v>
-      </c>
-      <c r="C242" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="B242" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>551</v>
-      </c>
-      <c r="C243" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="B243" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>552</v>
-      </c>
-      <c r="C244" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="B244" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>553</v>
-      </c>
-      <c r="C245" t="s">
-        <v>472</v>
-      </c>
-      <c r="F245" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="B245" t="s">
+        <v>465</v>
+      </c>
+      <c r="E245" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>554</v>
-      </c>
-      <c r="C246" t="s">
-        <v>472</v>
+        <v>536</v>
+      </c>
+      <c r="B246" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -8175,7 +7637,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8186,36 +7648,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="D1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="E1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="F1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="G1" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D2" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -8223,13 +7685,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -8237,35 +7699,35 @@
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D6" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -8276,16 +7738,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="C7" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D7" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -8293,16 +7755,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="C8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" t="s">
         <v>582</v>
-      </c>
-      <c r="D8" t="s">
-        <v>600</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -8310,44 +7772,44 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D9" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C11" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D11" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -8355,30 +7817,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C12" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C13" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D13" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -8386,16 +7848,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D14" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -8418,131 +7880,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C1" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C5" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C10" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0415858C-AAEF-B143-B614-1FDCD6B59D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63BFE7F-B668-3343-A373-85D41D77C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="603">
   <si>
     <t>Variable</t>
   </si>
@@ -1811,13 +1811,34 @@
   </si>
   <si>
     <t>No Preferred Language</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>This sheet contains information that helps us make concise labels for plots.</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>This sheet contains information that provides the logic for plotting functions in cdrs.</t>
+  </si>
+  <si>
+    <t>palettes</t>
+  </si>
+  <si>
+    <t>This sheet contains information on different color palette combinations. It shares the pal_id column with SHEET logic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1957,6 +1978,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2300,11 +2327,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2682,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="C77" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3466,6 +3494,9 @@
       <c r="A57" t="s">
         <v>162</v>
       </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
       <c r="C57" t="s">
         <v>21</v>
       </c>
@@ -4064,6 +4095,7 @@
       <c r="B101" t="s">
         <v>280</v>
       </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s">
         <v>124</v>
       </c>
@@ -4114,6 +4146,9 @@
       <c r="C105" t="s">
         <v>289</v>
       </c>
+      <c r="D105" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -4125,6 +4160,9 @@
       <c r="C106" t="s">
         <v>292</v>
       </c>
+      <c r="D106" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -4134,6 +4172,9 @@
         <v>294</v>
       </c>
       <c r="C107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4863,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126:C141"/>
+    <sheetView topLeftCell="A64" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5815,7 +5856,7 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -7867,10 +7908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7891,43 +7932,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
+        <v>597</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>601</v>
       </c>
       <c r="C4" t="s">
-        <v>547</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>544</v>
       </c>
-      <c r="B5" t="s">
-        <v>437</v>
-      </c>
       <c r="C5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7935,10 +7976,10 @@
         <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -7946,10 +7987,10 @@
         <v>544</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7957,10 +7998,10 @@
         <v>544</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7968,42 +8009,75 @@
         <v>544</v>
       </c>
       <c r="B9" t="s">
-        <v>565</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
-        <v>567</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13" t="s">
+        <v>567</v>
+      </c>
+      <c r="C13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>573</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>567</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>579</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>567</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>580</v>
       </c>
     </row>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63BFE7F-B668-3343-A373-85D41D77C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B2267-8E68-6146-BD70-F371CEC0CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2711,7 +2711,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C77" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B2267-8E68-6146-BD70-F371CEC0CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE598738-CAFF-E341-8CE3-BF52847928CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C77" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4904,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView topLeftCell="A221" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE598738-CAFF-E341-8CE3-BF52847928CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB942A-6B01-9647-9C89-B258D1BC3FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,10 +3344,10 @@
         <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3358,10 +3358,10 @@
         <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3372,10 +3372,10 @@
         <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3386,10 +3386,10 @@
         <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3400,10 +3400,10 @@
         <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3414,10 +3414,10 @@
         <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3428,10 +3428,10 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,10 +3442,10 @@
         <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3456,10 +3456,10 @@
         <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3470,10 +3470,10 @@
         <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3484,10 +3484,10 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,10 +4214,10 @@
         <v>297</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4228,10 +4228,10 @@
         <v>297</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4242,10 +4242,10 @@
         <v>297</v>
       </c>
       <c r="C112" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D112" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4256,10 +4256,10 @@
         <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D113" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4270,10 +4270,10 @@
         <v>297</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="D114" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4284,10 +4284,10 @@
         <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D115" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4298,10 +4298,10 @@
         <v>297</v>
       </c>
       <c r="C116" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4312,10 +4312,10 @@
         <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D117" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4326,10 +4326,10 @@
         <v>297</v>
       </c>
       <c r="C118" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D118" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4340,10 +4340,10 @@
         <v>297</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D119" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4354,10 +4354,10 @@
         <v>297</v>
       </c>
       <c r="C120" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D120" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4368,10 +4368,10 @@
         <v>297</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D121" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4382,10 +4382,10 @@
         <v>297</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D122" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4396,10 +4396,10 @@
         <v>297</v>
       </c>
       <c r="C123" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D123" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB942A-6B01-9647-9C89-B258D1BC3FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFCAF57-D5C6-2C47-AE74-EA56823BBA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="602">
   <si>
     <t>Variable</t>
   </si>
@@ -1285,54 +1285,27 @@
     <t>SEX_P</t>
   </si>
   <si>
-    <t>Demographic Representation</t>
-  </si>
-  <si>
-    <t>Binary gender</t>
-  </si>
-  <si>
     <t>RACE_P</t>
   </si>
   <si>
-    <t>Race/ethnicity</t>
-  </si>
-  <si>
     <t>INCOME_P</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>AGE_P</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>ETHNICITY_P</t>
   </si>
   <si>
-    <t>Latinidad</t>
-  </si>
-  <si>
     <t>EDU_P</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>HOMEOWNERSHIP_P</t>
   </si>
   <si>
-    <t>Homeownership</t>
-  </si>
-  <si>
     <t>LANGUAGE_P</t>
   </si>
   <si>
-    <t>Mainly English Speaking Home</t>
-  </si>
-  <si>
     <t>dichotomous</t>
   </si>
   <si>
@@ -1832,6 +1805,30 @@
   </si>
   <si>
     <t>This sheet contains information on different color palette combinations. It shares the pal_id column with SHEET logic.</t>
+  </si>
+  <si>
+    <t>Demographic: Income</t>
+  </si>
+  <si>
+    <t>Demographic: Age</t>
+  </si>
+  <si>
+    <t>Demographic: Race</t>
+  </si>
+  <si>
+    <t>Demographic: Education</t>
+  </si>
+  <si>
+    <t>Demographic: Homeownership</t>
+  </si>
+  <si>
+    <t>Demographic: English-speaking Home</t>
+  </si>
+  <si>
+    <t>Demographic: Binary Gender</t>
+  </si>
+  <si>
+    <t>Demographic: Hispanic/Latinx-identifying Home</t>
   </si>
 </sst>
 </file>
@@ -2710,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4742,16 +4739,16 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B149" t="s">
         <v>386</v>
       </c>
       <c r="C149" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D149" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4812,87 +4809,63 @@
         <v>419</v>
       </c>
       <c r="B154" t="s">
-        <v>420</v>
-      </c>
-      <c r="C154" t="s">
-        <v>421</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
-      </c>
-      <c r="C155" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B156" t="s">
-        <v>420</v>
-      </c>
-      <c r="C156" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B157" t="s">
-        <v>420</v>
-      </c>
-      <c r="C157" t="s">
-        <v>427</v>
+        <v>595</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B158" t="s">
-        <v>420</v>
-      </c>
-      <c r="C158" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B159" t="s">
-        <v>420</v>
-      </c>
-      <c r="C159" t="s">
-        <v>431</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B160" t="s">
-        <v>420</v>
-      </c>
-      <c r="C160" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B161" t="s">
-        <v>420</v>
-      </c>
-      <c r="C161" t="s">
-        <v>435</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -4904,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4921,21 +4894,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4945,36 +4918,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4982,39 +4955,39 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5022,28 +4995,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5051,71 +5024,71 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,7 +5096,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,10 +5104,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D28" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5142,10 +5115,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D29" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5153,10 +5126,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D30" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,10 +5137,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5175,10 +5148,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D32" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5186,10 +5159,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5197,7 +5170,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5205,7 +5178,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -5213,10 +5186,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D36" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5224,10 +5197,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D37" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5235,10 +5208,10 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D38" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5246,10 +5219,10 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D39" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,10 +5230,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D40" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5268,10 +5241,10 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -5279,10 +5252,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D42" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5290,10 +5263,10 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D43" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5301,10 +5274,10 @@
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D44" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5312,13 +5285,13 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C45" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D45" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5326,13 +5299,13 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C46" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D46" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5340,13 +5313,13 @@
         <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C47" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D47" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5354,13 +5327,13 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C48" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D48" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5368,13 +5341,13 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C49" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D49" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -5382,13 +5355,13 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C50" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D50" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -5396,7 +5369,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -5404,13 +5377,13 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C52" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D52" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5418,13 +5391,13 @@
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C53" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D53" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5432,13 +5405,13 @@
         <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C54" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D54" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -5446,13 +5419,13 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C55" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D55" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -5460,13 +5433,13 @@
         <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C56" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D56" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -5474,13 +5447,13 @@
         <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C57" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D57" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -5488,13 +5461,13 @@
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C58" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D58" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,13 +5475,13 @@
         <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D59" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -5516,13 +5489,13 @@
         <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C60" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D60" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -5530,21 +5503,21 @@
         <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C61" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D61" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -5552,13 +5525,13 @@
         <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C63" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D63" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -5566,13 +5539,13 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C64" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D64" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -5580,13 +5553,13 @@
         <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C65" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D65" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -5594,13 +5567,13 @@
         <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C66" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D66" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -5608,13 +5581,13 @@
         <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C67" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D67" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -5622,13 +5595,13 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C68" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D68" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -5636,13 +5609,13 @@
         <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C69" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D69" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -5650,13 +5623,13 @@
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C70" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D70" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -5664,13 +5637,13 @@
         <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C71" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -5678,13 +5651,13 @@
         <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C72" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D72" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -5692,13 +5665,13 @@
         <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C73" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D73" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,13 +5679,13 @@
         <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C74" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D74" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5720,21 +5693,21 @@
         <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C75" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D75" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B76" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5742,13 +5715,13 @@
         <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C77" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D77" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5756,13 +5729,13 @@
         <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C78" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D78" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5770,13 +5743,13 @@
         <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C79" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D79" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5784,13 +5757,13 @@
         <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D80" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5798,13 +5771,13 @@
         <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D81" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5812,13 +5785,13 @@
         <v>175</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C82" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D82" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5826,13 +5799,13 @@
         <v>178</v>
       </c>
       <c r="B83" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D83" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5840,15 +5813,15 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B85" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5856,7 +5829,7 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5864,7 +5837,7 @@
         <v>185</v>
       </c>
       <c r="B87" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5872,13 +5845,13 @@
         <v>187</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C88" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D88" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5886,13 +5859,13 @@
         <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C89" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D89" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5900,13 +5873,13 @@
         <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C90" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D90" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5914,13 +5887,13 @@
         <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C91" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D91" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5928,13 +5901,13 @@
         <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D92" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5942,13 +5915,13 @@
         <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C93" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D93" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5956,13 +5929,13 @@
         <v>204</v>
       </c>
       <c r="B94" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C94" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D94" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5970,13 +5943,13 @@
         <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C95" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D95" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5984,10 +5957,10 @@
         <v>210</v>
       </c>
       <c r="B96" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C96" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -5995,10 +5968,10 @@
         <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C97" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -6006,10 +5979,10 @@
         <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C98" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -6017,10 +5990,10 @@
         <v>220</v>
       </c>
       <c r="B99" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C99" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -6028,10 +6001,10 @@
         <v>223</v>
       </c>
       <c r="B100" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C100" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -6039,10 +6012,10 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C101" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -6050,10 +6023,10 @@
         <v>227</v>
       </c>
       <c r="B102" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C102" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -6061,18 +6034,18 @@
         <v>228</v>
       </c>
       <c r="B103" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D103" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B104" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -6080,7 +6053,7 @@
         <v>230</v>
       </c>
       <c r="B105" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -6088,10 +6061,10 @@
         <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E106" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -6099,13 +6072,13 @@
         <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C107" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D107" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -6113,13 +6086,13 @@
         <v>252</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C108" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D108" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -6127,13 +6100,13 @@
         <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C109" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D109" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -6141,13 +6114,13 @@
         <v>258</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C110" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D110" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,13 +6128,13 @@
         <v>261</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C111" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D111" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -6169,13 +6142,13 @@
         <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C112" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D112" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6183,13 +6156,13 @@
         <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C113" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D113" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -6197,13 +6170,13 @@
         <v>270</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C114" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D114" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6211,13 +6184,13 @@
         <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C115" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D115" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6225,13 +6198,13 @@
         <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C116" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D116" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6239,18 +6212,18 @@
         <v>279</v>
       </c>
       <c r="B117" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D117" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B118" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,10 +6231,10 @@
         <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C119" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6269,10 +6242,10 @@
         <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C120" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6280,18 +6253,18 @@
         <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D121" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -6299,10 +6272,10 @@
         <v>287</v>
       </c>
       <c r="B123" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C123" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -6310,10 +6283,10 @@
         <v>290</v>
       </c>
       <c r="B124" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C124" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -6321,10 +6294,10 @@
         <v>293</v>
       </c>
       <c r="B125" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C125" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -6332,13 +6305,13 @@
         <v>296</v>
       </c>
       <c r="B126" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C126" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D126" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -6346,13 +6319,13 @@
         <v>298</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C127" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D127" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -6360,13 +6333,13 @@
         <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C128" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D128" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -6374,13 +6347,13 @@
         <v>304</v>
       </c>
       <c r="B129" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C129" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D129" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -6388,13 +6361,13 @@
         <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C130" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D130" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -6402,13 +6375,13 @@
         <v>308</v>
       </c>
       <c r="B131" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C131" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D131" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -6416,13 +6389,13 @@
         <v>310</v>
       </c>
       <c r="B132" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C132" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D132" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -6430,13 +6403,13 @@
         <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C133" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D133" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -6444,13 +6417,13 @@
         <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D134" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -6458,13 +6431,13 @@
         <v>319</v>
       </c>
       <c r="B135" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C135" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D135" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -6472,13 +6445,13 @@
         <v>322</v>
       </c>
       <c r="B136" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C136" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D136" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -6486,13 +6459,13 @@
         <v>324</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C137" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D137" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -6500,13 +6473,13 @@
         <v>327</v>
       </c>
       <c r="B138" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C138" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D138" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -6514,13 +6487,13 @@
         <v>330</v>
       </c>
       <c r="B139" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C139" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D139" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -6528,13 +6501,13 @@
         <v>333</v>
       </c>
       <c r="B140" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C140" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D140" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -6542,283 +6515,283 @@
         <v>336</v>
       </c>
       <c r="B141" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C141" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D141" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B142" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B143" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B144" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B145" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D145" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D146" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B147" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D147" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B148" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D148" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B149" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D149" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B150" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D150" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B151" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D151" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B152" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B153" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B154" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B155" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D156" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B157" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B158" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D158" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B160" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D160" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B162" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D162" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B163" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D163" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B164" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D164" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D165" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B166" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D166" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B167" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B168" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6826,37 +6799,37 @@
         <v>339</v>
       </c>
       <c r="B169" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E169" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B170" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E170" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B171" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B172" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -6864,270 +6837,270 @@
         <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D173" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B174" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C174" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D174" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B175" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C175" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D175" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B176" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C176" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D176" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B177" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C177" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D177" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B178" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C178" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B179" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C179" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D179" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B180" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C180" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D180" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C181" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D181" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B182" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C182" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D182" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C183" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D183" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B184" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C184" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D184" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C185" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D185" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B186" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C186" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D186" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B187" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C187" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D187" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B188" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C188" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D188" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B189" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C189" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D189" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B190" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C190" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D190" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B191" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C191" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D191" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B192" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -7135,10 +7108,10 @@
         <v>343</v>
       </c>
       <c r="B193" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C193" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -7146,10 +7119,10 @@
         <v>346</v>
       </c>
       <c r="B194" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C194" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -7157,10 +7130,10 @@
         <v>348</v>
       </c>
       <c r="B195" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C195" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -7168,10 +7141,10 @@
         <v>350</v>
       </c>
       <c r="B196" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C196" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -7179,10 +7152,10 @@
         <v>353</v>
       </c>
       <c r="B197" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C197" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -7190,10 +7163,10 @@
         <v>356</v>
       </c>
       <c r="B198" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C198" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -7201,10 +7174,10 @@
         <v>358</v>
       </c>
       <c r="B199" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C199" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -7212,10 +7185,10 @@
         <v>362</v>
       </c>
       <c r="B200" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C200" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -7223,10 +7196,10 @@
         <v>365</v>
       </c>
       <c r="B201" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C201" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -7234,10 +7207,10 @@
         <v>368</v>
       </c>
       <c r="B202" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C202" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -7245,10 +7218,10 @@
         <v>371</v>
       </c>
       <c r="B203" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C203" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -7256,10 +7229,10 @@
         <v>374</v>
       </c>
       <c r="B204" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C204" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -7267,10 +7240,10 @@
         <v>377</v>
       </c>
       <c r="B205" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C205" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -7278,10 +7251,10 @@
         <v>380</v>
       </c>
       <c r="B206" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C206" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -7289,15 +7262,15 @@
         <v>383</v>
       </c>
       <c r="B207" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B208" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -7305,13 +7278,13 @@
         <v>385</v>
       </c>
       <c r="B209" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C209" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D209" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -7319,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B210" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C210" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D210" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -7333,13 +7306,13 @@
         <v>390</v>
       </c>
       <c r="B211" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C211" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D211" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -7347,13 +7320,13 @@
         <v>393</v>
       </c>
       <c r="B212" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C212" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D212" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -7361,13 +7334,13 @@
         <v>396</v>
       </c>
       <c r="B213" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C213" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D213" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -7375,13 +7348,13 @@
         <v>399</v>
       </c>
       <c r="B214" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C214" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D214" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -7389,13 +7362,13 @@
         <v>402</v>
       </c>
       <c r="B215" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C215" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D215" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -7403,27 +7376,27 @@
         <v>405</v>
       </c>
       <c r="B216" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C216" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D216" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B217" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C217" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D217" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -7431,13 +7404,13 @@
         <v>408</v>
       </c>
       <c r="B218" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C218" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D218" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7445,13 +7418,13 @@
         <v>411</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C219" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D219" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -7459,69 +7432,69 @@
         <v>414</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C220" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D220" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B222" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B223" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B224" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B225" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B226" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B227" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -7529,27 +7502,27 @@
         <v>416</v>
       </c>
       <c r="B228" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -7557,114 +7530,114 @@
         <v>419</v>
       </c>
       <c r="B233" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B234" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>423</v>
+      </c>
+      <c r="B237" t="s">
         <v>428</v>
-      </c>
-      <c r="B237" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B238" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B239" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B240" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B241" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B242" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B243" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B244" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B245" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E245" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B246" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -7689,36 +7662,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="G1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -7726,13 +7699,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -7740,35 +7713,35 @@
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -7779,16 +7752,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -7796,16 +7769,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D8" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -7813,44 +7786,44 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D9" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D10" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C11" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D11" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -7858,30 +7831,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D12" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D13" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -7889,16 +7862,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C14" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D14" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7921,164 +7894,164 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C5" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C13" t="s">
         <v>559</v>
-      </c>
-      <c r="B13" t="s">
-        <v>567</v>
-      </c>
-      <c r="C13" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B14" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C14" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B15" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFCAF57-D5C6-2C47-AE74-EA56823BBA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0336ADA-3EDD-BC4D-9047-8BDF7E3D9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="740" windowWidth="21140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="700">
   <si>
     <t>Variable</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>Describe the Delta Region as you would to someone who is not familiar with it</t>
-  </si>
-  <si>
     <t>Q6_0</t>
   </si>
   <si>
@@ -1829,13 +1826,310 @@
   </si>
   <si>
     <t>Demographic: Hispanic/Latinx-identifying Home</t>
+  </si>
+  <si>
+    <t>full_title</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Please tell us which of the following apply to you. Do you currently...? Select all that apply.</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>How long have you personally lived in or near the Delta region? Please provide the length of time in years. If you have lived in or near the Delta region for less than one year, please round up to 1.</t>
+  </si>
+  <si>
+    <t>Which best describes the area where you live?</t>
+  </si>
+  <si>
+    <t>Which of the following statements describe YOUR relationship to the Delta? Select all that apply.</t>
+  </si>
+  <si>
+    <t>Which of the following statements describe why YOU feel the Delta is important? Select all that apply.</t>
+  </si>
+  <si>
+    <t>The following are some factors that people value about living in the Delta. Which factors, if any, do you personally value most about living in the Delta area? Select up to three.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In one or two short sentences, please describe the Delta Region as you would to someone who is not familiar with it.  </t>
+  </si>
+  <si>
+    <t>The following are some factors that present potential challenges to the well-being of Delta residents. Please select which factors, if any, present the largest challenges to your personal well-being as a Delta resident.</t>
+  </si>
+  <si>
+    <t>Do you engage in any of the following activities in the Delta? Select all that apply.</t>
+  </si>
+  <si>
+    <t>Who do you feel best advocates for your interests in the Delta? (For example, this could be a community organization or group, a public official, a government entity, a local leader, etc.)</t>
+  </si>
+  <si>
+    <t>Please rate your overall level of satisfaction with your quality of life in the Delta.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Have you or anyone in your home experienced any of the following impacts while living in the Delta? Select all that apply.</t>
+  </si>
+  <si>
+    <t>How concerned are you about each of the following environmental changes affecting the Delta over the next 25 years?</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Are there any other environmental changes not mentioned above that you are concerned about affecting the Delta?</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>How much do you think the environmental changes mentioned above (e.g. rising sea levels, heat waves, droughts, floods, wildfires, worsening air and water quality, etc.) are a result of climate change?</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Do you believe climate change is caused...</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>To prepare for possible environmental and climate change impacts to the Delta, would you support policies that led to any of the following actions? Select all that apply.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Are there any other actions (not listed above) that you would like to see taken to prepare the Delta for possible environmental and climate change impacts?</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>California is currently in a severe drought.</t>
+  </si>
+  <si>
+    <t>19b</t>
+  </si>
+  <si>
+    <t>California should be preparing for more severe droughts in the future.</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Have you personally experienced drought impacts directly? If so, how?</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>In response to the current drought in California, would you say state and local governments are...</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>In response to the current drought in California, would you say other people living in the Delta are...</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>In response to the current drought in California, would you say  other Californians living OUTSIDE of the Delta are...</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Which of the following resources do you currently have access to? Select all that apply.</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Which best describes your political views?</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Thank you for completing this survey! Before you go, we are testing out four more questions to use on future surveys. Would you be able to answer a few more quick questions before going?</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Please rate the following entities on how much you trust them to act in the best interests of the Delta.</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>How likely are you to get involved in any of the following ways for a Delta issue that is important to you?</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Are any of the following factors barriers to engaging with issues facing the Delta? Select all that apply.</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your gender? </t>
+  </si>
+  <si>
+    <t>Which of the following age groups do you belong to?</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Which of the following best describes your race/ethnicity?</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>What is the highest level of education you have completed?</t>
+  </si>
+  <si>
+    <t>What was your household income from all sources in 2022?</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Is YOUR residence...</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Which languages are spoken in your home?</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>caption_note</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Asian/PI</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Other and mixed</t>
+  </si>
+  <si>
+    <t>&lt;25K</t>
+  </si>
+  <si>
+    <t>25K - &lt;50K</t>
+  </si>
+  <si>
+    <t>50K - &lt;75K</t>
+  </si>
+  <si>
+    <t>75K - &lt;100K</t>
+  </si>
+  <si>
+    <t>100K - &lt;150K</t>
+  </si>
+  <si>
+    <t>&gt;150K</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino</t>
+  </si>
+  <si>
+    <t>&lt;BA/BS</t>
+  </si>
+  <si>
+    <t>BA/BS</t>
+  </si>
+  <si>
+    <t>&gt;BA/BS</t>
+  </si>
+  <si>
+    <t>Rented/Other</t>
+  </si>
+  <si>
+    <t>Owned by you or someone else living there</t>
+  </si>
+  <si>
+    <t>Other lang</t>
+  </si>
+  <si>
+    <t>English only</t>
+  </si>
+  <si>
+    <t>This variable is derived from a survey question and was modified to align with census data and reduce personally identifiable information.</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Respondent Description of the Delta</t>
+  </si>
+  <si>
+    <t>Delta, One Generation from Now</t>
+  </si>
+  <si>
+    <t>Resident owned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1982,8 +2276,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2163,6 +2464,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2324,12 +2631,35 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2705,2167 +3035,2854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="79.5" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="63" style="2" customWidth="1"/>
+    <col min="4" max="4" width="79.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2"/>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2"/>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2"/>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2"/>
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2"/>
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>97</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>162</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C57" t="s">
+      <c r="F58" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="2">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="2">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F91" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>289</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F108" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>220</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>226</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" t="s">
-        <v>211</v>
-      </c>
-      <c r="C81" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>228</v>
-      </c>
-      <c r="B82" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>230</v>
-      </c>
-      <c r="B83" t="s">
-        <v>231</v>
-      </c>
-      <c r="E83" t="s">
-        <v>232</v>
-      </c>
-      <c r="F83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-      <c r="E84" t="s">
-        <v>234</v>
-      </c>
-      <c r="F84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" t="s">
-        <v>231</v>
-      </c>
-      <c r="E85" t="s">
-        <v>236</v>
-      </c>
-      <c r="F85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>230</v>
-      </c>
-      <c r="B86" t="s">
-        <v>231</v>
-      </c>
-      <c r="E86" t="s">
-        <v>238</v>
-      </c>
-      <c r="F86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" t="s">
-        <v>242</v>
-      </c>
-      <c r="F87" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" t="s">
-        <v>241</v>
-      </c>
-      <c r="E88" t="s">
-        <v>244</v>
-      </c>
-      <c r="F88" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>240</v>
-      </c>
-      <c r="B89" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" t="s">
-        <v>246</v>
-      </c>
-      <c r="F89" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>240</v>
-      </c>
-      <c r="B90" t="s">
-        <v>241</v>
-      </c>
-      <c r="E90" t="s">
-        <v>248</v>
-      </c>
-      <c r="F90" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>250</v>
-      </c>
-      <c r="B91" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" t="s">
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>300</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>303</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>309</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>312</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>318</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>321</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>323</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>326</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>329</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>338</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>342</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>347</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>352</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>355</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>364</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>370</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>373</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>379</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>382</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>384</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>255</v>
-      </c>
-      <c r="B93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" t="s">
-        <v>259</v>
-      </c>
-      <c r="D94" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>261</v>
-      </c>
-      <c r="B95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97" t="s">
-        <v>251</v>
-      </c>
-      <c r="C97" t="s">
-        <v>268</v>
-      </c>
-      <c r="D97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B98" t="s">
-        <v>251</v>
-      </c>
-      <c r="C98" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B100" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" t="s">
-        <v>277</v>
-      </c>
-      <c r="D100" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>279</v>
-      </c>
-      <c r="B101" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>281</v>
-      </c>
-      <c r="B102" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>283</v>
-      </c>
-      <c r="B103" t="s">
-        <v>284</v>
-      </c>
-      <c r="C103" t="s">
-        <v>284</v>
-      </c>
-      <c r="D103" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>285</v>
-      </c>
-      <c r="B104" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>287</v>
-      </c>
-      <c r="B105" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" t="s">
-        <v>289</v>
-      </c>
-      <c r="D105" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>290</v>
-      </c>
-      <c r="B106" t="s">
-        <v>291</v>
-      </c>
-      <c r="C106" t="s">
-        <v>292</v>
-      </c>
-      <c r="D106" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>293</v>
-      </c>
-      <c r="B107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D107" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>296</v>
-      </c>
-      <c r="B108" t="s">
-        <v>297</v>
-      </c>
-      <c r="C108" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>298</v>
-      </c>
-      <c r="B109" t="s">
-        <v>297</v>
-      </c>
-      <c r="C109" t="s">
-        <v>299</v>
-      </c>
-      <c r="D109" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>301</v>
-      </c>
-      <c r="B110" t="s">
-        <v>297</v>
-      </c>
-      <c r="C110" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>304</v>
-      </c>
-      <c r="B111" t="s">
-        <v>297</v>
-      </c>
-      <c r="C111" t="s">
-        <v>325</v>
-      </c>
-      <c r="D111" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>306</v>
-      </c>
-      <c r="B112" t="s">
-        <v>297</v>
-      </c>
-      <c r="C112" t="s">
-        <v>328</v>
-      </c>
-      <c r="D112" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>308</v>
-      </c>
-      <c r="B113" t="s">
-        <v>297</v>
-      </c>
-      <c r="C113" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>310</v>
-      </c>
-      <c r="B114" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>313</v>
-      </c>
-      <c r="B115" t="s">
-        <v>297</v>
-      </c>
-      <c r="C115" t="s">
-        <v>337</v>
-      </c>
-      <c r="D115" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>316</v>
-      </c>
-      <c r="B116" t="s">
-        <v>297</v>
-      </c>
-      <c r="C116" t="s">
-        <v>302</v>
-      </c>
-      <c r="D116" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>319</v>
-      </c>
-      <c r="B117" t="s">
-        <v>297</v>
-      </c>
-      <c r="C117" t="s">
-        <v>305</v>
-      </c>
-      <c r="D117" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>322</v>
-      </c>
-      <c r="B118" t="s">
-        <v>297</v>
-      </c>
-      <c r="C118" t="s">
-        <v>307</v>
-      </c>
-      <c r="D118" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>324</v>
-      </c>
-      <c r="B119" t="s">
-        <v>297</v>
-      </c>
-      <c r="C119" t="s">
-        <v>309</v>
-      </c>
-      <c r="D119" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>327</v>
-      </c>
-      <c r="B120" t="s">
-        <v>297</v>
-      </c>
-      <c r="C120" t="s">
-        <v>311</v>
-      </c>
-      <c r="D120" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>330</v>
-      </c>
-      <c r="B121" t="s">
-        <v>297</v>
-      </c>
-      <c r="C121" t="s">
-        <v>314</v>
-      </c>
-      <c r="D121" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>333</v>
-      </c>
-      <c r="B122" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" t="s">
-        <v>317</v>
-      </c>
-      <c r="D122" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>336</v>
-      </c>
-      <c r="B123" t="s">
-        <v>297</v>
-      </c>
-      <c r="C123" t="s">
-        <v>320</v>
-      </c>
-      <c r="D123" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>339</v>
-      </c>
-      <c r="B124" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>341</v>
-      </c>
-      <c r="B125" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>343</v>
-      </c>
-      <c r="B126" t="s">
-        <v>344</v>
-      </c>
-      <c r="C126" t="s">
-        <v>345</v>
-      </c>
-      <c r="D126" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>346</v>
-      </c>
-      <c r="B127" t="s">
-        <v>344</v>
-      </c>
-      <c r="C127" t="s">
-        <v>347</v>
-      </c>
-      <c r="D127" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>348</v>
-      </c>
-      <c r="B128" t="s">
-        <v>344</v>
-      </c>
-      <c r="C128" t="s">
-        <v>349</v>
-      </c>
-      <c r="D128" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>350</v>
-      </c>
-      <c r="B129" t="s">
-        <v>344</v>
-      </c>
-      <c r="C129" t="s">
-        <v>351</v>
-      </c>
-      <c r="D129" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>353</v>
-      </c>
-      <c r="B130" t="s">
-        <v>344</v>
-      </c>
-      <c r="C130" t="s">
-        <v>354</v>
-      </c>
-      <c r="D130" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>356</v>
-      </c>
-      <c r="B131" t="s">
-        <v>344</v>
-      </c>
-      <c r="C131" t="s">
-        <v>357</v>
-      </c>
-      <c r="D131" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>358</v>
-      </c>
-      <c r="B132" t="s">
-        <v>359</v>
-      </c>
-      <c r="C132" t="s">
-        <v>360</v>
-      </c>
-      <c r="D132" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>362</v>
-      </c>
-      <c r="B133" t="s">
-        <v>359</v>
-      </c>
-      <c r="C133" t="s">
-        <v>363</v>
-      </c>
-      <c r="D133" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>365</v>
-      </c>
-      <c r="B134" t="s">
-        <v>359</v>
-      </c>
-      <c r="C134" t="s">
-        <v>366</v>
-      </c>
-      <c r="D134" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>368</v>
-      </c>
-      <c r="B135" t="s">
-        <v>359</v>
-      </c>
-      <c r="C135" t="s">
-        <v>369</v>
-      </c>
-      <c r="D135" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>371</v>
-      </c>
-      <c r="B136" t="s">
-        <v>359</v>
-      </c>
-      <c r="C136" t="s">
-        <v>372</v>
-      </c>
-      <c r="D136" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>374</v>
-      </c>
-      <c r="B137" t="s">
-        <v>359</v>
-      </c>
-      <c r="C137" t="s">
-        <v>375</v>
-      </c>
-      <c r="D137" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>377</v>
-      </c>
-      <c r="B138" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" t="s">
-        <v>378</v>
-      </c>
-      <c r="D138" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>380</v>
-      </c>
-      <c r="B139" t="s">
-        <v>359</v>
-      </c>
-      <c r="C139" t="s">
-        <v>381</v>
-      </c>
-      <c r="D139" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>383</v>
-      </c>
-      <c r="B140" t="s">
-        <v>359</v>
-      </c>
-      <c r="C140" t="s">
-        <v>384</v>
-      </c>
-      <c r="D140" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>386</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B141" t="s">
-        <v>386</v>
-      </c>
-      <c r="C141" t="s">
-        <v>51</v>
-      </c>
-      <c r="D141" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="E142" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B142" t="s">
-        <v>386</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="F142" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="D143" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B143" t="s">
-        <v>386</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="F143" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D143" t="s">
+    </row>
+    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="D144" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B144" t="s">
-        <v>386</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="F144" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D144" t="s">
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="D145" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B145" t="s">
-        <v>386</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="F145" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D145" t="s">
+    </row>
+    <row r="146" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="D146" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B146" t="s">
-        <v>386</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="F146" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D146" t="s">
+    </row>
+    <row r="147" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="D147" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B147" t="s">
-        <v>386</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="F147" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D147" t="s">
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="D148" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B148" t="s">
-        <v>386</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="F148" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D148" t="s">
+    </row>
+    <row r="149" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>509</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>510</v>
-      </c>
-      <c r="B149" t="s">
-        <v>386</v>
-      </c>
-      <c r="C149" t="s">
-        <v>585</v>
-      </c>
-      <c r="D149" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="D150" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B150" t="s">
-        <v>386</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="F150" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D150" t="s">
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="D151" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B151" t="s">
-        <v>386</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="F151" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D151" t="s">
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="D152" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B152" t="s">
-        <v>386</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="F152" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>415</v>
       </c>
-      <c r="D152" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="B153" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B153" t="s">
+      <c r="E153" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="154" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="B154" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>418</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>419</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>419</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>419</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>419</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>420</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>420</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>420</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>420</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>421</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>421</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>421</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>421</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>421</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>421</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>422</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>420</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="G172" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>422</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>421</v>
-      </c>
-      <c r="B156" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>422</v>
-      </c>
-      <c r="B157" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="G174" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>423</v>
       </c>
-      <c r="B158" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="C175" s="9"/>
+      <c r="D175" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>423</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>424</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B177" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="G177" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>424</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>425</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B179" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>426</v>
-      </c>
-      <c r="B161" t="s">
-        <v>599</v>
+      <c r="G179" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>425</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4894,21 +5911,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" t="s">
         <v>543</v>
-      </c>
-      <c r="C1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4918,36 +5935,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" t="s">
         <v>434</v>
-      </c>
-      <c r="B6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4955,39 +5972,39 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4995,28 +6012,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5024,71 +6041,71 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5096,7 +6113,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5104,10 +6121,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5115,10 +6132,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,10 +6143,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,10 +6154,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5148,10 +6165,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,10 +6176,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5170,7 +6187,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5178,7 +6195,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -5186,10 +6203,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5197,10 +6214,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5208,10 +6225,10 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5219,10 +6236,10 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5230,10 +6247,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5241,10 +6258,10 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,10 +6269,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5263,10 +6280,10 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5274,10 +6291,10 @@
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5285,13 +6302,13 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,13 +6316,13 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C46" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,13 +6330,13 @@
         <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C47" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5327,13 +6344,13 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5341,13 +6358,13 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,13 +6372,13 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -5369,2275 +6386,2275 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D69" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C77" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D77" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D78" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D80" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D81" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D82" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C88" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D88" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C90" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D91" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D92" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D93" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D94" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C95" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D95" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B98" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C98" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C100" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C101" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C102" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D103" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E106" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C107" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D107" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C108" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D108" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D109" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C111" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D111" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D112" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D113" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D114" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C115" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D115" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C116" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D116" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D117" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B118" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C119" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B120" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C120" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D121" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B122" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C123" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C124" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C125" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B126" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C126" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D126" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C127" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D127" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B128" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D128" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B130" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C131" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C132" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D132" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B133" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C133" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D133" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C134" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D134" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B135" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C135" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D135" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C136" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B137" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C137" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D137" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C138" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D138" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C139" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D139" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C140" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D140" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B141" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C141" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D141" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B142" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B144" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B145" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B146" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D146" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D147" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B149" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D149" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B150" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D150" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D151" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B153" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B155" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B156" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B157" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D157" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B158" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D158" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D159" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B160" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D160" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B161" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B162" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D162" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B163" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D163" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B164" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D164" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B165" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D165" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B166" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D166" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B167" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E169" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B170" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E170" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B171" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B172" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D173" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C174" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D174" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B175" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C175" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D175" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B176" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C176" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D176" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B177" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C177" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D177" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B178" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C178" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D178" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B179" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C179" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D179" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B180" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C180" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D180" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B181" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C181" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D181" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B182" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C182" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D182" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B183" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C183" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D183" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B184" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C184" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D184" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B185" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C185" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D185" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B186" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C186" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D186" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B187" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C187" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D187" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B188" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C188" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D188" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B189" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C189" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D189" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B190" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C190" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D190" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B191" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C191" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D191" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B192" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B193" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B194" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B195" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C195" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B196" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B197" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B198" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B199" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B200" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B201" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B204" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B205" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B206" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B207" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B208" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B209" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D209" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B210" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C210" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D210" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B211" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D211" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B212" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C212" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D212" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B213" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D213" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C214" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D214" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B215" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D215" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D216" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B217" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C217" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D217" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B218" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C218" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D218" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B219" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C219" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D219" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B220" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C220" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D220" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B222" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B223" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B224" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B225" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B226" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B227" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B228" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B233" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B234" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B235" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B236" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B237" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B238" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B239" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B240" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B241" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B242" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B243" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B244" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B245" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E245" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B246" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -7662,36 +8679,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" t="s">
         <v>562</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E1" t="s">
-        <v>550</v>
-      </c>
       <c r="F1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -7699,13 +8716,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -7713,35 +8730,35 @@
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" t="s">
         <v>560</v>
-      </c>
-      <c r="C6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D6" t="s">
-        <v>561</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -7752,16 +8769,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" t="s">
         <v>568</v>
-      </c>
-      <c r="C7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D7" t="s">
-        <v>569</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -7769,16 +8786,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" t="s">
         <v>572</v>
-      </c>
-      <c r="C8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D8" t="s">
-        <v>573</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -7786,44 +8803,44 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9" t="s">
         <v>574</v>
-      </c>
-      <c r="C9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D9" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D11" t="s">
         <v>577</v>
-      </c>
-      <c r="C11" t="s">
-        <v>555</v>
-      </c>
-      <c r="D11" t="s">
-        <v>578</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -7831,30 +8848,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" t="s">
         <v>579</v>
-      </c>
-      <c r="C12" t="s">
-        <v>555</v>
-      </c>
-      <c r="D12" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
+        <v>580</v>
+      </c>
+      <c r="C13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" t="s">
         <v>581</v>
-      </c>
-      <c r="C13" t="s">
-        <v>555</v>
-      </c>
-      <c r="D13" t="s">
-        <v>582</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -7862,16 +8879,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" t="s">
         <v>583</v>
-      </c>
-      <c r="C14" t="s">
-        <v>555</v>
-      </c>
-      <c r="D14" t="s">
-        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7894,164 +8911,164 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" t="s">
         <v>532</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>533</v>
-      </c>
-      <c r="C1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" t="s">
         <v>587</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>588</v>
-      </c>
-      <c r="C2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" t="s">
         <v>590</v>
-      </c>
-      <c r="C3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" t="s">
         <v>592</v>
-      </c>
-      <c r="C4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" t="s">
         <v>535</v>
-      </c>
-      <c r="C5" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" t="s">
         <v>556</v>
-      </c>
-      <c r="C12" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" t="s">
         <v>558</v>
-      </c>
-      <c r="C13" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C14" t="s">
         <v>564</v>
-      </c>
-      <c r="B14" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0336ADA-3EDD-BC4D-9047-8BDF7E3D9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A2A38-4830-004C-BD9F-0D7A2ACCBB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="702">
   <si>
     <t>Variable</t>
   </si>
@@ -2123,6 +2123,12 @@
   </si>
   <si>
     <t>Resident owned</t>
+  </si>
+  <si>
+    <t>okabegr</t>
+  </si>
+  <si>
+    <t>Years in the Delta</t>
   </si>
 </sst>
 </file>
@@ -3037,9 +3043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3262,7 +3268,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>701</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -5894,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6189,6 +6195,9 @@
       <c r="B34" t="s">
         <v>429</v>
       </c>
+      <c r="C34" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -8665,10 +8674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3678AB9-5160-2F47-AB46-A977D8766B75}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8889,6 +8898,23 @@
       </c>
       <c r="D14" t="s">
         <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A2A38-4830-004C-BD9F-0D7A2ACCBB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F8DC0-6282-1B47-AC10-624E5EF39BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="704">
   <si>
     <t>Variable</t>
   </si>
@@ -2129,6 +2129,12 @@
   </si>
   <si>
     <t>Years in the Delta</t>
+  </si>
+  <si>
+    <t>Willing to answer supplemental questions</t>
+  </si>
+  <si>
+    <t>Supplemental questions?</t>
   </si>
 </sst>
 </file>
@@ -3043,9 +3049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4037,12 +4043,6 @@
       <c r="D65" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -4952,6 +4952,12 @@
       </c>
       <c r="D125" s="1" t="s">
         <v>341</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -5900,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A80" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/plot_parameters.xlsx
+++ b/inst/extdata/plot_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjitomari/Documents/GitHub/cdrs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F8DC0-6282-1B47-AC10-624E5EF39BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C9AF4-DC89-F744-B98B-F3219E0227C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -1042,9 +1042,6 @@
     <t>Q34</t>
   </si>
   <si>
-    <t>Political Views</t>
-  </si>
-  <si>
     <t>Q39</t>
   </si>
   <si>
@@ -2135,6 +2132,9 @@
   </si>
   <si>
     <t>Supplemental questions?</t>
+  </si>
+  <si>
+    <t>Demographic: Political Views</t>
   </si>
 </sst>
 </file>
@@ -3049,9 +3049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -3092,7 +3092,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -3114,7 +3114,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -3128,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -3142,7 +3142,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -3265,16 +3265,16 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -3482,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>76</v>
@@ -3572,10 +3572,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -3586,7 +3586,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>95</v>
@@ -3732,7 +3732,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>125</v>
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>163</v>
@@ -4024,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4038,7 +4038,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>183</v>
@@ -4049,13 +4049,13 @@
         <v>184</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -4066,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>187</v>
@@ -4184,7 +4184,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>210</v>
@@ -4285,10 +4285,10 @@
         <v>227</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>228</v>
@@ -4299,10 +4299,10 @@
         <v>229</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>230</v>
@@ -4361,10 +4361,10 @@
         <v>239</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>240</v>
@@ -4423,10 +4423,10 @@
         <v>249</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>250</v>
@@ -4569,10 +4569,10 @@
         <v>278</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>279</v>
@@ -4587,10 +4587,10 @@
         <v>280</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>281</v>
@@ -4607,10 +4607,10 @@
         <v>282</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>283</v>
@@ -4627,10 +4627,10 @@
         <v>284</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>285</v>
@@ -4641,10 +4641,10 @@
         <v>286</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>287</v>
@@ -4661,10 +4661,10 @@
         <v>289</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>290</v>
@@ -4681,10 +4681,10 @@
         <v>292</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>293</v>
@@ -4701,10 +4701,10 @@
         <v>295</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>296</v>
@@ -4931,252 +4931,252 @@
         <v>338</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>339</v>
+        <v>703</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>339</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="E125" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>341</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="F126" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>344</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>346</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>351</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>354</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>356</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>360</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>363</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>366</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>369</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>372</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>375</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>378</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>381</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>123</v>
@@ -5184,16 +5184,16 @@
     </row>
     <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>383</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>51</v>
@@ -5204,153 +5204,153 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>385</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>388</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>391</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>397</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>400</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>403</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>406</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>409</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>412</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>123</v>
@@ -5358,543 +5358,543 @@
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>414</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>658</v>
-      </c>
       <c r="D156" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C172" s="9" t="s">
-        <v>658</v>
-      </c>
       <c r="D172" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C174" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="D174" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G180" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I180" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -5906,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5923,21 +5923,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" t="s">
         <v>542</v>
-      </c>
-      <c r="C1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5947,36 +5947,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" t="s">
         <v>433</v>
-      </c>
-      <c r="B6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5984,39 +5984,39 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6024,28 +6024,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6053,71 +6053,71 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6133,10 +6133,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6144,10 +6144,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6155,10 +6155,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6166,10 +6166,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -6177,10 +6177,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6188,10 +6188,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6199,10 +6199,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6210,7 +6210,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6218,10 +6218,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,10 +6229,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6240,10 +6240,10 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,10 +6251,10 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6262,10 +6262,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6273,10 +6273,10 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -6284,10 +6284,10 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -6295,10 +6295,10 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -6306,10 +6306,10 @@
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -6317,13 +6317,13 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -6331,13 +6331,13 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6345,13 +6345,13 @@
         <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -6359,13 +6359,13 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -6373,13 +6373,13 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -6387,13 +6387,13 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -6409,13 +6409,13 @@
         <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -6423,13 +6423,13 @@
         <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C53" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -6437,13 +6437,13 @@
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C54" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6451,13 +6451,13 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6465,13 +6465,13 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -6479,13 +6479,13 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C57" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -6493,13 +6493,13 @@
         <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C58" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6507,13 +6507,13 @@
         <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -6521,13 +6521,13 @@
         <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C60" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -6535,21 +6535,21 @@
         <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -6557,13 +6557,13 @@
         <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D63" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -6571,13 +6571,13 @@
         <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -6585,13 +6585,13 @@
         <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C65" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -6599,13 +6599,13 @@
         <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -6613,13 +6613,13 @@
         <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C67" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -6627,13 +6627,13 @@
         <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D68" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -6641,13 +6641,13 @@
         <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -6655,13 +6655,13 @@
         <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6669,13 +6669,13 @@
         <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -6683,13 +6683,13 @@
         <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -6697,13 +6697,13 @@
         <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -6711,13 +6711,13 @@
         <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -6725,21 +6725,21 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D75" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -6747,13 +6747,13 @@
         <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C77" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D77" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,13 +6761,13 @@
         <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C78" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D78" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -6775,13 +6775,13 @@
         <v>166</v>
       </c>
       <c r="B79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C79" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -6789,13 +6789,13 @@
         <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -6803,13 +6803,13 @@
         <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D81" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -6817,13 +6817,13 @@
         <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -6831,13 +6831,13 @@
         <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -6845,15 +6845,15 @@
         <v>180</v>
       </c>
       <c r="B84" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -6861,7 +6861,7 @@
         <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -6869,7 +6869,7 @@
         <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -6877,13 +6877,13 @@
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C88" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -6891,13 +6891,13 @@
         <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C89" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -6905,13 +6905,13 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -6919,13 +6919,13 @@
         <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D91" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,13 +6933,13 @@
         <v>197</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -6947,13 +6947,13 @@
         <v>200</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C93" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D93" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -6961,13 +6961,13 @@
         <v>203</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D94" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -6975,13 +6975,13 @@
         <v>206</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D95" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -6989,10 +6989,10 @@
         <v>209</v>
       </c>
       <c r="B96" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -7000,10 +7000,10 @@
         <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C97" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -7011,10 +7011,10 @@
         <v>216</v>
       </c>
       <c r="B98" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -7022,10 +7022,10 @@
         <v>219</v>
       </c>
       <c r="B99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -7033,10 +7033,10 @@
         <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C100" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -7044,10 +7044,10 @@
         <v>225</v>
       </c>
       <c r="B101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -7055,10 +7055,10 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C102" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -7066,18 +7066,18 @@
         <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D103" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -7085,7 +7085,7 @@
         <v>229</v>
       </c>
       <c r="B105" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -7093,10 +7093,10 @@
         <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E106" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -7104,13 +7104,13 @@
         <v>249</v>
       </c>
       <c r="B107" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D107" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -7118,13 +7118,13 @@
         <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C108" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D108" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -7132,13 +7132,13 @@
         <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C109" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D109" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -7146,13 +7146,13 @@
         <v>257</v>
       </c>
       <c r="B110" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C110" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D110" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -7160,13 +7160,13 @@
         <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C111" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D111" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -7174,13 +7174,13 @@
         <v>263</v>
       </c>
       <c r="B112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C112" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -7188,13 +7188,13 @@
         <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D113" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -7202,13 +7202,13 @@
         <v>269</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C114" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D114" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -7216,13 +7216,13 @@
         <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C115" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D115" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -7230,13 +7230,13 @@
         <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C116" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D116" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -7244,18 +7244,18 @@
         <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D117" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B118" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -7263,10 +7263,10 @@
         <v>280</v>
       </c>
       <c r="B119" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C119" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -7274,10 +7274,10 @@
         <v>282</v>
       </c>
       <c r="B120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C120" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -7285,18 +7285,18 @@
         <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D121" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -7315,10 +7315,10 @@
         <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C124" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -7326,10 +7326,10 @@
         <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C125" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7337,13 +7337,13 @@
         <v>295</v>
       </c>
       <c r="B126" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C126" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D126" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7351,13 +7351,13 @@
         <v>297</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C127" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D127" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7365,13 +7365,13 @@
         <v>300</v>
       </c>
       <c r="B128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C128" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D128" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -7379,13 +7379,13 @@
         <v>303</v>
       </c>
       <c r="B129" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C129" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -7393,13 +7393,13 @@
         <v>305</v>
       </c>
       <c r="B130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C130" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D130" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -7407,13 +7407,13 @@
         <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C131" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D131" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -7421,13 +7421,13 @@
         <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C132" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D132" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7435,13 +7435,13 @@
         <v>312</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C133" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D133" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7449,13 +7449,13 @@
         <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C134" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D134" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7463,13 +7463,13 @@
         <v>318</v>
       </c>
       <c r="B135" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C135" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D135" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7477,13 +7477,13 @@
         <v>321</v>
       </c>
       <c r="B136" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C136" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D136" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7491,13 +7491,13 @@
         <v>323</v>
       </c>
       <c r="B137" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C137" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D137" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7505,13 +7505,13 @@
         <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D138" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7519,13 +7519,13 @@
         <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D139" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7533,13 +7533,13 @@
         <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C140" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D140" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7547,283 +7547,283 @@
         <v>335</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C141" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B142" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B143" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B144" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B145" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D146" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D148" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B149" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D149" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B150" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D150" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D151" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B152" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B153" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B154" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B155" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B156" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D156" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B157" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D158" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D159" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D160" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B161" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B162" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D162" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B163" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D163" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B164" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D164" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B165" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D166" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B167" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B168" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -7831,845 +7831,845 @@
         <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E169" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E170" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B171" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D173" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B174" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C174" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D174" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B175" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D175" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B176" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C176" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D176" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B177" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C177" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D177" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B178" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C178" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B179" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C179" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D179" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B180" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C180" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D180" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B181" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D181" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B182" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C182" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D182" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C183" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D183" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B184" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C184" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D184" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C185" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D185" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B186" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C186" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D186" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B187" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C187" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D187" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C188" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D188" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B189" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C189" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D189" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C190" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D190" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B191" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C191" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D191" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B192" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B193" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C193" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B194" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C194" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B195" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C195" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B196" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C196" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B197" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C197" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B198" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C198" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B199" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C199" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B200" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B201" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C201" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B202" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C202" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B203" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C203" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B204" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C204" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B205" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C205" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B206" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C206" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B207" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B208" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B209" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C209" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D209" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C210" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D210" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B211" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C211" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D211" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B212" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C212" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D212" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B213" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C213" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D213" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B214" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C214" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D214" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B215" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C215" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D215" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B216" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C216" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D216" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B217" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C217" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D217" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B218" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C218" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D218" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B219" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C219" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D219" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B220" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C220" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D220" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B221" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B223" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B224" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B225" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B226" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B227" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B228" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B233" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B234" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B235" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B236" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B237" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B238" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B239" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B240" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B241" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B242" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B243" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B244" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B245" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B246" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -8694,36 +8694,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" t="s">
         <v>561</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>548</v>
       </c>
-      <c r="D1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E1" t="s">
-        <v>549</v>
-      </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -8731,13 +8731,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -8745,35 +8745,35 @@
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" t="s">
         <v>559</v>
-      </c>
-      <c r="C6" t="s">
-        <v>554</v>
-      </c>
-      <c r="D6" t="s">
-        <v>560</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -8784,16 +8784,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" t="s">
         <v>567</v>
-      </c>
-      <c r="C7" t="s">
-        <v>554</v>
-      </c>
-      <c r="D7" t="s">
-        <v>568</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -8801,16 +8801,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D8" t="s">
         <v>571</v>
-      </c>
-      <c r="C8" t="s">
-        <v>554</v>
-      </c>
-      <c r="D8" t="s">
-        <v>572</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -8818,44 +8818,44 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" t="s">
         <v>573</v>
-      </c>
-      <c r="C9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D9" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" t="s">
         <v>576</v>
-      </c>
-      <c r="C11" t="s">
-        <v>554</v>
-      </c>
-      <c r="D11" t="s">
-        <v>577</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -8863,30 +8863,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" t="s">
         <v>578</v>
-      </c>
-      <c r="C12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D12" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
+        <v>579</v>
+      </c>
+      <c r="C13" t="s">
+        <v>553</v>
+      </c>
+      <c r="D13" t="s">
         <v>580</v>
-      </c>
-      <c r="C13" t="s">
-        <v>554</v>
-      </c>
-      <c r="D13" t="s">
-        <v>581</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -8894,30 +8894,30 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" t="s">
         <v>582</v>
-      </c>
-      <c r="C14" t="s">
-        <v>554</v>
-      </c>
-      <c r="D14" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -8943,164 +8943,164 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" t="s">
         <v>531</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>532</v>
-      </c>
-      <c r="C1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" t="s">
         <v>586</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>587</v>
-      </c>
-      <c r="C2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" t="s">
         <v>589</v>
-      </c>
-      <c r="C3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
         <v>591</v>
-      </c>
-      <c r="C4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" t="s">
         <v>534</v>
-      </c>
-      <c r="C5" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C12" t="s">
         <v>555</v>
-      </c>
-      <c r="C12" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B13" t="s">
+        <v>556</v>
+      </c>
+      <c r="C13" t="s">
         <v>557</v>
-      </c>
-      <c r="C13" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" t="s">
         <v>563</v>
-      </c>
-      <c r="B14" t="s">
-        <v>557</v>
-      </c>
-      <c r="C14" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
